--- a/Demo/AV-TEST-Cable-Survey-Combined.xlsx
+++ b/Demo/AV-TEST-Cable-Survey-Combined.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://odslco.sharepoint.com/sites/PROJECTS/Shared Documents/RND - Research and Development/P-RND-ODSL-44053 AVENTIS Development/Code Development 2/Aventis/Demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://odslco.sharepoint.com/sites/PROJECTS/Shared Documents/CNS - Expert Consultancy/Aventis teaching/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1194" documentId="13_ncr:1_{A758ECA3-D21F-BF4E-AFDD-9744F2FC81AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38B8E309-90D1-0746-9CF3-E09F2FBA637D}"/>
+  <xr:revisionPtr revIDLastSave="1258" documentId="13_ncr:1_{A758ECA3-D21F-BF4E-AFDD-9744F2FC81AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCDAAF81-50FA-0D44-9512-8E7D38720406}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19420" windowHeight="11500" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation" sheetId="1" r:id="rId1"/>
-    <sheet name="Lists" sheetId="23" state="hidden" r:id="rId2"/>
-    <sheet name="weather_file_1" sheetId="22" r:id="rId3"/>
-    <sheet name="Sequence" sheetId="4" r:id="rId4"/>
+    <sheet name="Programme" sheetId="24" r:id="rId2"/>
+    <sheet name="Lists" sheetId="23" state="hidden" r:id="rId3"/>
+    <sheet name="weather_file_1" sheetId="22" r:id="rId4"/>
+    <sheet name="Sequence" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_0_1">#REF!</definedName>
     <definedName name="C_S">#REF!</definedName>
-    <definedName name="Data" localSheetId="2">Table4[ID]</definedName>
+    <definedName name="Data" localSheetId="3">Table4[ID]</definedName>
     <definedName name="Data">Table4[ID]</definedName>
-    <definedName name="DataSource" localSheetId="2">Table4[ID]</definedName>
+    <definedName name="DataSource" localSheetId="3">Table4[ID]</definedName>
     <definedName name="DataSource">Table4[ID]</definedName>
     <definedName name="Port">#REF!</definedName>
     <definedName name="sh_ot">#REF!</definedName>
     <definedName name="Site">#REF!</definedName>
     <definedName name="type_run">#REF!</definedName>
-    <definedName name="www" localSheetId="2">Table4[ID]</definedName>
+    <definedName name="www" localSheetId="3">Table4[ID]</definedName>
     <definedName name="www">Table4[ID]</definedName>
     <definedName name="yes_no">#REF!</definedName>
   </definedNames>
@@ -54,7 +55,7 @@
     <author>tc={3D46E949-E7BB-CB47-A774-BB9C3D7ADCCD}</author>
   </authors>
   <commentList>
-    <comment ref="D51" authorId="0" shapeId="0" xr:uid="{3D46E949-E7BB-CB47-A774-BB9C3D7ADCCD}">
+    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{3D46E949-E7BB-CB47-A774-BB9C3D7ADCCD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="173">
   <si>
     <t>Simulation Info</t>
   </si>
@@ -411,9 +412,6 @@
     <t>WS10m_10min</t>
   </si>
   <si>
-    <t>CSsurf</t>
-  </si>
-  <si>
     <t>FRAGNET: Offshore Geophys</t>
   </si>
   <si>
@@ -486,24 +484,12 @@
     <t>Some more info (Not used in simulation)</t>
   </si>
   <si>
-    <t>filepath to wtg properties file</t>
-  </si>
-  <si>
     <t>filepath to previous simulation</t>
   </si>
   <si>
-    <t>filepath to weather file</t>
-  </si>
-  <si>
-    <t>filepath to weather file 2</t>
-  </si>
-  <si>
     <t>weather_file_1</t>
   </si>
   <si>
-    <t>weather_file_2</t>
-  </si>
-  <si>
     <t>Geophys Survey 1</t>
   </si>
   <si>
@@ -538,6 +524,69 @@
   </si>
   <si>
     <t>ROV Survey 3</t>
+  </si>
+  <si>
+    <t>Geophys Survey 4</t>
+  </si>
+  <si>
+    <t>Geophys Survey 5</t>
+  </si>
+  <si>
+    <t>Geotech Survey 4</t>
+  </si>
+  <si>
+    <t>Geotech Survey 5</t>
+  </si>
+  <si>
+    <t>Benthic Survey 4</t>
+  </si>
+  <si>
+    <t>Benthic Survey 5</t>
+  </si>
+  <si>
+    <t>ROV Survey 4</t>
+  </si>
+  <si>
+    <t>ROV Survey 5</t>
+  </si>
+  <si>
+    <t>/Users/jontypedersen/Library/CloudStorage/OneDrive-SharedLibraries-ODSL/Projects - Documents/CNS - Expert Consultancy/P-CNS-ITK-44721-Metocean and Installation Analysis Support/WP2 - Tender Analysis/Weather Data/01 WTG Properties Aventis/Location Properties.xlsx</t>
+  </si>
+  <si>
+    <t>/Users/jontypedersen/Library/CloudStorage/OneDrive-SharedLibraries-ODSL/Projects - Documents/CNS - Expert Consultancy/Aventis teaching/Demo_Weather_data.csv</t>
+  </si>
+  <si>
+    <t>Vessel Name</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Test Vessel</t>
+  </si>
+  <si>
+    <t>Test Scope</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Compare with Programme</t>
+  </si>
+  <si>
+    <t>Programme</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Tenderer P0</t>
+  </si>
+  <si>
+    <t>Tenderer P80</t>
   </si>
 </sst>
 </file>
@@ -891,7 +940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1182,6 +1231,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0393A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0393A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1207,7 +1269,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1605,6 +1667,12 @@
     <xf numFmtId="165" fontId="40" fillId="7" borderId="17" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1636,6 +1704,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1903,8 +1980,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="B40:C47" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
-  <autoFilter ref="B40:C47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="B44:C51" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="B44:C51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="filepath" dataDxfId="0"/>
@@ -1914,9 +1991,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1954,9 +2031,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1989,26 +2066,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,26 +2101,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2234,7 +2277,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D51" dT="2021-05-09T10:19:14.52" personId="{8F466A1C-C713-F540-8B3C-29B193D0CCAE}" id="{3D46E949-E7BB-CB47-A774-BB9C3D7ADCCD}">
+  <threadedComment ref="D55" dT="2021-05-09T10:19:14.52" personId="{8F466A1C-C713-F540-8B3C-29B193D0CCAE}" id="{3D46E949-E7BB-CB47-A774-BB9C3D7ADCCD}">
     <text>If a “Transit to” from or to site and using transit speed, then net duration turns in to net distance in km.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2242,11 +2285,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC116"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -2282,28 +2325,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="98" customHeight="1">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="S1" s="152"/>
-      <c r="T1" s="152"/>
-      <c r="U1" s="152"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
       <c r="V1" s="42"/>
       <c r="W1" s="42"/>
       <c r="X1" s="42"/>
@@ -2372,7 +2415,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="7"/>
@@ -2398,11 +2441,11 @@
       <c r="Y4" s="7"/>
     </row>
     <row r="5" spans="2:29" ht="20" customHeight="1">
-      <c r="B5" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>137</v>
+      <c r="B5" s="151" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>165</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
@@ -2427,16 +2470,16 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="2:29" ht="38">
-      <c r="B6" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+    <row r="6" spans="2:29" ht="20" customHeight="1">
+      <c r="B6" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2456,78 +2499,77 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="8"/>
-    </row>
-    <row r="7" spans="2:29" ht="18">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-    </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B9" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="51" t="str">
-        <f>C5</f>
-        <v>Name as you like</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+    </row>
+    <row r="7" spans="2:29" ht="20" customHeight="1">
+      <c r="B7" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="2:29" ht="20" customHeight="1">
+      <c r="B8" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="2:29" ht="38">
+      <c r="B9" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2547,74 +2589,62 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-    </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B10" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="2:29" ht="18">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B11" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="B11" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="10"/>
@@ -2622,10 +2652,11 @@
     </row>
     <row r="12" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B12" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="52">
-        <v>45078</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="51" t="str">
+        <f>C8</f>
+        <v>Name as you like</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2634,9 +2665,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="51" t="s">
-        <v>111</v>
-      </c>
+      <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -2658,9 +2687,11 @@
     </row>
     <row r="13" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B13" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="52"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2690,10 +2721,10 @@
     </row>
     <row r="14" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B14" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>139</v>
+        <v>62</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>111</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2724,10 +2755,10 @@
     </row>
     <row r="15" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B15" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="51">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="52">
+        <v>45078</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2736,7 +2767,9 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="51" t="s">
+        <v>111</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -2757,12 +2790,10 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B16" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="55">
-        <v>0</v>
-      </c>
+      <c r="B16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="52"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2791,48 +2822,50 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B17" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="B17" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B18" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="51">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -2857,16 +2890,16 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B19" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="131">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="55">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2891,45 +2924,43 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B20" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="132">
-        <v>0.75</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="B20" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B21" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="132">
-        <v>5.2083333333333336E-2</v>
+      <c r="B21" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2959,43 +2990,45 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B22" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+      <c r="B22" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="131">
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B23" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>56</v>
+      <c r="B23" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="132">
+        <v>0.75</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -3026,10 +3059,10 @@
     </row>
     <row r="24" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B24" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>71</v>
+        <v>119</v>
+      </c>
+      <c r="C24" s="132">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3059,77 +3092,77 @@
       <c r="AC24" s="10"/>
     </row>
     <row r="25" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B25" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
+      <c r="B25" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
     </row>
     <row r="26" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B26" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
+      <c r="B26" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
     </row>
     <row r="27" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B27" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>56</v>
+      <c r="B27" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -3159,11 +3192,11 @@
       <c r="AC27" s="10"/>
     </row>
     <row r="28" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B28" s="50" t="s">
-        <v>14</v>
+      <c r="B28" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3193,45 +3226,43 @@
       <c r="AC28" s="10"/>
     </row>
     <row r="29" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B29" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
+      <c r="B29" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
     </row>
     <row r="30" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B30" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>72</v>
+      <c r="B30" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>56</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -3261,43 +3292,45 @@
       <c r="AC30" s="10"/>
     </row>
     <row r="31" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B31" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
+      <c r="B31" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
     </row>
     <row r="32" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B32" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>11</v>
+      <c r="B32" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>73</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3327,11 +3360,11 @@
       <c r="AC32" s="10"/>
     </row>
     <row r="33" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B33" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>11</v>
+      <c r="B33" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>72</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3361,42 +3394,40 @@
       <c r="AC33" s="10"/>
     </row>
     <row r="34" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B34" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
+      <c r="B34" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
     </row>
     <row r="35" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B35" s="50" t="s">
-        <v>18</v>
+      <c r="B35" s="48" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="49" t="s">
         <v>11</v>
@@ -3430,7 +3461,7 @@
     </row>
     <row r="36" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B36" s="50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>11</v>
@@ -3458,22 +3489,20 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="10"/>
-      <c r="AA36" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
     </row>
     <row r="37" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B37" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>17</v>
+      <c r="B37" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>11</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -3494,173 +3523,193 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="10"/>
-      <c r="AA37" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
       <c r="AC37" s="10"/>
     </row>
-    <row r="38" spans="2:29" ht="14">
-      <c r="AA38" s="5" t="s">
+    <row r="38" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
+      <c r="B38" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+    </row>
+    <row r="39" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
+      <c r="B39" s="164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+    </row>
+    <row r="40" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
+      <c r="B40" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+    </row>
+    <row r="41" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
+      <c r="B41" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+    </row>
+    <row r="42" spans="2:29" ht="14">
+      <c r="AA42" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="2:29" ht="28" customHeight="1">
-      <c r="B39" s="35" t="s">
+    <row r="43" spans="2:29" ht="28" customHeight="1">
+      <c r="B43" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="AA39" s="5" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="AA43" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:29" ht="23" customHeight="1">
-      <c r="B40" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="37" t="s">
+    <row r="44" spans="2:29" ht="23" customHeight="1">
+      <c r="B44" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="AA40" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:29" ht="25" customHeight="1">
-      <c r="B41" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="AA41" s="5"/>
-    </row>
-    <row r="42" spans="2:29" ht="25" customHeight="1">
-      <c r="B42" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="134" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="AA42" s="5"/>
-    </row>
-    <row r="43" spans="2:29" ht="25" customHeight="1">
-      <c r="B43" s="133"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="AA43" s="5"/>
-    </row>
-    <row r="44" spans="2:29" ht="25" customHeight="1">
-      <c r="B44" s="133"/>
-      <c r="C44" s="134"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -3683,11 +3732,17 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-      <c r="AA44" s="5"/>
+      <c r="AA44" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" spans="2:29" ht="25" customHeight="1">
-      <c r="B45" s="133"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>161</v>
+      </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -3740,8 +3795,8 @@
       <c r="AA46" s="5"/>
     </row>
     <row r="47" spans="2:29" ht="25" customHeight="1">
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3766,641 +3821,581 @@
       <c r="Y47" s="5"/>
       <c r="AA47" s="5"/>
     </row>
-    <row r="48" spans="2:29" ht="15" customHeight="1">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-    </row>
-    <row r="49" spans="1:29" ht="15" customHeight="1">
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="21"/>
-    </row>
-    <row r="50" spans="1:29" ht="35" customHeight="1">
-      <c r="B50" s="156" t="s">
+    <row r="48" spans="2:29" ht="25" customHeight="1">
+      <c r="B48" s="133"/>
+      <c r="C48" s="134"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="AA48" s="5"/>
+    </row>
+    <row r="49" spans="2:29" ht="25" customHeight="1">
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="AA49" s="5"/>
+    </row>
+    <row r="50" spans="2:29" ht="25" customHeight="1">
+      <c r="B50" s="133"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="AA50" s="5"/>
+    </row>
+    <row r="51" spans="2:29" ht="25" customHeight="1">
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="AA51" s="5"/>
+    </row>
+    <row r="52" spans="2:29" ht="15" customHeight="1">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="21"/>
+      <c r="Y52" s="21"/>
+    </row>
+    <row r="53" spans="2:29" ht="15" customHeight="1">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="21"/>
+    </row>
+    <row r="54" spans="2:29" ht="35" customHeight="1">
+      <c r="B54" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="158"/>
-      <c r="K50" s="153" t="s">
+      <c r="C54" s="159"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="159"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="154"/>
-      <c r="S50" s="154"/>
-      <c r="T50" s="154"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="154"/>
-      <c r="W50" s="154"/>
-      <c r="X50" s="154"/>
-      <c r="Y50" s="155"/>
-      <c r="AC50" s="2"/>
-    </row>
-    <row r="51" spans="1:29" ht="73" customHeight="1">
-      <c r="B51" s="38" t="s">
+      <c r="L54" s="156"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="156"/>
+      <c r="O54" s="156"/>
+      <c r="P54" s="156"/>
+      <c r="Q54" s="156"/>
+      <c r="R54" s="156"/>
+      <c r="S54" s="156"/>
+      <c r="T54" s="156"/>
+      <c r="U54" s="156"/>
+      <c r="V54" s="156"/>
+      <c r="W54" s="156"/>
+      <c r="X54" s="156"/>
+      <c r="Y54" s="157"/>
+      <c r="AC54" s="2"/>
+    </row>
+    <row r="55" spans="2:29" ht="73" customHeight="1">
+      <c r="B55" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C55" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D55" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E55" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="39" t="s">
+      <c r="F55" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="39" t="s">
+      <c r="G55" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H55" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I55" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="40" t="s">
+      <c r="J55" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K55" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L51" s="40" t="s">
+      <c r="L55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="M51" s="40" t="s">
+      <c r="M55" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N51" s="40" t="s">
+      <c r="N55" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="O51" s="40" t="s">
+      <c r="O55" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="P51" s="40" t="s">
+      <c r="P55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Q51" s="40" t="s">
+      <c r="Q55" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="40" t="s">
+      <c r="R55" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="S51" s="40" t="s">
+      <c r="S55" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="T51" s="40" t="s">
+      <c r="T55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="U51" s="40" t="s">
+      <c r="U55" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="V51" s="40" t="s">
+      <c r="V55" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="W51" s="40" t="s">
+      <c r="W55" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="X51" s="40" t="s">
+      <c r="X55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Y51" s="40" t="s">
+      <c r="Y55" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AC51" s="2"/>
-    </row>
-    <row r="52" spans="1:29" ht="21" customHeight="1">
-      <c r="B52" s="141" t="s">
+      <c r="AC55" s="2"/>
+    </row>
+    <row r="56" spans="2:29" ht="21" customHeight="1">
+      <c r="B56" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="62">
-        <v>1</v>
-      </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="66"/>
-      <c r="S52" s="66"/>
-      <c r="T52" s="66"/>
-      <c r="U52" s="66"/>
-      <c r="V52" s="66"/>
-      <c r="W52" s="66"/>
-      <c r="X52" s="66"/>
-      <c r="Y52" s="67"/>
-    </row>
-    <row r="53" spans="1:29" ht="21" customHeight="1">
-      <c r="B53" s="142" t="s">
+      <c r="C56" s="62">
+        <v>1</v>
+      </c>
+      <c r="D56" s="63"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="66"/>
+      <c r="Q56" s="66"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="66"/>
+      <c r="T56" s="66"/>
+      <c r="U56" s="66"/>
+      <c r="V56" s="66"/>
+      <c r="W56" s="66"/>
+      <c r="X56" s="66"/>
+      <c r="Y56" s="67"/>
+    </row>
+    <row r="57" spans="2:29" ht="21" customHeight="1">
+      <c r="B57" s="142" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="143">
+        <v>1</v>
+      </c>
+      <c r="D57" s="144"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="143"/>
+      <c r="J57" s="146"/>
+      <c r="K57" s="146"/>
+      <c r="L57" s="146"/>
+      <c r="M57" s="146"/>
+      <c r="N57" s="146"/>
+      <c r="O57" s="146"/>
+      <c r="P57" s="146"/>
+      <c r="Q57" s="146"/>
+      <c r="R57" s="146"/>
+      <c r="S57" s="146"/>
+      <c r="T57" s="146"/>
+      <c r="U57" s="146"/>
+      <c r="V57" s="146"/>
+      <c r="W57" s="146"/>
+      <c r="X57" s="146"/>
+      <c r="Y57" s="147"/>
+    </row>
+    <row r="58" spans="2:29" ht="21" customHeight="1">
+      <c r="B58" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="143">
-        <v>1</v>
-      </c>
-      <c r="D53" s="144"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="143"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
-      <c r="M53" s="146"/>
-      <c r="N53" s="146"/>
-      <c r="O53" s="146"/>
-      <c r="P53" s="146"/>
-      <c r="Q53" s="146"/>
-      <c r="R53" s="146"/>
-      <c r="S53" s="146"/>
-      <c r="T53" s="146"/>
-      <c r="U53" s="146"/>
-      <c r="V53" s="146"/>
-      <c r="W53" s="146"/>
-      <c r="X53" s="146"/>
-      <c r="Y53" s="147"/>
-    </row>
-    <row r="54" spans="1:29" ht="21" customHeight="1">
-      <c r="B54" s="142" t="s">
+      <c r="C58" s="143">
+        <v>1</v>
+      </c>
+      <c r="D58" s="144"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="146"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="146"/>
+      <c r="M58" s="146"/>
+      <c r="N58" s="146"/>
+      <c r="O58" s="146"/>
+      <c r="P58" s="146"/>
+      <c r="Q58" s="146"/>
+      <c r="R58" s="146"/>
+      <c r="S58" s="146"/>
+      <c r="T58" s="146"/>
+      <c r="U58" s="146"/>
+      <c r="V58" s="146"/>
+      <c r="W58" s="146"/>
+      <c r="X58" s="146"/>
+      <c r="Y58" s="147"/>
+    </row>
+    <row r="59" spans="2:29" ht="21" customHeight="1">
+      <c r="B59" s="142" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="143">
+        <v>1</v>
+      </c>
+      <c r="D59" s="144"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="146"/>
+      <c r="K59" s="146"/>
+      <c r="L59" s="146"/>
+      <c r="M59" s="146"/>
+      <c r="N59" s="146"/>
+      <c r="O59" s="146"/>
+      <c r="P59" s="146"/>
+      <c r="Q59" s="146"/>
+      <c r="R59" s="146"/>
+      <c r="S59" s="146"/>
+      <c r="T59" s="146"/>
+      <c r="U59" s="146"/>
+      <c r="V59" s="146"/>
+      <c r="W59" s="146"/>
+      <c r="X59" s="146"/>
+      <c r="Y59" s="147"/>
+    </row>
+    <row r="60" spans="2:29" ht="21" customHeight="1">
+      <c r="B60" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="143">
-        <v>1</v>
-      </c>
-      <c r="D54" s="144"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
-      <c r="M54" s="146"/>
-      <c r="N54" s="146"/>
-      <c r="O54" s="146"/>
-      <c r="P54" s="146"/>
-      <c r="Q54" s="146"/>
-      <c r="R54" s="146"/>
-      <c r="S54" s="146"/>
-      <c r="T54" s="146"/>
-      <c r="U54" s="146"/>
-      <c r="V54" s="146"/>
-      <c r="W54" s="146"/>
-      <c r="X54" s="146"/>
-      <c r="Y54" s="147"/>
-    </row>
-    <row r="55" spans="1:29" ht="21" customHeight="1">
-      <c r="B55" s="142" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="143">
-        <v>1</v>
-      </c>
-      <c r="D55" s="144"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
-      <c r="M55" s="146"/>
-      <c r="N55" s="146"/>
-      <c r="O55" s="146"/>
-      <c r="P55" s="146"/>
-      <c r="Q55" s="146"/>
-      <c r="R55" s="146"/>
-      <c r="S55" s="146"/>
-      <c r="T55" s="146"/>
-      <c r="U55" s="146"/>
-      <c r="V55" s="146"/>
-      <c r="W55" s="146"/>
-      <c r="X55" s="146"/>
-      <c r="Y55" s="147"/>
-    </row>
-    <row r="56" spans="1:29" ht="21" customHeight="1">
-      <c r="B56" s="148" t="s">
+      <c r="C60" s="69">
+        <v>1</v>
+      </c>
+      <c r="D60" s="149"/>
+      <c r="E60" s="150"/>
+      <c r="F60" s="150"/>
+      <c r="G60" s="150"/>
+      <c r="H60" s="150"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
+      <c r="O60" s="71"/>
+      <c r="P60" s="71"/>
+      <c r="Q60" s="71"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="71"/>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="73"/>
+    </row>
+    <row r="61" spans="2:29" ht="10" customHeight="1">
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+    </row>
+    <row r="62" spans="2:29" ht="22" customHeight="1">
+      <c r="B62" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+    </row>
+    <row r="63" spans="2:29" ht="24" customHeight="1">
+      <c r="B63" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="153"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="153"/>
+      <c r="M63" s="153"/>
+      <c r="N63" s="153"/>
+      <c r="O63" s="153"/>
+      <c r="P63" s="153"/>
+      <c r="Q63" s="153"/>
+      <c r="R63" s="153"/>
+      <c r="S63" s="153"/>
+      <c r="T63" s="153"/>
+      <c r="U63" s="153"/>
+      <c r="V63" s="153"/>
+      <c r="W63" s="153"/>
+      <c r="X63" s="153"/>
+      <c r="Y63" s="153"/>
+    </row>
+    <row r="64" spans="2:29" ht="21" customHeight="1">
+      <c r="B64" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="62">
+        <v>1</v>
+      </c>
+      <c r="D64" s="63">
+        <v>0</v>
+      </c>
+      <c r="E64" s="64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="67"/>
+    </row>
+    <row r="65" spans="1:25" ht="21" customHeight="1">
+      <c r="B65" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="69">
-        <v>1</v>
-      </c>
-      <c r="D56" s="149"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
-      <c r="V56" s="71"/>
-      <c r="W56" s="71"/>
-      <c r="X56" s="71"/>
-      <c r="Y56" s="73"/>
-    </row>
-    <row r="57" spans="1:29" ht="10" customHeight="1">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-    </row>
-    <row r="58" spans="1:29" ht="22" customHeight="1">
-      <c r="B58" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-    </row>
-    <row r="59" spans="1:29" ht="24" customHeight="1">
-      <c r="B59" s="151" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="151"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="151"/>
-      <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="151"/>
-      <c r="J59" s="151"/>
-      <c r="K59" s="151"/>
-      <c r="L59" s="151"/>
-      <c r="M59" s="151"/>
-      <c r="N59" s="151"/>
-      <c r="O59" s="151"/>
-      <c r="P59" s="151"/>
-      <c r="Q59" s="151"/>
-      <c r="R59" s="151"/>
-      <c r="S59" s="151"/>
-      <c r="T59" s="151"/>
-      <c r="U59" s="151"/>
-      <c r="V59" s="151"/>
-      <c r="W59" s="151"/>
-      <c r="X59" s="151"/>
-      <c r="Y59" s="151"/>
-    </row>
-    <row r="60" spans="1:29" ht="21" customHeight="1">
-      <c r="B60" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="62">
-        <v>1</v>
-      </c>
-      <c r="D60" s="63">
-        <v>0</v>
-      </c>
-      <c r="E60" s="64">
-        <v>1</v>
-      </c>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
-      <c r="Y60" s="67"/>
-    </row>
-    <row r="61" spans="1:29" ht="21" customHeight="1">
-      <c r="B61" s="135" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="136">
-        <v>1</v>
-      </c>
-      <c r="D61" s="137">
+      <c r="C65" s="136">
+        <v>1</v>
+      </c>
+      <c r="D65" s="137">
         <v>24</v>
       </c>
-      <c r="E61" s="138">
-        <f>D61</f>
+      <c r="E65" s="138">
+        <f>D65</f>
         <v>24</v>
       </c>
-      <c r="F61" s="138"/>
-      <c r="G61" s="138"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="J61" s="139"/>
-      <c r="K61" s="139"/>
-      <c r="L61" s="139"/>
-      <c r="M61" s="139"/>
-      <c r="N61" s="139"/>
-      <c r="O61" s="139"/>
-      <c r="P61" s="139"/>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="139"/>
-      <c r="S61" s="139"/>
-      <c r="T61" s="139"/>
-      <c r="U61" s="139"/>
-      <c r="V61" s="139"/>
-      <c r="W61" s="139"/>
-      <c r="X61" s="139"/>
-      <c r="Y61" s="140"/>
-    </row>
-    <row r="62" spans="1:29" ht="21" customHeight="1">
-      <c r="A62" s="17"/>
-      <c r="B62" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="75">
-        <v>1</v>
-      </c>
-      <c r="D62" s="76">
-        <v>24</v>
-      </c>
-      <c r="E62" s="76">
-        <v>24</v>
-      </c>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="L62" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="M62" s="77">
-        <v>2</v>
-      </c>
-      <c r="N62" s="77"/>
-      <c r="O62" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="P62" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62" s="77">
-        <v>12.5</v>
-      </c>
-      <c r="R62" s="77"/>
-      <c r="S62" s="77"/>
-      <c r="T62" s="77"/>
-      <c r="U62" s="77"/>
-      <c r="V62" s="77"/>
-      <c r="W62" s="77"/>
-      <c r="X62" s="77"/>
-      <c r="Y62" s="78"/>
-    </row>
-    <row r="63" spans="1:29" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B63" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="75">
-        <v>1</v>
-      </c>
-      <c r="D63" s="76">
-        <v>0</v>
-      </c>
-      <c r="E63" s="76">
-        <v>1</v>
-      </c>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="77"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77"/>
-      <c r="Q63" s="77"/>
-      <c r="R63" s="77"/>
-      <c r="S63" s="77"/>
-      <c r="T63" s="77"/>
-      <c r="U63" s="77"/>
-      <c r="V63" s="77"/>
-      <c r="W63" s="77"/>
-      <c r="X63" s="77"/>
-      <c r="Y63" s="78"/>
-    </row>
-    <row r="64" spans="1:29" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B64" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C64" s="75">
-        <v>1</v>
-      </c>
-      <c r="D64" s="76">
-        <v>24</v>
-      </c>
-      <c r="E64" s="76">
-        <v>24</v>
-      </c>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="L64" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="M64" s="77">
-        <v>2.5</v>
-      </c>
-      <c r="N64" s="77"/>
-      <c r="O64" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="P64" s="77" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q64" s="77">
-        <v>12.5</v>
-      </c>
-      <c r="R64" s="77"/>
-      <c r="S64" s="77"/>
-      <c r="T64" s="77"/>
-      <c r="U64" s="77"/>
-      <c r="V64" s="77"/>
-      <c r="W64" s="77"/>
-      <c r="X64" s="77"/>
-      <c r="Y64" s="78"/>
-    </row>
-    <row r="65" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B65" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="75">
-        <v>1</v>
-      </c>
-      <c r="D65" s="76">
-        <v>0</v>
-      </c>
-      <c r="E65" s="76">
-        <v>1</v>
-      </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="77"/>
-      <c r="S65" s="77"/>
-      <c r="T65" s="77"/>
-      <c r="U65" s="77"/>
-      <c r="V65" s="77"/>
-      <c r="W65" s="77"/>
-      <c r="X65" s="77"/>
-      <c r="Y65" s="78"/>
-    </row>
-    <row r="66" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="F65" s="138"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J65" s="139"/>
+      <c r="K65" s="139"/>
+      <c r="L65" s="139"/>
+      <c r="M65" s="139"/>
+      <c r="N65" s="139"/>
+      <c r="O65" s="139"/>
+      <c r="P65" s="139"/>
+      <c r="Q65" s="139"/>
+      <c r="R65" s="139"/>
+      <c r="S65" s="139"/>
+      <c r="T65" s="139"/>
+      <c r="U65" s="139"/>
+      <c r="V65" s="139"/>
+      <c r="W65" s="139"/>
+      <c r="X65" s="139"/>
+      <c r="Y65" s="140"/>
+    </row>
+    <row r="66" spans="1:25" ht="21" customHeight="1">
+      <c r="A66" s="17"/>
       <c r="B66" s="74" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C66" s="75">
         <v>1</v>
@@ -4415,7 +4410,7 @@
       <c r="G66" s="76"/>
       <c r="H66" s="76"/>
       <c r="I66" s="76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J66" s="77"/>
       <c r="K66" s="77" t="s">
@@ -4425,7 +4420,7 @@
         <v>33</v>
       </c>
       <c r="M66" s="77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N66" s="77"/>
       <c r="O66" s="77" t="s">
@@ -4435,7 +4430,7 @@
         <v>33</v>
       </c>
       <c r="Q66" s="77">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="R66" s="77"/>
       <c r="S66" s="77"/>
@@ -4463,7 +4458,7 @@
       <c r="G67" s="76"/>
       <c r="H67" s="76"/>
       <c r="I67" s="76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J67" s="77"/>
       <c r="K67" s="77"/>
@@ -4484,7 +4479,7 @@
     </row>
     <row r="68" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B68" s="74" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C68" s="75">
         <v>1</v>
@@ -4499,7 +4494,7 @@
       <c r="G68" s="76"/>
       <c r="H68" s="76"/>
       <c r="I68" s="76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J68" s="77"/>
       <c r="K68" s="77" t="s">
@@ -4509,7 +4504,7 @@
         <v>33</v>
       </c>
       <c r="M68" s="77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N68" s="77"/>
       <c r="O68" s="77" t="s">
@@ -4519,7 +4514,7 @@
         <v>33</v>
       </c>
       <c r="Q68" s="77">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="R68" s="77"/>
       <c r="S68" s="77"/>
@@ -4547,7 +4542,7 @@
       <c r="G69" s="76"/>
       <c r="H69" s="76"/>
       <c r="I69" s="76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -4568,7 +4563,7 @@
     </row>
     <row r="70" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B70" s="74" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C70" s="75">
         <v>1</v>
@@ -4583,7 +4578,7 @@
       <c r="G70" s="76"/>
       <c r="H70" s="76"/>
       <c r="I70" s="76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J70" s="77"/>
       <c r="K70" s="77" t="s">
@@ -4593,7 +4588,7 @@
         <v>33</v>
       </c>
       <c r="M70" s="77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N70" s="77"/>
       <c r="O70" s="77" t="s">
@@ -4603,7 +4598,7 @@
         <v>33</v>
       </c>
       <c r="Q70" s="77">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R70" s="77"/>
       <c r="S70" s="77"/>
@@ -4631,7 +4626,7 @@
       <c r="G71" s="76"/>
       <c r="H71" s="76"/>
       <c r="I71" s="76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J71" s="77"/>
       <c r="K71" s="77"/>
@@ -4650,320 +4645,308 @@
       <c r="X71" s="77"/>
       <c r="Y71" s="78"/>
     </row>
-    <row r="72" spans="1:25" ht="21" customHeight="1">
-      <c r="B72" s="135" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="136">
-        <v>1</v>
-      </c>
-      <c r="D72" s="137">
+    <row r="72" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B72" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="75">
+        <v>1</v>
+      </c>
+      <c r="D72" s="76">
+        <v>24</v>
+      </c>
+      <c r="E72" s="76">
+        <v>24</v>
+      </c>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="J72" s="77"/>
+      <c r="K72" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="M72" s="77">
+        <v>2</v>
+      </c>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="P72" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q72" s="77">
+        <v>20</v>
+      </c>
+      <c r="R72" s="77"/>
+      <c r="S72" s="77"/>
+      <c r="T72" s="77"/>
+      <c r="U72" s="77"/>
+      <c r="V72" s="77"/>
+      <c r="W72" s="77"/>
+      <c r="X72" s="77"/>
+      <c r="Y72" s="78"/>
+    </row>
+    <row r="73" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B73" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="75">
+        <v>1</v>
+      </c>
+      <c r="D73" s="76">
+        <v>0</v>
+      </c>
+      <c r="E73" s="76">
+        <v>1</v>
+      </c>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="77"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="77"/>
+      <c r="P73" s="77"/>
+      <c r="Q73" s="77"/>
+      <c r="R73" s="77"/>
+      <c r="S73" s="77"/>
+      <c r="T73" s="77"/>
+      <c r="U73" s="77"/>
+      <c r="V73" s="77"/>
+      <c r="W73" s="77"/>
+      <c r="X73" s="77"/>
+      <c r="Y73" s="78"/>
+    </row>
+    <row r="74" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B74" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="75">
+        <v>1</v>
+      </c>
+      <c r="D74" s="76">
+        <v>24</v>
+      </c>
+      <c r="E74" s="76">
+        <v>24</v>
+      </c>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="M74" s="77">
+        <v>2.5</v>
+      </c>
+      <c r="N74" s="77"/>
+      <c r="O74" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="P74" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q74" s="77">
+        <v>36</v>
+      </c>
+      <c r="R74" s="77"/>
+      <c r="S74" s="77"/>
+      <c r="T74" s="77"/>
+      <c r="U74" s="77"/>
+      <c r="V74" s="77"/>
+      <c r="W74" s="77"/>
+      <c r="X74" s="77"/>
+      <c r="Y74" s="78"/>
+    </row>
+    <row r="75" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B75" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="76">
+        <v>0</v>
+      </c>
+      <c r="E75" s="76">
+        <v>1</v>
+      </c>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" s="77"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
+      <c r="M75" s="77"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="77"/>
+      <c r="P75" s="77"/>
+      <c r="Q75" s="77"/>
+      <c r="R75" s="77"/>
+      <c r="S75" s="77"/>
+      <c r="T75" s="77"/>
+      <c r="U75" s="77"/>
+      <c r="V75" s="77"/>
+      <c r="W75" s="77"/>
+      <c r="X75" s="77"/>
+      <c r="Y75" s="78"/>
+    </row>
+    <row r="76" spans="1:25" ht="21" customHeight="1">
+      <c r="B76" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="136">
+        <v>1</v>
+      </c>
+      <c r="D76" s="137">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E72" s="138">
-        <f>D72</f>
+      <c r="E76" s="138">
+        <f>D76</f>
         <v>24</v>
       </c>
-      <c r="F72" s="138"/>
-      <c r="G72" s="138"/>
-      <c r="H72" s="138"/>
-      <c r="I72" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="J72" s="139"/>
-      <c r="K72" s="139"/>
-      <c r="L72" s="139"/>
-      <c r="M72" s="139"/>
-      <c r="N72" s="139"/>
-      <c r="O72" s="139"/>
-      <c r="P72" s="139"/>
-      <c r="Q72" s="139"/>
-      <c r="R72" s="139"/>
-      <c r="S72" s="139"/>
-      <c r="T72" s="139"/>
-      <c r="U72" s="139"/>
-      <c r="V72" s="139"/>
-      <c r="W72" s="139"/>
-      <c r="X72" s="139"/>
-      <c r="Y72" s="140"/>
-    </row>
-    <row r="73" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B73" s="30"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="29"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="29"/>
-      <c r="U73" s="29"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
-    </row>
-    <row r="74" spans="1:25" ht="24" customHeight="1">
-      <c r="B74" s="151" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="151"/>
-      <c r="D74" s="151"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="151"/>
-      <c r="G74" s="151"/>
-      <c r="H74" s="151"/>
-      <c r="I74" s="151"/>
-      <c r="J74" s="151"/>
-      <c r="K74" s="151"/>
-      <c r="L74" s="151"/>
-      <c r="M74" s="151"/>
-      <c r="N74" s="151"/>
-      <c r="O74" s="151"/>
-      <c r="P74" s="151"/>
-      <c r="Q74" s="151"/>
-      <c r="R74" s="151"/>
-      <c r="S74" s="151"/>
-      <c r="T74" s="151"/>
-      <c r="U74" s="151"/>
-      <c r="V74" s="151"/>
-      <c r="W74" s="151"/>
-      <c r="X74" s="151"/>
-      <c r="Y74" s="151"/>
-    </row>
-    <row r="75" spans="1:25" ht="21" customHeight="1">
-      <c r="B75" s="135" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="136">
-        <v>1</v>
-      </c>
-      <c r="D75" s="137">
+      <c r="F76" s="138"/>
+      <c r="G76" s="138"/>
+      <c r="H76" s="138"/>
+      <c r="I76" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J76" s="139"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="139"/>
+      <c r="M76" s="139"/>
+      <c r="N76" s="139"/>
+      <c r="O76" s="139"/>
+      <c r="P76" s="139"/>
+      <c r="Q76" s="139"/>
+      <c r="R76" s="139"/>
+      <c r="S76" s="139"/>
+      <c r="T76" s="139"/>
+      <c r="U76" s="139"/>
+      <c r="V76" s="139"/>
+      <c r="W76" s="139"/>
+      <c r="X76" s="139"/>
+      <c r="Y76" s="140"/>
+    </row>
+    <row r="77" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B77" s="30"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29"/>
+    </row>
+    <row r="78" spans="1:25" ht="24" customHeight="1">
+      <c r="B78" s="153" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="153"/>
+      <c r="D78" s="153"/>
+      <c r="E78" s="153"/>
+      <c r="F78" s="153"/>
+      <c r="G78" s="153"/>
+      <c r="H78" s="153"/>
+      <c r="I78" s="153"/>
+      <c r="J78" s="153"/>
+      <c r="K78" s="153"/>
+      <c r="L78" s="153"/>
+      <c r="M78" s="153"/>
+      <c r="N78" s="153"/>
+      <c r="O78" s="153"/>
+      <c r="P78" s="153"/>
+      <c r="Q78" s="153"/>
+      <c r="R78" s="153"/>
+      <c r="S78" s="153"/>
+      <c r="T78" s="153"/>
+      <c r="U78" s="153"/>
+      <c r="V78" s="153"/>
+      <c r="W78" s="153"/>
+      <c r="X78" s="153"/>
+      <c r="Y78" s="153"/>
+    </row>
+    <row r="79" spans="1:25" ht="21" customHeight="1">
+      <c r="B79" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="136">
+        <v>1</v>
+      </c>
+      <c r="D79" s="137">
         <f>ROUND(1.5*24,0)</f>
         <v>36</v>
       </c>
-      <c r="E75" s="138">
-        <f>D75</f>
+      <c r="E79" s="138">
+        <f>D79</f>
         <v>36</v>
       </c>
-      <c r="F75" s="138"/>
-      <c r="G75" s="138"/>
-      <c r="H75" s="138"/>
-      <c r="I75" s="65" t="s">
+      <c r="F79" s="138"/>
+      <c r="G79" s="138"/>
+      <c r="H79" s="138"/>
+      <c r="I79" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J79" s="139"/>
+      <c r="K79" s="139"/>
+      <c r="L79" s="139"/>
+      <c r="M79" s="139"/>
+      <c r="N79" s="139"/>
+      <c r="O79" s="139"/>
+      <c r="P79" s="139"/>
+      <c r="Q79" s="139"/>
+      <c r="R79" s="139"/>
+      <c r="S79" s="139"/>
+      <c r="T79" s="139"/>
+      <c r="U79" s="139"/>
+      <c r="V79" s="139"/>
+      <c r="W79" s="139"/>
+      <c r="X79" s="139"/>
+      <c r="Y79" s="140"/>
+    </row>
+    <row r="80" spans="1:25" ht="21" customHeight="1">
+      <c r="A80" s="17"/>
+      <c r="B80" s="79" t="s">
         <v>143</v>
-      </c>
-      <c r="J75" s="139"/>
-      <c r="K75" s="139"/>
-      <c r="L75" s="139"/>
-      <c r="M75" s="139"/>
-      <c r="N75" s="139"/>
-      <c r="O75" s="139"/>
-      <c r="P75" s="139"/>
-      <c r="Q75" s="139"/>
-      <c r="R75" s="139"/>
-      <c r="S75" s="139"/>
-      <c r="T75" s="139"/>
-      <c r="U75" s="139"/>
-      <c r="V75" s="139"/>
-      <c r="W75" s="139"/>
-      <c r="X75" s="139"/>
-      <c r="Y75" s="140"/>
-    </row>
-    <row r="76" spans="1:25" ht="21" customHeight="1">
-      <c r="A76" s="17"/>
-      <c r="B76" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="80">
-        <v>1</v>
-      </c>
-      <c r="D76" s="81">
-        <v>24</v>
-      </c>
-      <c r="E76" s="81">
-        <v>24</v>
-      </c>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="81"/>
-      <c r="I76" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="L76" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="M76" s="82">
-        <v>2</v>
-      </c>
-      <c r="N76" s="82"/>
-      <c r="O76" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="P76" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q76" s="82">
-        <v>12.5</v>
-      </c>
-      <c r="R76" s="82"/>
-      <c r="S76" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="T76" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="U76" s="82">
-        <v>1</v>
-      </c>
-      <c r="V76" s="82"/>
-      <c r="W76" s="82"/>
-      <c r="X76" s="82"/>
-      <c r="Y76" s="83"/>
-    </row>
-    <row r="77" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B77" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="80">
-        <v>1</v>
-      </c>
-      <c r="D77" s="81">
-        <v>0</v>
-      </c>
-      <c r="E77" s="81">
-        <v>1</v>
-      </c>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="81"/>
-      <c r="I77" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="J77" s="82"/>
-      <c r="K77" s="82"/>
-      <c r="L77" s="82"/>
-      <c r="M77" s="82"/>
-      <c r="N77" s="82"/>
-      <c r="O77" s="82"/>
-      <c r="P77" s="82"/>
-      <c r="Q77" s="82"/>
-      <c r="R77" s="82"/>
-      <c r="S77" s="82"/>
-      <c r="T77" s="82"/>
-      <c r="U77" s="82"/>
-      <c r="V77" s="82"/>
-      <c r="W77" s="82"/>
-      <c r="X77" s="82"/>
-      <c r="Y77" s="83"/>
-    </row>
-    <row r="78" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B78" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="C78" s="80">
-        <v>1</v>
-      </c>
-      <c r="D78" s="81">
-        <v>24</v>
-      </c>
-      <c r="E78" s="81">
-        <v>24</v>
-      </c>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="81"/>
-      <c r="I78" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="J78" s="82"/>
-      <c r="K78" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="L78" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="M78" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="N78" s="82"/>
-      <c r="O78" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="P78" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q78" s="82">
-        <v>12.5</v>
-      </c>
-      <c r="R78" s="82"/>
-      <c r="S78" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="T78" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="U78" s="82">
-        <v>1</v>
-      </c>
-      <c r="V78" s="82"/>
-      <c r="W78" s="82"/>
-      <c r="X78" s="82"/>
-      <c r="Y78" s="83"/>
-    </row>
-    <row r="79" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B79" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="80">
-        <v>1</v>
-      </c>
-      <c r="D79" s="81">
-        <v>0</v>
-      </c>
-      <c r="E79" s="81">
-        <v>1</v>
-      </c>
-      <c r="F79" s="81"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="81"/>
-      <c r="I79" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="J79" s="82"/>
-      <c r="K79" s="82"/>
-      <c r="L79" s="82"/>
-      <c r="M79" s="82"/>
-      <c r="N79" s="82"/>
-      <c r="O79" s="82"/>
-      <c r="P79" s="82"/>
-      <c r="Q79" s="82"/>
-      <c r="R79" s="82"/>
-      <c r="S79" s="82"/>
-      <c r="T79" s="82"/>
-      <c r="U79" s="82"/>
-      <c r="V79" s="82"/>
-      <c r="W79" s="82"/>
-      <c r="X79" s="82"/>
-      <c r="Y79" s="83"/>
-    </row>
-    <row r="80" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B80" s="79" t="s">
-        <v>149</v>
       </c>
       <c r="C80" s="80">
         <v>1</v>
@@ -4978,7 +4961,7 @@
       <c r="G80" s="81"/>
       <c r="H80" s="81"/>
       <c r="I80" s="81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J80" s="82"/>
       <c r="K80" s="82" t="s">
@@ -4988,7 +4971,7 @@
         <v>33</v>
       </c>
       <c r="M80" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N80" s="82"/>
       <c r="O80" s="82" t="s">
@@ -4998,18 +4981,12 @@
         <v>33</v>
       </c>
       <c r="Q80" s="82">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="R80" s="82"/>
-      <c r="S80" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="T80" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="U80" s="82">
-        <v>1</v>
-      </c>
+      <c r="S80" s="82"/>
+      <c r="T80" s="82"/>
+      <c r="U80" s="82"/>
       <c r="V80" s="82"/>
       <c r="W80" s="82"/>
       <c r="X80" s="82"/>
@@ -5032,7 +5009,7 @@
       <c r="G81" s="81"/>
       <c r="H81" s="81"/>
       <c r="I81" s="81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J81" s="82"/>
       <c r="K81" s="82"/>
@@ -5053,7 +5030,7 @@
     </row>
     <row r="82" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B82" s="79" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C82" s="80">
         <v>1</v>
@@ -5068,7 +5045,7 @@
       <c r="G82" s="81"/>
       <c r="H82" s="81"/>
       <c r="I82" s="81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J82" s="82"/>
       <c r="K82" s="82" t="s">
@@ -5078,7 +5055,7 @@
         <v>33</v>
       </c>
       <c r="M82" s="82">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N82" s="82"/>
       <c r="O82" s="82" t="s">
@@ -5088,18 +5065,12 @@
         <v>33</v>
       </c>
       <c r="Q82" s="82">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="R82" s="82"/>
-      <c r="S82" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="T82" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="U82" s="82">
-        <v>1</v>
-      </c>
+      <c r="S82" s="82"/>
+      <c r="T82" s="82"/>
+      <c r="U82" s="82"/>
       <c r="V82" s="82"/>
       <c r="W82" s="82"/>
       <c r="X82" s="82"/>
@@ -5122,7 +5093,7 @@
       <c r="G83" s="81"/>
       <c r="H83" s="81"/>
       <c r="I83" s="81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J83" s="82"/>
       <c r="K83" s="82"/>
@@ -5143,7 +5114,7 @@
     </row>
     <row r="84" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B84" s="79" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C84" s="80">
         <v>1</v>
@@ -5158,7 +5129,7 @@
       <c r="G84" s="81"/>
       <c r="H84" s="81"/>
       <c r="I84" s="81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J84" s="82"/>
       <c r="K84" s="82" t="s">
@@ -5168,7 +5139,7 @@
         <v>33</v>
       </c>
       <c r="M84" s="82">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N84" s="82"/>
       <c r="O84" s="82" t="s">
@@ -5178,18 +5149,12 @@
         <v>33</v>
       </c>
       <c r="Q84" s="82">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R84" s="82"/>
-      <c r="S84" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="T84" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="U84" s="82">
-        <v>1.5</v>
-      </c>
+      <c r="S84" s="82"/>
+      <c r="T84" s="82"/>
+      <c r="U84" s="82"/>
       <c r="V84" s="82"/>
       <c r="W84" s="82"/>
       <c r="X84" s="82"/>
@@ -5212,7 +5177,7 @@
       <c r="G85" s="81"/>
       <c r="H85" s="81"/>
       <c r="I85" s="81" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J85" s="82"/>
       <c r="K85" s="82"/>
@@ -5231,320 +5196,308 @@
       <c r="X85" s="82"/>
       <c r="Y85" s="83"/>
     </row>
-    <row r="86" spans="1:25" ht="21" customHeight="1">
-      <c r="B86" s="135" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="136">
-        <v>1</v>
-      </c>
-      <c r="D86" s="137">
+    <row r="86" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B86" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="80">
+        <v>1</v>
+      </c>
+      <c r="D86" s="81">
+        <v>24</v>
+      </c>
+      <c r="E86" s="81">
+        <v>24</v>
+      </c>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J86" s="82"/>
+      <c r="K86" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="L86" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" s="82">
+        <v>2</v>
+      </c>
+      <c r="N86" s="82"/>
+      <c r="O86" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="P86" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q86" s="82">
+        <v>20</v>
+      </c>
+      <c r="R86" s="82"/>
+      <c r="S86" s="82"/>
+      <c r="T86" s="82"/>
+      <c r="U86" s="82"/>
+      <c r="V86" s="82"/>
+      <c r="W86" s="82"/>
+      <c r="X86" s="82"/>
+      <c r="Y86" s="83"/>
+    </row>
+    <row r="87" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B87" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="80">
+        <v>1</v>
+      </c>
+      <c r="D87" s="81">
+        <v>0</v>
+      </c>
+      <c r="E87" s="81">
+        <v>1</v>
+      </c>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+      <c r="L87" s="82"/>
+      <c r="M87" s="82"/>
+      <c r="N87" s="82"/>
+      <c r="O87" s="82"/>
+      <c r="P87" s="82"/>
+      <c r="Q87" s="82"/>
+      <c r="R87" s="82"/>
+      <c r="S87" s="82"/>
+      <c r="T87" s="82"/>
+      <c r="U87" s="82"/>
+      <c r="V87" s="82"/>
+      <c r="W87" s="82"/>
+      <c r="X87" s="82"/>
+      <c r="Y87" s="83"/>
+    </row>
+    <row r="88" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B88" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="80">
+        <v>1</v>
+      </c>
+      <c r="D88" s="81">
+        <v>24</v>
+      </c>
+      <c r="E88" s="81">
+        <v>24</v>
+      </c>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J88" s="82"/>
+      <c r="K88" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="L88" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88" s="82">
+        <v>2.5</v>
+      </c>
+      <c r="N88" s="82"/>
+      <c r="O88" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="P88" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q88" s="82">
+        <v>36</v>
+      </c>
+      <c r="R88" s="82"/>
+      <c r="S88" s="82"/>
+      <c r="T88" s="82"/>
+      <c r="U88" s="82"/>
+      <c r="V88" s="82"/>
+      <c r="W88" s="82"/>
+      <c r="X88" s="82"/>
+      <c r="Y88" s="83"/>
+    </row>
+    <row r="89" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B89" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="80">
+        <v>1</v>
+      </c>
+      <c r="D89" s="81">
+        <v>0</v>
+      </c>
+      <c r="E89" s="81">
+        <v>1</v>
+      </c>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J89" s="82"/>
+      <c r="K89" s="82"/>
+      <c r="L89" s="82"/>
+      <c r="M89" s="82"/>
+      <c r="N89" s="82"/>
+      <c r="O89" s="82"/>
+      <c r="P89" s="82"/>
+      <c r="Q89" s="82"/>
+      <c r="R89" s="82"/>
+      <c r="S89" s="82"/>
+      <c r="T89" s="82"/>
+      <c r="U89" s="82"/>
+      <c r="V89" s="82"/>
+      <c r="W89" s="82"/>
+      <c r="X89" s="82"/>
+      <c r="Y89" s="83"/>
+    </row>
+    <row r="90" spans="1:25" ht="21" customHeight="1">
+      <c r="B90" s="135" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="136">
+        <v>1</v>
+      </c>
+      <c r="D90" s="137">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E86" s="138">
-        <f>D86</f>
+      <c r="E90" s="138">
+        <f>D90</f>
         <v>24</v>
       </c>
-      <c r="F86" s="138"/>
-      <c r="G86" s="138"/>
-      <c r="H86" s="138"/>
-      <c r="I86" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="J86" s="139"/>
-      <c r="K86" s="139"/>
-      <c r="L86" s="139"/>
-      <c r="M86" s="139"/>
-      <c r="N86" s="139"/>
-      <c r="O86" s="139"/>
-      <c r="P86" s="139"/>
-      <c r="Q86" s="139"/>
-      <c r="R86" s="139"/>
-      <c r="S86" s="139"/>
-      <c r="T86" s="139"/>
-      <c r="U86" s="139"/>
-      <c r="V86" s="139"/>
-      <c r="W86" s="139"/>
-      <c r="X86" s="139"/>
-      <c r="Y86" s="140"/>
-    </row>
-    <row r="87" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B87" s="30"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="29"/>
-      <c r="S87" s="29"/>
-      <c r="T87" s="29"/>
-      <c r="U87" s="29"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="29"/>
-      <c r="Y87" s="29"/>
-    </row>
-    <row r="88" spans="1:25" ht="24" customHeight="1">
-      <c r="B88" s="151" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" s="151"/>
-      <c r="D88" s="151"/>
-      <c r="E88" s="151"/>
-      <c r="F88" s="151"/>
-      <c r="G88" s="151"/>
-      <c r="H88" s="151"/>
-      <c r="I88" s="151"/>
-      <c r="J88" s="151"/>
-      <c r="K88" s="151"/>
-      <c r="L88" s="151"/>
-      <c r="M88" s="151"/>
-      <c r="N88" s="151"/>
-      <c r="O88" s="151"/>
-      <c r="P88" s="151"/>
-      <c r="Q88" s="151"/>
-      <c r="R88" s="151"/>
-      <c r="S88" s="151"/>
-      <c r="T88" s="151"/>
-      <c r="U88" s="151"/>
-      <c r="V88" s="151"/>
-      <c r="W88" s="151"/>
-      <c r="X88" s="151"/>
-      <c r="Y88" s="151"/>
-    </row>
-    <row r="89" spans="1:25" ht="21" customHeight="1">
-      <c r="B89" s="135" t="s">
-        <v>132</v>
-      </c>
-      <c r="C89" s="136">
-        <v>1</v>
-      </c>
-      <c r="D89" s="137">
+      <c r="F90" s="138"/>
+      <c r="G90" s="138"/>
+      <c r="H90" s="138"/>
+      <c r="I90" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J90" s="139"/>
+      <c r="K90" s="139"/>
+      <c r="L90" s="139"/>
+      <c r="M90" s="139"/>
+      <c r="N90" s="139"/>
+      <c r="O90" s="139"/>
+      <c r="P90" s="139"/>
+      <c r="Q90" s="139"/>
+      <c r="R90" s="139"/>
+      <c r="S90" s="139"/>
+      <c r="T90" s="139"/>
+      <c r="U90" s="139"/>
+      <c r="V90" s="139"/>
+      <c r="W90" s="139"/>
+      <c r="X90" s="139"/>
+      <c r="Y90" s="140"/>
+    </row>
+    <row r="91" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B91" s="30"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+    </row>
+    <row r="92" spans="1:25" ht="24" customHeight="1">
+      <c r="B92" s="153" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="153"/>
+      <c r="D92" s="153"/>
+      <c r="E92" s="153"/>
+      <c r="F92" s="153"/>
+      <c r="G92" s="153"/>
+      <c r="H92" s="153"/>
+      <c r="I92" s="153"/>
+      <c r="J92" s="153"/>
+      <c r="K92" s="153"/>
+      <c r="L92" s="153"/>
+      <c r="M92" s="153"/>
+      <c r="N92" s="153"/>
+      <c r="O92" s="153"/>
+      <c r="P92" s="153"/>
+      <c r="Q92" s="153"/>
+      <c r="R92" s="153"/>
+      <c r="S92" s="153"/>
+      <c r="T92" s="153"/>
+      <c r="U92" s="153"/>
+      <c r="V92" s="153"/>
+      <c r="W92" s="153"/>
+      <c r="X92" s="153"/>
+      <c r="Y92" s="153"/>
+    </row>
+    <row r="93" spans="1:25" ht="21" customHeight="1">
+      <c r="B93" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="C93" s="136">
+        <v>1</v>
+      </c>
+      <c r="D93" s="137">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E89" s="138">
-        <f>D89</f>
+      <c r="E93" s="138">
+        <f>D93</f>
         <v>24</v>
       </c>
-      <c r="F89" s="138"/>
-      <c r="G89" s="138"/>
-      <c r="H89" s="138"/>
-      <c r="I89" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="J89" s="139"/>
-      <c r="K89" s="139"/>
-      <c r="L89" s="139"/>
-      <c r="M89" s="139"/>
-      <c r="N89" s="139"/>
-      <c r="O89" s="139"/>
-      <c r="P89" s="139"/>
-      <c r="Q89" s="139"/>
-      <c r="R89" s="139"/>
-      <c r="S89" s="139"/>
-      <c r="T89" s="139"/>
-      <c r="U89" s="139"/>
-      <c r="V89" s="139"/>
-      <c r="W89" s="139"/>
-      <c r="X89" s="139"/>
-      <c r="Y89" s="140"/>
-    </row>
-    <row r="90" spans="1:25" ht="21" customHeight="1">
-      <c r="A90" s="17"/>
-      <c r="B90" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="C90" s="85">
-        <v>1</v>
-      </c>
-      <c r="D90" s="86">
-        <v>24</v>
-      </c>
-      <c r="E90" s="86">
-        <v>24</v>
-      </c>
-      <c r="F90" s="86"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="86"/>
-      <c r="I90" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="J90" s="87"/>
-      <c r="K90" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="L90" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="M90" s="87">
-        <v>2</v>
-      </c>
-      <c r="N90" s="87"/>
-      <c r="O90" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="P90" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q90" s="87">
-        <v>12.5</v>
-      </c>
-      <c r="R90" s="87"/>
-      <c r="S90" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="T90" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="U90" s="87">
-        <v>1</v>
-      </c>
-      <c r="V90" s="87"/>
-      <c r="W90" s="87"/>
-      <c r="X90" s="87"/>
-      <c r="Y90" s="88"/>
-    </row>
-    <row r="91" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B91" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="85">
-        <v>1</v>
-      </c>
-      <c r="D91" s="86">
-        <v>0</v>
-      </c>
-      <c r="E91" s="86">
-        <v>1</v>
-      </c>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="86"/>
-      <c r="I91" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="J91" s="87"/>
-      <c r="K91" s="87"/>
-      <c r="L91" s="87"/>
-      <c r="M91" s="87"/>
-      <c r="N91" s="87"/>
-      <c r="O91" s="87"/>
-      <c r="P91" s="87"/>
-      <c r="Q91" s="87"/>
-      <c r="R91" s="87"/>
-      <c r="S91" s="87"/>
-      <c r="T91" s="87"/>
-      <c r="U91" s="87"/>
-      <c r="V91" s="87"/>
-      <c r="W91" s="87"/>
-      <c r="X91" s="87"/>
-      <c r="Y91" s="88"/>
-    </row>
-    <row r="92" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B92" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C92" s="85">
-        <v>1</v>
-      </c>
-      <c r="D92" s="86">
-        <v>24</v>
-      </c>
-      <c r="E92" s="86">
-        <v>24</v>
-      </c>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="J92" s="87"/>
-      <c r="K92" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="L92" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="M92" s="87">
-        <v>2.5</v>
-      </c>
-      <c r="N92" s="87"/>
-      <c r="O92" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="P92" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q92" s="87">
-        <v>12.5</v>
-      </c>
-      <c r="R92" s="87"/>
-      <c r="S92" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="T92" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="U92" s="87">
-        <v>1</v>
-      </c>
-      <c r="V92" s="87"/>
-      <c r="W92" s="87"/>
-      <c r="X92" s="87"/>
-      <c r="Y92" s="88"/>
-    </row>
-    <row r="93" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B93" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="85">
-        <v>1</v>
-      </c>
-      <c r="D93" s="86">
-        <v>0</v>
-      </c>
-      <c r="E93" s="86">
-        <v>1</v>
-      </c>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="86"/>
-      <c r="I93" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="J93" s="87"/>
-      <c r="K93" s="87"/>
-      <c r="L93" s="87"/>
-      <c r="M93" s="87"/>
-      <c r="N93" s="87"/>
-      <c r="O93" s="87"/>
-      <c r="P93" s="87"/>
-      <c r="Q93" s="87"/>
-      <c r="R93" s="87"/>
-      <c r="S93" s="87"/>
-      <c r="T93" s="87"/>
-      <c r="U93" s="87"/>
-      <c r="V93" s="87"/>
-      <c r="W93" s="87"/>
-      <c r="X93" s="87"/>
-      <c r="Y93" s="88"/>
-    </row>
-    <row r="94" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="F93" s="138"/>
+      <c r="G93" s="138"/>
+      <c r="H93" s="138"/>
+      <c r="I93" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J93" s="139"/>
+      <c r="K93" s="139"/>
+      <c r="L93" s="139"/>
+      <c r="M93" s="139"/>
+      <c r="N93" s="139"/>
+      <c r="O93" s="139"/>
+      <c r="P93" s="139"/>
+      <c r="Q93" s="139"/>
+      <c r="R93" s="139"/>
+      <c r="S93" s="139"/>
+      <c r="T93" s="139"/>
+      <c r="U93" s="139"/>
+      <c r="V93" s="139"/>
+      <c r="W93" s="139"/>
+      <c r="X93" s="139"/>
+      <c r="Y93" s="140"/>
+    </row>
+    <row r="94" spans="1:25" ht="21" customHeight="1">
+      <c r="A94" s="17"/>
       <c r="B94" s="84" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C94" s="85">
         <v>1</v>
@@ -5559,7 +5512,7 @@
       <c r="G94" s="86"/>
       <c r="H94" s="86"/>
       <c r="I94" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J94" s="87"/>
       <c r="K94" s="87" t="s">
@@ -5569,7 +5522,7 @@
         <v>33</v>
       </c>
       <c r="M94" s="87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N94" s="87"/>
       <c r="O94" s="87" t="s">
@@ -5579,18 +5532,12 @@
         <v>33</v>
       </c>
       <c r="Q94" s="87">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="R94" s="87"/>
-      <c r="S94" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="T94" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="U94" s="87">
-        <v>1</v>
-      </c>
+      <c r="S94" s="87"/>
+      <c r="T94" s="87"/>
+      <c r="U94" s="87"/>
       <c r="V94" s="87"/>
       <c r="W94" s="87"/>
       <c r="X94" s="87"/>
@@ -5613,7 +5560,7 @@
       <c r="G95" s="86"/>
       <c r="H95" s="86"/>
       <c r="I95" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J95" s="87"/>
       <c r="K95" s="87"/>
@@ -5634,7 +5581,7 @@
     </row>
     <row r="96" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B96" s="84" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C96" s="85">
         <v>1</v>
@@ -5649,7 +5596,7 @@
       <c r="G96" s="86"/>
       <c r="H96" s="86"/>
       <c r="I96" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J96" s="87"/>
       <c r="K96" s="87" t="s">
@@ -5659,7 +5606,7 @@
         <v>33</v>
       </c>
       <c r="M96" s="87">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N96" s="87"/>
       <c r="O96" s="87" t="s">
@@ -5669,18 +5616,12 @@
         <v>33</v>
       </c>
       <c r="Q96" s="87">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="R96" s="87"/>
-      <c r="S96" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="T96" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="U96" s="87">
-        <v>1</v>
-      </c>
+      <c r="S96" s="87"/>
+      <c r="T96" s="87"/>
+      <c r="U96" s="87"/>
       <c r="V96" s="87"/>
       <c r="W96" s="87"/>
       <c r="X96" s="87"/>
@@ -5703,7 +5644,7 @@
       <c r="G97" s="86"/>
       <c r="H97" s="86"/>
       <c r="I97" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J97" s="87"/>
       <c r="K97" s="87"/>
@@ -5724,7 +5665,7 @@
     </row>
     <row r="98" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B98" s="84" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C98" s="85">
         <v>1</v>
@@ -5739,7 +5680,7 @@
       <c r="G98" s="86"/>
       <c r="H98" s="86"/>
       <c r="I98" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J98" s="87"/>
       <c r="K98" s="87" t="s">
@@ -5749,7 +5690,7 @@
         <v>33</v>
       </c>
       <c r="M98" s="87">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N98" s="87"/>
       <c r="O98" s="87" t="s">
@@ -5759,18 +5700,12 @@
         <v>33</v>
       </c>
       <c r="Q98" s="87">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R98" s="87"/>
-      <c r="S98" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="T98" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="U98" s="87">
-        <v>1.5</v>
-      </c>
+      <c r="S98" s="87"/>
+      <c r="T98" s="87"/>
+      <c r="U98" s="87"/>
       <c r="V98" s="87"/>
       <c r="W98" s="87"/>
       <c r="X98" s="87"/>
@@ -5793,7 +5728,7 @@
       <c r="G99" s="86"/>
       <c r="H99" s="86"/>
       <c r="I99" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J99" s="87"/>
       <c r="K99" s="87"/>
@@ -5812,320 +5747,308 @@
       <c r="X99" s="87"/>
       <c r="Y99" s="88"/>
     </row>
-    <row r="100" spans="1:25" ht="21" customHeight="1">
-      <c r="B100" s="135" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="136">
-        <v>1</v>
-      </c>
-      <c r="D100" s="137">
+    <row r="100" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B100" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="85">
+        <v>1</v>
+      </c>
+      <c r="D100" s="86">
+        <v>24</v>
+      </c>
+      <c r="E100" s="86">
+        <v>24</v>
+      </c>
+      <c r="F100" s="86"/>
+      <c r="G100" s="86"/>
+      <c r="H100" s="86"/>
+      <c r="I100" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J100" s="87"/>
+      <c r="K100" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L100" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="M100" s="87">
+        <v>2</v>
+      </c>
+      <c r="N100" s="87"/>
+      <c r="O100" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="P100" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q100" s="87">
+        <v>20</v>
+      </c>
+      <c r="R100" s="87"/>
+      <c r="S100" s="87"/>
+      <c r="T100" s="87"/>
+      <c r="U100" s="87"/>
+      <c r="V100" s="87"/>
+      <c r="W100" s="87"/>
+      <c r="X100" s="87"/>
+      <c r="Y100" s="88"/>
+    </row>
+    <row r="101" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B101" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="85">
+        <v>1</v>
+      </c>
+      <c r="D101" s="86">
+        <v>0</v>
+      </c>
+      <c r="E101" s="86">
+        <v>1</v>
+      </c>
+      <c r="F101" s="86"/>
+      <c r="G101" s="86"/>
+      <c r="H101" s="86"/>
+      <c r="I101" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J101" s="87"/>
+      <c r="K101" s="87"/>
+      <c r="L101" s="87"/>
+      <c r="M101" s="87"/>
+      <c r="N101" s="87"/>
+      <c r="O101" s="87"/>
+      <c r="P101" s="87"/>
+      <c r="Q101" s="87"/>
+      <c r="R101" s="87"/>
+      <c r="S101" s="87"/>
+      <c r="T101" s="87"/>
+      <c r="U101" s="87"/>
+      <c r="V101" s="87"/>
+      <c r="W101" s="87"/>
+      <c r="X101" s="87"/>
+      <c r="Y101" s="88"/>
+    </row>
+    <row r="102" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B102" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="85">
+        <v>1</v>
+      </c>
+      <c r="D102" s="86">
+        <v>24</v>
+      </c>
+      <c r="E102" s="86">
+        <v>24</v>
+      </c>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J102" s="87"/>
+      <c r="K102" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="L102" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="M102" s="87">
+        <v>2.5</v>
+      </c>
+      <c r="N102" s="87"/>
+      <c r="O102" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="P102" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q102" s="87">
+        <v>36</v>
+      </c>
+      <c r="R102" s="87"/>
+      <c r="S102" s="87"/>
+      <c r="T102" s="87"/>
+      <c r="U102" s="87"/>
+      <c r="V102" s="87"/>
+      <c r="W102" s="87"/>
+      <c r="X102" s="87"/>
+      <c r="Y102" s="88"/>
+    </row>
+    <row r="103" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B103" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="85">
+        <v>1</v>
+      </c>
+      <c r="D103" s="86">
+        <v>0</v>
+      </c>
+      <c r="E103" s="86">
+        <v>1</v>
+      </c>
+      <c r="F103" s="86"/>
+      <c r="G103" s="86"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="J103" s="87"/>
+      <c r="K103" s="87"/>
+      <c r="L103" s="87"/>
+      <c r="M103" s="87"/>
+      <c r="N103" s="87"/>
+      <c r="O103" s="87"/>
+      <c r="P103" s="87"/>
+      <c r="Q103" s="87"/>
+      <c r="R103" s="87"/>
+      <c r="S103" s="87"/>
+      <c r="T103" s="87"/>
+      <c r="U103" s="87"/>
+      <c r="V103" s="87"/>
+      <c r="W103" s="87"/>
+      <c r="X103" s="87"/>
+      <c r="Y103" s="88"/>
+    </row>
+    <row r="104" spans="1:25" ht="21" customHeight="1">
+      <c r="B104" s="135" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="136">
+        <v>1</v>
+      </c>
+      <c r="D104" s="137">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E100" s="138">
-        <f>D100</f>
+      <c r="E104" s="138">
+        <f>D104</f>
         <v>24</v>
       </c>
-      <c r="F100" s="138"/>
-      <c r="G100" s="138"/>
-      <c r="H100" s="138"/>
-      <c r="I100" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="J100" s="139"/>
-      <c r="K100" s="139"/>
-      <c r="L100" s="139"/>
-      <c r="M100" s="139"/>
-      <c r="N100" s="139"/>
-      <c r="O100" s="139"/>
-      <c r="P100" s="139"/>
-      <c r="Q100" s="139"/>
-      <c r="R100" s="139"/>
-      <c r="S100" s="139"/>
-      <c r="T100" s="139"/>
-      <c r="U100" s="139"/>
-      <c r="V100" s="139"/>
-      <c r="W100" s="139"/>
-      <c r="X100" s="139"/>
-      <c r="Y100" s="140"/>
-    </row>
-    <row r="101" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B101" s="30"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="29"/>
-      <c r="S101" s="29"/>
-      <c r="T101" s="29"/>
-      <c r="U101" s="29"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
-      <c r="X101" s="29"/>
-      <c r="Y101" s="29"/>
-    </row>
-    <row r="102" spans="1:25" ht="24" customHeight="1">
-      <c r="B102" s="151" t="s">
-        <v>124</v>
-      </c>
-      <c r="C102" s="151"/>
-      <c r="D102" s="151"/>
-      <c r="E102" s="151"/>
-      <c r="F102" s="151"/>
-      <c r="G102" s="151"/>
-      <c r="H102" s="151"/>
-      <c r="I102" s="151"/>
-      <c r="J102" s="151"/>
-      <c r="K102" s="151"/>
-      <c r="L102" s="151"/>
-      <c r="M102" s="151"/>
-      <c r="N102" s="151"/>
-      <c r="O102" s="151"/>
-      <c r="P102" s="151"/>
-      <c r="Q102" s="151"/>
-      <c r="R102" s="151"/>
-      <c r="S102" s="151"/>
-      <c r="T102" s="151"/>
-      <c r="U102" s="151"/>
-      <c r="V102" s="151"/>
-      <c r="W102" s="151"/>
-      <c r="X102" s="151"/>
-      <c r="Y102" s="151"/>
-    </row>
-    <row r="103" spans="1:25" ht="21" customHeight="1">
-      <c r="B103" s="135" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103" s="136">
-        <v>1</v>
-      </c>
-      <c r="D103" s="137">
+      <c r="F104" s="138"/>
+      <c r="G104" s="138"/>
+      <c r="H104" s="138"/>
+      <c r="I104" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J104" s="139"/>
+      <c r="K104" s="139"/>
+      <c r="L104" s="139"/>
+      <c r="M104" s="139"/>
+      <c r="N104" s="139"/>
+      <c r="O104" s="139"/>
+      <c r="P104" s="139"/>
+      <c r="Q104" s="139"/>
+      <c r="R104" s="139"/>
+      <c r="S104" s="139"/>
+      <c r="T104" s="139"/>
+      <c r="U104" s="139"/>
+      <c r="V104" s="139"/>
+      <c r="W104" s="139"/>
+      <c r="X104" s="139"/>
+      <c r="Y104" s="140"/>
+    </row>
+    <row r="105" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B105" s="30"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
+      <c r="Q105" s="29"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
+      <c r="X105" s="29"/>
+      <c r="Y105" s="29"/>
+    </row>
+    <row r="106" spans="1:25" ht="24" customHeight="1">
+      <c r="B106" s="153" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="153"/>
+      <c r="D106" s="153"/>
+      <c r="E106" s="153"/>
+      <c r="F106" s="153"/>
+      <c r="G106" s="153"/>
+      <c r="H106" s="153"/>
+      <c r="I106" s="153"/>
+      <c r="J106" s="153"/>
+      <c r="K106" s="153"/>
+      <c r="L106" s="153"/>
+      <c r="M106" s="153"/>
+      <c r="N106" s="153"/>
+      <c r="O106" s="153"/>
+      <c r="P106" s="153"/>
+      <c r="Q106" s="153"/>
+      <c r="R106" s="153"/>
+      <c r="S106" s="153"/>
+      <c r="T106" s="153"/>
+      <c r="U106" s="153"/>
+      <c r="V106" s="153"/>
+      <c r="W106" s="153"/>
+      <c r="X106" s="153"/>
+      <c r="Y106" s="153"/>
+    </row>
+    <row r="107" spans="1:25" ht="21" customHeight="1">
+      <c r="B107" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="136">
+        <v>1</v>
+      </c>
+      <c r="D107" s="137">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E103" s="138">
-        <f>D103</f>
+      <c r="E107" s="138">
+        <f>D107</f>
         <v>24</v>
       </c>
-      <c r="F103" s="138"/>
-      <c r="G103" s="138"/>
-      <c r="H103" s="138"/>
-      <c r="I103" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="J103" s="139"/>
-      <c r="K103" s="139"/>
-      <c r="L103" s="139"/>
-      <c r="M103" s="139"/>
-      <c r="N103" s="139"/>
-      <c r="O103" s="139"/>
-      <c r="P103" s="139"/>
-      <c r="Q103" s="139"/>
-      <c r="R103" s="139"/>
-      <c r="S103" s="139"/>
-      <c r="T103" s="139"/>
-      <c r="U103" s="139"/>
-      <c r="V103" s="139"/>
-      <c r="W103" s="139"/>
-      <c r="X103" s="139"/>
-      <c r="Y103" s="140"/>
-    </row>
-    <row r="104" spans="1:25" ht="28">
-      <c r="A104" s="17"/>
-      <c r="B104" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="C104" s="90">
-        <v>1</v>
-      </c>
-      <c r="D104" s="91">
-        <v>24</v>
-      </c>
-      <c r="E104" s="91">
-        <v>24</v>
-      </c>
-      <c r="F104" s="91"/>
-      <c r="G104" s="91"/>
-      <c r="H104" s="91"/>
-      <c r="I104" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="J104" s="92"/>
-      <c r="K104" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="L104" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="M104" s="92">
-        <v>2</v>
-      </c>
-      <c r="N104" s="92"/>
-      <c r="O104" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="P104" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q104" s="92">
-        <v>12.5</v>
-      </c>
-      <c r="R104" s="92"/>
-      <c r="S104" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="T104" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="U104" s="92">
-        <v>7</v>
-      </c>
-      <c r="V104" s="92"/>
-      <c r="W104" s="92"/>
-      <c r="X104" s="92"/>
-      <c r="Y104" s="93"/>
-    </row>
-    <row r="105" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B105" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="90">
-        <v>1</v>
-      </c>
-      <c r="D105" s="91">
-        <v>0</v>
-      </c>
-      <c r="E105" s="91">
-        <v>1</v>
-      </c>
-      <c r="F105" s="91"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="91"/>
-      <c r="I105" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="J105" s="92"/>
-      <c r="K105" s="92"/>
-      <c r="L105" s="92"/>
-      <c r="M105" s="92"/>
-      <c r="N105" s="92"/>
-      <c r="O105" s="92"/>
-      <c r="P105" s="92"/>
-      <c r="Q105" s="92"/>
-      <c r="R105" s="92"/>
-      <c r="S105" s="92"/>
-      <c r="T105" s="92"/>
-      <c r="U105" s="92"/>
-      <c r="V105" s="92"/>
-      <c r="W105" s="92"/>
-      <c r="X105" s="92"/>
-      <c r="Y105" s="93"/>
-    </row>
-    <row r="106" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B106" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="C106" s="90">
-        <v>1</v>
-      </c>
-      <c r="D106" s="91">
-        <v>24</v>
-      </c>
-      <c r="E106" s="91">
-        <v>24</v>
-      </c>
-      <c r="F106" s="91"/>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="L106" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="M106" s="92">
-        <v>2.5</v>
-      </c>
-      <c r="N106" s="92"/>
-      <c r="O106" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="P106" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q106" s="92">
-        <v>12.5</v>
-      </c>
-      <c r="R106" s="92"/>
-      <c r="S106" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="T106" s="92" t="s">
-        <v>33</v>
-      </c>
-      <c r="U106" s="92">
-        <v>7</v>
-      </c>
-      <c r="V106" s="92"/>
-      <c r="W106" s="92"/>
-      <c r="X106" s="92"/>
-      <c r="Y106" s="93"/>
-    </row>
-    <row r="107" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B107" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C107" s="90">
-        <v>1</v>
-      </c>
-      <c r="D107" s="91">
-        <v>0</v>
-      </c>
-      <c r="E107" s="91">
-        <v>1</v>
-      </c>
-      <c r="F107" s="91"/>
-      <c r="G107" s="91"/>
-      <c r="H107" s="91"/>
-      <c r="I107" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="J107" s="92"/>
-      <c r="K107" s="92"/>
-      <c r="L107" s="92"/>
-      <c r="M107" s="92"/>
-      <c r="N107" s="92"/>
-      <c r="O107" s="92"/>
-      <c r="P107" s="92"/>
-      <c r="Q107" s="92"/>
-      <c r="R107" s="92"/>
-      <c r="S107" s="92"/>
-      <c r="T107" s="92"/>
-      <c r="U107" s="92"/>
-      <c r="V107" s="92"/>
-      <c r="W107" s="92"/>
-      <c r="X107" s="92"/>
-      <c r="Y107" s="93"/>
-    </row>
-    <row r="108" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="F107" s="138"/>
+      <c r="G107" s="138"/>
+      <c r="H107" s="138"/>
+      <c r="I107" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J107" s="139"/>
+      <c r="K107" s="139"/>
+      <c r="L107" s="139"/>
+      <c r="M107" s="139"/>
+      <c r="N107" s="139"/>
+      <c r="O107" s="139"/>
+      <c r="P107" s="139"/>
+      <c r="Q107" s="139"/>
+      <c r="R107" s="139"/>
+      <c r="S107" s="139"/>
+      <c r="T107" s="139"/>
+      <c r="U107" s="139"/>
+      <c r="V107" s="139"/>
+      <c r="W107" s="139"/>
+      <c r="X107" s="139"/>
+      <c r="Y107" s="140"/>
+    </row>
+    <row r="108" spans="1:25" ht="14">
+      <c r="A108" s="17"/>
       <c r="B108" s="89" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C108" s="90">
         <v>1</v>
@@ -6140,7 +6063,7 @@
       <c r="G108" s="91"/>
       <c r="H108" s="91"/>
       <c r="I108" s="91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J108" s="92"/>
       <c r="K108" s="92" t="s">
@@ -6150,7 +6073,7 @@
         <v>33</v>
       </c>
       <c r="M108" s="92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N108" s="92"/>
       <c r="O108" s="92" t="s">
@@ -6160,7 +6083,7 @@
         <v>33</v>
       </c>
       <c r="Q108" s="92">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="R108" s="92"/>
       <c r="S108" s="92" t="s">
@@ -6194,7 +6117,7 @@
       <c r="G109" s="91"/>
       <c r="H109" s="91"/>
       <c r="I109" s="91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J109" s="92"/>
       <c r="K109" s="92"/>
@@ -6215,7 +6138,7 @@
     </row>
     <row r="110" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B110" s="89" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C110" s="90">
         <v>1</v>
@@ -6230,7 +6153,7 @@
       <c r="G110" s="91"/>
       <c r="H110" s="91"/>
       <c r="I110" s="91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J110" s="92"/>
       <c r="K110" s="92" t="s">
@@ -6240,7 +6163,7 @@
         <v>33</v>
       </c>
       <c r="M110" s="92">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N110" s="92"/>
       <c r="O110" s="92" t="s">
@@ -6250,7 +6173,7 @@
         <v>33</v>
       </c>
       <c r="Q110" s="92">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="R110" s="92"/>
       <c r="S110" s="92" t="s">
@@ -6260,7 +6183,7 @@
         <v>33</v>
       </c>
       <c r="U110" s="92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V110" s="92"/>
       <c r="W110" s="92"/>
@@ -6284,7 +6207,7 @@
       <c r="G111" s="91"/>
       <c r="H111" s="91"/>
       <c r="I111" s="91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J111" s="92"/>
       <c r="K111" s="92"/>
@@ -6305,7 +6228,7 @@
     </row>
     <row r="112" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B112" s="89" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C112" s="90">
         <v>1</v>
@@ -6320,7 +6243,7 @@
       <c r="G112" s="91"/>
       <c r="H112" s="91"/>
       <c r="I112" s="91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J112" s="92"/>
       <c r="K112" s="92" t="s">
@@ -6330,7 +6253,7 @@
         <v>33</v>
       </c>
       <c r="M112" s="92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N112" s="92"/>
       <c r="O112" s="92" t="s">
@@ -6340,7 +6263,7 @@
         <v>33</v>
       </c>
       <c r="Q112" s="92">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R112" s="92"/>
       <c r="S112" s="92" t="s">
@@ -6350,7 +6273,7 @@
         <v>33</v>
       </c>
       <c r="U112" s="92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V112" s="92"/>
       <c r="W112" s="92"/>
@@ -6374,7 +6297,7 @@
       <c r="G113" s="91"/>
       <c r="H113" s="91"/>
       <c r="I113" s="91" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J113" s="92"/>
       <c r="K113" s="92"/>
@@ -6393,120 +6316,300 @@
       <c r="X113" s="92"/>
       <c r="Y113" s="93"/>
     </row>
-    <row r="114" spans="2:25" ht="21" customHeight="1">
-      <c r="B114" s="135" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="136">
-        <v>1</v>
-      </c>
-      <c r="D114" s="137">
+    <row r="114" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B114" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="90">
+        <v>1</v>
+      </c>
+      <c r="D114" s="91">
+        <v>24</v>
+      </c>
+      <c r="E114" s="91">
+        <v>24</v>
+      </c>
+      <c r="F114" s="91"/>
+      <c r="G114" s="91"/>
+      <c r="H114" s="91"/>
+      <c r="I114" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="J114" s="92"/>
+      <c r="K114" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="L114" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="M114" s="92">
+        <v>2</v>
+      </c>
+      <c r="N114" s="92"/>
+      <c r="O114" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="P114" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q114" s="92">
+        <v>20</v>
+      </c>
+      <c r="R114" s="92"/>
+      <c r="S114" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="T114" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="U114" s="92">
+        <v>8</v>
+      </c>
+      <c r="V114" s="92"/>
+      <c r="W114" s="92"/>
+      <c r="X114" s="92"/>
+      <c r="Y114" s="93"/>
+    </row>
+    <row r="115" spans="2:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B115" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="90">
+        <v>1</v>
+      </c>
+      <c r="D115" s="91">
+        <v>0</v>
+      </c>
+      <c r="E115" s="91">
+        <v>1</v>
+      </c>
+      <c r="F115" s="91"/>
+      <c r="G115" s="91"/>
+      <c r="H115" s="91"/>
+      <c r="I115" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="J115" s="92"/>
+      <c r="K115" s="92"/>
+      <c r="L115" s="92"/>
+      <c r="M115" s="92"/>
+      <c r="N115" s="92"/>
+      <c r="O115" s="92"/>
+      <c r="P115" s="92"/>
+      <c r="Q115" s="92"/>
+      <c r="R115" s="92"/>
+      <c r="S115" s="92"/>
+      <c r="T115" s="92"/>
+      <c r="U115" s="92"/>
+      <c r="V115" s="92"/>
+      <c r="W115" s="92"/>
+      <c r="X115" s="92"/>
+      <c r="Y115" s="93"/>
+    </row>
+    <row r="116" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B116" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="90">
+        <v>1</v>
+      </c>
+      <c r="D116" s="91">
+        <v>24</v>
+      </c>
+      <c r="E116" s="91">
+        <v>24</v>
+      </c>
+      <c r="F116" s="91"/>
+      <c r="G116" s="91"/>
+      <c r="H116" s="91"/>
+      <c r="I116" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="J116" s="92"/>
+      <c r="K116" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="L116" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="M116" s="92">
+        <v>2.5</v>
+      </c>
+      <c r="N116" s="92"/>
+      <c r="O116" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="P116" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q116" s="92">
+        <v>36</v>
+      </c>
+      <c r="R116" s="92"/>
+      <c r="S116" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="T116" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="U116" s="92">
+        <v>8</v>
+      </c>
+      <c r="V116" s="92"/>
+      <c r="W116" s="92"/>
+      <c r="X116" s="92"/>
+      <c r="Y116" s="93"/>
+    </row>
+    <row r="117" spans="2:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B117" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="90">
+        <v>1</v>
+      </c>
+      <c r="D117" s="91">
+        <v>0</v>
+      </c>
+      <c r="E117" s="91">
+        <v>1</v>
+      </c>
+      <c r="F117" s="91"/>
+      <c r="G117" s="91"/>
+      <c r="H117" s="91"/>
+      <c r="I117" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="J117" s="92"/>
+      <c r="K117" s="92"/>
+      <c r="L117" s="92"/>
+      <c r="M117" s="92"/>
+      <c r="N117" s="92"/>
+      <c r="O117" s="92"/>
+      <c r="P117" s="92"/>
+      <c r="Q117" s="92"/>
+      <c r="R117" s="92"/>
+      <c r="S117" s="92"/>
+      <c r="T117" s="92"/>
+      <c r="U117" s="92"/>
+      <c r="V117" s="92"/>
+      <c r="W117" s="92"/>
+      <c r="X117" s="92"/>
+      <c r="Y117" s="93"/>
+    </row>
+    <row r="118" spans="2:25" ht="21" customHeight="1">
+      <c r="B118" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="136">
+        <v>1</v>
+      </c>
+      <c r="D118" s="137">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E114" s="138">
-        <f>D114</f>
+      <c r="E118" s="138">
+        <f>D118</f>
         <v>24</v>
       </c>
-      <c r="F114" s="138"/>
-      <c r="G114" s="138"/>
-      <c r="H114" s="138"/>
-      <c r="I114" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="J114" s="139"/>
-      <c r="K114" s="139"/>
-      <c r="L114" s="139"/>
-      <c r="M114" s="139"/>
-      <c r="N114" s="139"/>
-      <c r="O114" s="139"/>
-      <c r="P114" s="139"/>
-      <c r="Q114" s="139"/>
-      <c r="R114" s="139"/>
-      <c r="S114" s="139"/>
-      <c r="T114" s="139"/>
-      <c r="U114" s="139"/>
-      <c r="V114" s="139"/>
-      <c r="W114" s="139"/>
-      <c r="X114" s="139"/>
-      <c r="Y114" s="140"/>
-    </row>
-    <row r="115" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B115" s="68" t="s">
+      <c r="F118" s="138"/>
+      <c r="G118" s="138"/>
+      <c r="H118" s="138"/>
+      <c r="I118" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J118" s="139"/>
+      <c r="K118" s="139"/>
+      <c r="L118" s="139"/>
+      <c r="M118" s="139"/>
+      <c r="N118" s="139"/>
+      <c r="O118" s="139"/>
+      <c r="P118" s="139"/>
+      <c r="Q118" s="139"/>
+      <c r="R118" s="139"/>
+      <c r="S118" s="139"/>
+      <c r="T118" s="139"/>
+      <c r="U118" s="139"/>
+      <c r="V118" s="139"/>
+      <c r="W118" s="139"/>
+      <c r="X118" s="139"/>
+      <c r="Y118" s="140"/>
+    </row>
+    <row r="119" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B119" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C115" s="69">
-        <v>1</v>
-      </c>
-      <c r="D115" s="70">
+      <c r="C119" s="69">
+        <v>1</v>
+      </c>
+      <c r="D119" s="70">
         <v>0</v>
       </c>
-      <c r="E115" s="71">
-        <v>1</v>
-      </c>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="J115" s="71"/>
-      <c r="K115" s="71"/>
-      <c r="L115" s="71"/>
-      <c r="M115" s="71"/>
-      <c r="N115" s="71"/>
-      <c r="O115" s="71"/>
-      <c r="P115" s="71"/>
-      <c r="Q115" s="71"/>
-      <c r="R115" s="71"/>
-      <c r="S115" s="71"/>
-      <c r="T115" s="71"/>
-      <c r="U115" s="71"/>
-      <c r="V115" s="71"/>
-      <c r="W115" s="71"/>
-      <c r="X115" s="71"/>
-      <c r="Y115" s="73"/>
-    </row>
-    <row r="116" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B116" s="30"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="29"/>
-      <c r="Q116" s="29"/>
-      <c r="R116" s="29"/>
-      <c r="S116" s="29"/>
-      <c r="T116" s="29"/>
-      <c r="U116" s="29"/>
-      <c r="V116" s="29"/>
-      <c r="W116" s="29"/>
-      <c r="X116" s="29"/>
-      <c r="Y116" s="29"/>
+      <c r="E119" s="71">
+        <v>1</v>
+      </c>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="71"/>
+      <c r="M119" s="71"/>
+      <c r="N119" s="71"/>
+      <c r="O119" s="71"/>
+      <c r="P119" s="71"/>
+      <c r="Q119" s="71"/>
+      <c r="R119" s="71"/>
+      <c r="S119" s="71"/>
+      <c r="T119" s="71"/>
+      <c r="U119" s="71"/>
+      <c r="V119" s="71"/>
+      <c r="W119" s="71"/>
+      <c r="X119" s="71"/>
+      <c r="Y119" s="73"/>
+    </row>
+    <row r="120" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B120" s="30"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="29"/>
+      <c r="M120" s="29"/>
+      <c r="N120" s="29"/>
+      <c r="O120" s="29"/>
+      <c r="P120" s="29"/>
+      <c r="Q120" s="29"/>
+      <c r="R120" s="29"/>
+      <c r="S120" s="29"/>
+      <c r="T120" s="29"/>
+      <c r="U120" s="29"/>
+      <c r="V120" s="29"/>
+      <c r="W120" s="29"/>
+      <c r="X120" s="29"/>
+      <c r="Y120" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="7">
-    <mergeCell ref="B88:Y88"/>
-    <mergeCell ref="B102:Y102"/>
+    <mergeCell ref="B92:Y92"/>
+    <mergeCell ref="B106:Y106"/>
     <mergeCell ref="B1:U1"/>
-    <mergeCell ref="B59:Y59"/>
-    <mergeCell ref="K50:Y50"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B74:Y74"/>
+    <mergeCell ref="B63:Y63"/>
+    <mergeCell ref="K54:Y54"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B78:Y78"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please enter either Set Start or Sensitivity_x000a_" sqref="D11:F11 K12" xr:uid="{DC230231-95F0-BE42-A565-A0346C1C72C5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Please enter either Set Start or Sensitivity_x000a_" sqref="D14:F14 K15" xr:uid="{DC230231-95F0-BE42-A565-A0346C1C72C5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6525,13 +6628,13 @@
           <x14:formula1>
             <xm:f>Lists!$C$1:$C$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C11</xm:sqref>
+          <xm:sqref>C14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACE04B1E-78C1-C84B-BCD5-1AC305AC0E2C}">
           <x14:formula1>
             <xm:f>Lists!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C18 C23 C27 C32:C36</xm:sqref>
+          <xm:sqref>C21 C26 C30 C35:C38 C40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6540,6 +6643,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73564F3B-C59D-5C43-8F4B-90B2A62A6CC1}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="112"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="23">
+      <c r="A1" s="162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28">
+      <c r="A4" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="97"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="165"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="101"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="166"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="101"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="101"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="101"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="101"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84C4108-4382-7B45-A458-3829B2D973D9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -6547,7 +6803,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -6562,7 +6818,7 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -6570,7 +6826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF2874B-413F-0443-B735-6C7E31168B18}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -6578,7 +6834,7 @@
       <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.33203125" style="112" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="112" bestFit="1" customWidth="1"/>
@@ -6590,27 +6846,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
       <c r="D1" s="111"/>
-      <c r="E1" s="159" t="s">
+      <c r="E1" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="159"/>
+      <c r="F1" s="161"/>
       <c r="G1" s="111"/>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="159"/>
+      <c r="I1" s="161"/>
       <c r="J1" s="111"/>
-      <c r="K1" s="159" t="s">
+      <c r="K1" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
     </row>
     <row r="2" spans="1:13" ht="20">
       <c r="A2" s="113"/>
@@ -6843,7 +7099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -6861,12 +7117,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.5" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
     </row>
     <row r="2" spans="1:11" ht="5" customHeight="1"/>
     <row r="3" spans="1:11" ht="45" customHeight="1">
@@ -7171,8 +7427,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000BE91B0E0F707B44ADD54BD807FC8041" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aaf53faa0b720e0e3b2b5121d0fe8108">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c891a41a-a233-45b7-a3f1-ec06333a8c94" xmlns:ns3="5fb5e84a-5684-468e-b345-7aeeb4845130" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88a8651ba02bfcc8abd053d50e01d782" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5fb5e84a-5684-468e-b345-7aeeb4845130">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c891a41a-a233-45b7-a3f1-ec06333a8c94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000BE91B0E0F707B44ADD54BD807FC8041" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b68bb6a24addb1edd44e9968faaee9b9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c891a41a-a233-45b7-a3f1-ec06333a8c94" xmlns:ns3="5fb5e84a-5684-468e-b345-7aeeb4845130" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e52f23a99c9b746e189691b84a6c0e11" ns2:_="" ns3:_="">
     <xsd:import namespace="c891a41a-a233-45b7-a3f1-ec06333a8c94"/>
     <xsd:import namespace="5fb5e84a-5684-468e-b345-7aeeb4845130"/>
     <xsd:element name="properties">
@@ -7196,6 +7463,7 @@
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7313,6 +7581,11 @@
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -7413,17 +7686,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5fb5e84a-5684-468e-b345-7aeeb4845130">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c891a41a-a233-45b7-a3f1-ec06333a8c94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7434,7 +7696,24 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F45A992C-2B09-4E29-9FDD-5CA31E591011}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F179306B-7E3C-4332-A628-E921D465300E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5fb5e84a-5684-468e-b345-7aeeb4845130"/>
+    <ds:schemaRef ds:uri="c891a41a-a233-45b7-a3f1-ec06333a8c94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6B94105-627F-4D0E-8A55-E3EDF454C95A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -7452,23 +7731,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F179306B-7E3C-4332-A628-E921D465300E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c891a41a-a233-45b7-a3f1-ec06333a8c94"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5fb5e84a-5684-468e-b345-7aeeb4845130"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D483FCC-4ABD-42B8-88C8-9F5EF14F5CC2}">
   <ds:schemaRefs>

--- a/Demo/AV-TEST-Cable-Survey-Combined.xlsx
+++ b/Demo/AV-TEST-Cable-Survey-Combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://odslco.sharepoint.com/sites/PROJECTS/Shared Documents/CNS - Expert Consultancy/Aventis teaching/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://odslco.sharepoint.com/sites/PROJECTS/Shared Documents/Python Utilities/13 Aventis/Aventis/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1258" documentId="13_ncr:1_{A758ECA3-D21F-BF4E-AFDD-9744F2FC81AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCDAAF81-50FA-0D44-9512-8E7D38720406}"/>
+  <xr:revisionPtr revIDLastSave="1287" documentId="13_ncr:1_{A758ECA3-D21F-BF4E-AFDD-9744F2FC81AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B3DA74-CBE2-BD4F-9118-0D1F39FD62E8}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19420" windowHeight="11500" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" tabRatio="751" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="157">
   <si>
     <t>Simulation Info</t>
   </si>
@@ -358,60 +358,12 @@
     <t>m/s</t>
   </si>
   <si>
-    <t>UK Nearshore 1</t>
-  </si>
-  <si>
-    <t>UK Nearshore 2</t>
-  </si>
-  <si>
-    <t>East Anglia Three C</t>
-  </si>
-  <si>
-    <t>Cross Sands</t>
-  </si>
-  <si>
-    <t>East Anglia Three A</t>
-  </si>
-  <si>
-    <t>East Anglia Three B</t>
-  </si>
-  <si>
-    <t>Norfolk Vanguard C</t>
-  </si>
-  <si>
-    <t>Norfolk Vanguard D</t>
-  </si>
-  <si>
-    <t>Norfolk Vanguard A</t>
-  </si>
-  <si>
-    <t>Norfolk Vanguard B</t>
-  </si>
-  <si>
-    <t>Corvette Gas Field</t>
-  </si>
-  <si>
-    <t>Nederwiek 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Nederwiek 1</t>
-  </si>
-  <si>
-    <t>Ijmuiden Ver Gamma</t>
-  </si>
-  <si>
-    <t>Ijmuiden Ver Alpha &amp; Beta</t>
-  </si>
-  <si>
     <t>Set Start</t>
   </si>
   <si>
     <t>Offshore Geophys</t>
   </si>
   <si>
-    <t>WS10m_10min</t>
-  </si>
-  <si>
     <t>FRAGNET: Offshore Geophys</t>
   </si>
   <si>
@@ -550,12 +502,6 @@
     <t>ROV Survey 5</t>
   </si>
   <si>
-    <t>/Users/jontypedersen/Library/CloudStorage/OneDrive-SharedLibraries-ODSL/Projects - Documents/CNS - Expert Consultancy/P-CNS-ITK-44721-Metocean and Installation Analysis Support/WP2 - Tender Analysis/Weather Data/01 WTG Properties Aventis/Location Properties.xlsx</t>
-  </si>
-  <si>
-    <t>/Users/jontypedersen/Library/CloudStorage/OneDrive-SharedLibraries-ODSL/Projects - Documents/CNS - Expert Consultancy/Aventis teaching/Demo_Weather_data.csv</t>
-  </si>
-  <si>
     <t>Vessel Name</t>
   </si>
   <si>
@@ -587,6 +533,12 @@
   </si>
   <si>
     <t>Tenderer P80</t>
+  </si>
+  <si>
+    <t>filepath to weather pickle or csv /Users/jontypedersen/Library/CloudStorage/OneDrive-SharedLibraries-ODSL/Projects - Documents/Python Utilities/13 Aventis/Aventis/Demo/Weather and Properties/Demo_Weather_data.csv</t>
+  </si>
+  <si>
+    <t>filepath to wtg properties file /Projects - Documents/CNS - Expert Consultancy/P-CNS-ITK-44721-Metocean and Installation Analysis Support/WP2 - Tender Analysis/Weather Data/01 WTG Properties Aventis/Location Properties.xlsx</t>
   </si>
 </sst>
 </file>
@@ -598,7 +550,7 @@
     <numFmt numFmtId="165" formatCode="###0.0;###0.0"/>
     <numFmt numFmtId="166" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -859,8 +811,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -937,6 +901,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1269,7 +1245,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1407,9 +1383,6 @@
     <xf numFmtId="14" fontId="37" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1421,9 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1673,6 +1643,15 @@
     <xf numFmtId="0" fontId="37" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="40" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1697,21 +1676,21 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="40" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -2288,8 +2267,8 @@
   <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -2325,28 +2304,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="98" customHeight="1">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
       <c r="V1" s="42"/>
       <c r="W1" s="42"/>
       <c r="X1" s="42"/>
@@ -2415,7 +2394,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="7"/>
@@ -2441,11 +2420,11 @@
       <c r="Y4" s="7"/>
     </row>
     <row r="5" spans="2:29" ht="20" customHeight="1">
-      <c r="B5" s="151" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="152" t="s">
-        <v>165</v>
+      <c r="B5" s="149" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="150" t="s">
+        <v>147</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="7"/>
@@ -2471,11 +2450,11 @@
       <c r="Y5" s="7"/>
     </row>
     <row r="6" spans="2:29" ht="20" customHeight="1">
-      <c r="B6" s="151" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="152" t="s">
-        <v>166</v>
+      <c r="B6" s="149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="150" t="s">
+        <v>148</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="7"/>
@@ -2501,11 +2480,11 @@
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="2:29" ht="20" customHeight="1">
-      <c r="B7" s="151" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="152" t="s">
-        <v>167</v>
+      <c r="B7" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="150" t="s">
+        <v>149</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="7"/>
@@ -2535,7 +2514,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="7"/>
@@ -2561,11 +2540,11 @@
       <c r="Y8" s="7"/>
     </row>
     <row r="9" spans="2:29" ht="38">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>137</v>
+      <c r="C9" s="55" t="s">
+        <v>121</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="6"/>
@@ -2724,7 +2703,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2768,7 +2747,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="51" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -2825,8 +2804,8 @@
       <c r="B17" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="53" t="s">
-        <v>160</v>
+      <c r="C17" s="166" t="s">
+        <v>156</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2890,10 +2869,10 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <v>0</v>
       </c>
       <c r="D19" s="13"/>
@@ -2925,7 +2904,7 @@
     </row>
     <row r="20" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B20" s="35" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="15"/>
@@ -2957,7 +2936,7 @@
     </row>
     <row r="21" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B21" s="48" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>11</v>
@@ -2991,9 +2970,9 @@
     </row>
     <row r="22" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B22" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="131">
+        <v>101</v>
+      </c>
+      <c r="C22" s="129">
         <v>0.25</v>
       </c>
       <c r="D22" s="6"/>
@@ -3025,9 +3004,9 @@
     </row>
     <row r="23" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B23" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="132">
+        <v>102</v>
+      </c>
+      <c r="C23" s="130">
         <v>0.75</v>
       </c>
       <c r="D23" s="6"/>
@@ -3059,9 +3038,9 @@
     </row>
     <row r="24" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
       <c r="B24" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="132">
+        <v>103</v>
+      </c>
+      <c r="C24" s="130">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D24" s="6"/>
@@ -3192,7 +3171,7 @@
       <c r="AC27" s="10"/>
     </row>
     <row r="28" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="51" t="s">
@@ -3295,8 +3274,8 @@
       <c r="B31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="51" t="s">
-        <v>138</v>
+      <c r="C31" s="165" t="s">
+        <v>122</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -3360,10 +3339,10 @@
       <c r="AC32" s="10"/>
     </row>
     <row r="33" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="54" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="6"/>
@@ -3562,8 +3541,8 @@
       <c r="AC38" s="10"/>
     </row>
     <row r="39" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B39" s="164" t="s">
-        <v>168</v>
+      <c r="B39" s="151" t="s">
+        <v>150</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>11</v>
@@ -3632,10 +3611,10 @@
       <c r="AC40" s="10"/>
     </row>
     <row r="41" spans="2:29" s="11" customFormat="1" ht="23" customHeight="1">
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="6"/>
@@ -3737,11 +3716,11 @@
       </c>
     </row>
     <row r="45" spans="2:29" ht="25" customHeight="1">
-      <c r="B45" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>161</v>
+      <c r="B45" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="167" t="s">
+        <v>155</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -3768,8 +3747,8 @@
       <c r="AA45" s="5"/>
     </row>
     <row r="46" spans="2:29" ht="25" customHeight="1">
-      <c r="B46" s="133"/>
-      <c r="C46" s="134"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="132"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -3795,8 +3774,8 @@
       <c r="AA46" s="5"/>
     </row>
     <row r="47" spans="2:29" ht="25" customHeight="1">
-      <c r="B47" s="133"/>
-      <c r="C47" s="134"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3822,8 +3801,8 @@
       <c r="AA47" s="5"/>
     </row>
     <row r="48" spans="2:29" ht="25" customHeight="1">
-      <c r="B48" s="133"/>
-      <c r="C48" s="134"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="132"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -3849,8 +3828,8 @@
       <c r="AA48" s="5"/>
     </row>
     <row r="49" spans="2:29" ht="25" customHeight="1">
-      <c r="B49" s="133"/>
-      <c r="C49" s="134"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="132"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -3876,8 +3855,8 @@
       <c r="AA49" s="5"/>
     </row>
     <row r="50" spans="2:29" ht="25" customHeight="1">
-      <c r="B50" s="133"/>
-      <c r="C50" s="134"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="132"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -3903,8 +3882,8 @@
       <c r="AA50" s="5"/>
     </row>
     <row r="51" spans="2:29" ht="25" customHeight="1">
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -3982,34 +3961,34 @@
       <c r="Y53" s="21"/>
     </row>
     <row r="54" spans="2:29" ht="35" customHeight="1">
-      <c r="B54" s="158" t="s">
+      <c r="B54" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="159"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="159"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="155" t="s">
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="160"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="156"/>
-      <c r="M54" s="156"/>
-      <c r="N54" s="156"/>
-      <c r="O54" s="156"/>
-      <c r="P54" s="156"/>
-      <c r="Q54" s="156"/>
-      <c r="R54" s="156"/>
-      <c r="S54" s="156"/>
-      <c r="T54" s="156"/>
-      <c r="U54" s="156"/>
-      <c r="V54" s="156"/>
-      <c r="W54" s="156"/>
-      <c r="X54" s="156"/>
-      <c r="Y54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="157"/>
+      <c r="O54" s="157"/>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="157"/>
+      <c r="R54" s="157"/>
+      <c r="S54" s="157"/>
+      <c r="T54" s="157"/>
+      <c r="U54" s="157"/>
+      <c r="V54" s="157"/>
+      <c r="W54" s="157"/>
+      <c r="X54" s="157"/>
+      <c r="Y54" s="158"/>
       <c r="AC54" s="2"/>
     </row>
     <row r="55" spans="2:29" ht="73" customHeight="1">
@@ -4088,154 +4067,154 @@
       <c r="AC55" s="2"/>
     </row>
     <row r="56" spans="2:29" ht="21" customHeight="1">
-      <c r="B56" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="62">
-        <v>1</v>
-      </c>
-      <c r="D56" s="63"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66"/>
-      <c r="S56" s="66"/>
-      <c r="T56" s="66"/>
-      <c r="U56" s="66"/>
-      <c r="V56" s="66"/>
-      <c r="W56" s="66"/>
-      <c r="X56" s="66"/>
-      <c r="Y56" s="67"/>
+      <c r="B56" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="60">
+        <v>1</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="64"/>
+      <c r="T56" s="64"/>
+      <c r="U56" s="64"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="65"/>
     </row>
     <row r="57" spans="2:29" ht="21" customHeight="1">
-      <c r="B57" s="142" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="143">
-        <v>1</v>
-      </c>
-      <c r="D57" s="144"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="143"/>
-      <c r="J57" s="146"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="146"/>
-      <c r="M57" s="146"/>
-      <c r="N57" s="146"/>
-      <c r="O57" s="146"/>
-      <c r="P57" s="146"/>
-      <c r="Q57" s="146"/>
-      <c r="R57" s="146"/>
-      <c r="S57" s="146"/>
-      <c r="T57" s="146"/>
-      <c r="U57" s="146"/>
-      <c r="V57" s="146"/>
-      <c r="W57" s="146"/>
-      <c r="X57" s="146"/>
-      <c r="Y57" s="147"/>
+      <c r="B57" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="141">
+        <v>1</v>
+      </c>
+      <c r="D57" s="142"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+      <c r="G57" s="143"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="144"/>
+      <c r="Q57" s="144"/>
+      <c r="R57" s="144"/>
+      <c r="S57" s="144"/>
+      <c r="T57" s="144"/>
+      <c r="U57" s="144"/>
+      <c r="V57" s="144"/>
+      <c r="W57" s="144"/>
+      <c r="X57" s="144"/>
+      <c r="Y57" s="145"/>
     </row>
     <row r="58" spans="2:29" ht="21" customHeight="1">
-      <c r="B58" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="143">
-        <v>1</v>
-      </c>
-      <c r="D58" s="144"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="146"/>
-      <c r="M58" s="146"/>
-      <c r="N58" s="146"/>
-      <c r="O58" s="146"/>
-      <c r="P58" s="146"/>
-      <c r="Q58" s="146"/>
-      <c r="R58" s="146"/>
-      <c r="S58" s="146"/>
-      <c r="T58" s="146"/>
-      <c r="U58" s="146"/>
-      <c r="V58" s="146"/>
-      <c r="W58" s="146"/>
-      <c r="X58" s="146"/>
-      <c r="Y58" s="147"/>
+      <c r="B58" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="141">
+        <v>1</v>
+      </c>
+      <c r="D58" s="142"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="144"/>
+      <c r="S58" s="144"/>
+      <c r="T58" s="144"/>
+      <c r="U58" s="144"/>
+      <c r="V58" s="144"/>
+      <c r="W58" s="144"/>
+      <c r="X58" s="144"/>
+      <c r="Y58" s="145"/>
     </row>
     <row r="59" spans="2:29" ht="21" customHeight="1">
-      <c r="B59" s="142" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="143">
-        <v>1</v>
-      </c>
-      <c r="D59" s="144"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="145"/>
-      <c r="H59" s="145"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="146"/>
-      <c r="K59" s="146"/>
-      <c r="L59" s="146"/>
-      <c r="M59" s="146"/>
-      <c r="N59" s="146"/>
-      <c r="O59" s="146"/>
-      <c r="P59" s="146"/>
-      <c r="Q59" s="146"/>
-      <c r="R59" s="146"/>
-      <c r="S59" s="146"/>
-      <c r="T59" s="146"/>
-      <c r="U59" s="146"/>
-      <c r="V59" s="146"/>
-      <c r="W59" s="146"/>
-      <c r="X59" s="146"/>
-      <c r="Y59" s="147"/>
+      <c r="B59" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="141">
+        <v>1</v>
+      </c>
+      <c r="D59" s="142"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="144"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="144"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="144"/>
+      <c r="S59" s="144"/>
+      <c r="T59" s="144"/>
+      <c r="U59" s="144"/>
+      <c r="V59" s="144"/>
+      <c r="W59" s="144"/>
+      <c r="X59" s="144"/>
+      <c r="Y59" s="145"/>
     </row>
     <row r="60" spans="2:29" ht="21" customHeight="1">
-      <c r="B60" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="69">
-        <v>1</v>
-      </c>
-      <c r="D60" s="149"/>
-      <c r="E60" s="150"/>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71"/>
-      <c r="O60" s="71"/>
-      <c r="P60" s="71"/>
-      <c r="Q60" s="71"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
-      <c r="U60" s="71"/>
-      <c r="V60" s="71"/>
-      <c r="W60" s="71"/>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="73"/>
+      <c r="B60" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="67">
+        <v>1</v>
+      </c>
+      <c r="D60" s="147"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="69"/>
+      <c r="P60" s="69"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="69"/>
+      <c r="W60" s="69"/>
+      <c r="X60" s="69"/>
+      <c r="Y60" s="71"/>
     </row>
     <row r="61" spans="2:29" ht="10" customHeight="1">
       <c r="B61" s="23"/>
@@ -4292,564 +4271,564 @@
       <c r="Y62" s="24"/>
     </row>
     <row r="63" spans="2:29" ht="24" customHeight="1">
-      <c r="B63" s="153" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="153"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="153"/>
-      <c r="F63" s="153"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="153"/>
-      <c r="I63" s="153"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="153"/>
-      <c r="M63" s="153"/>
-      <c r="N63" s="153"/>
-      <c r="O63" s="153"/>
-      <c r="P63" s="153"/>
-      <c r="Q63" s="153"/>
-      <c r="R63" s="153"/>
-      <c r="S63" s="153"/>
-      <c r="T63" s="153"/>
-      <c r="U63" s="153"/>
-      <c r="V63" s="153"/>
-      <c r="W63" s="153"/>
-      <c r="X63" s="153"/>
-      <c r="Y63" s="153"/>
+      <c r="B63" s="154" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
+      <c r="E63" s="154"/>
+      <c r="F63" s="154"/>
+      <c r="G63" s="154"/>
+      <c r="H63" s="154"/>
+      <c r="I63" s="154"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="154"/>
+      <c r="L63" s="154"/>
+      <c r="M63" s="154"/>
+      <c r="N63" s="154"/>
+      <c r="O63" s="154"/>
+      <c r="P63" s="154"/>
+      <c r="Q63" s="154"/>
+      <c r="R63" s="154"/>
+      <c r="S63" s="154"/>
+      <c r="T63" s="154"/>
+      <c r="U63" s="154"/>
+      <c r="V63" s="154"/>
+      <c r="W63" s="154"/>
+      <c r="X63" s="154"/>
+      <c r="Y63" s="154"/>
     </row>
     <row r="64" spans="2:29" ht="21" customHeight="1">
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="62">
-        <v>1</v>
-      </c>
-      <c r="D64" s="63">
+      <c r="C64" s="60">
+        <v>1</v>
+      </c>
+      <c r="D64" s="61">
         <v>0</v>
       </c>
-      <c r="E64" s="64">
-        <v>1</v>
-      </c>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
-      <c r="Y64" s="67"/>
+      <c r="E64" s="62">
+        <v>1</v>
+      </c>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="T64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="65"/>
     </row>
     <row r="65" spans="1:25" ht="21" customHeight="1">
-      <c r="B65" s="135" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" s="136">
-        <v>1</v>
-      </c>
-      <c r="D65" s="137">
+      <c r="B65" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="134">
+        <v>1</v>
+      </c>
+      <c r="D65" s="135">
         <v>24</v>
       </c>
-      <c r="E65" s="138">
+      <c r="E65" s="136">
         <f>D65</f>
         <v>24</v>
       </c>
-      <c r="F65" s="138"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J65" s="139"/>
-      <c r="K65" s="139"/>
-      <c r="L65" s="139"/>
-      <c r="M65" s="139"/>
-      <c r="N65" s="139"/>
-      <c r="O65" s="139"/>
-      <c r="P65" s="139"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="139"/>
-      <c r="S65" s="139"/>
-      <c r="T65" s="139"/>
-      <c r="U65" s="139"/>
-      <c r="V65" s="139"/>
-      <c r="W65" s="139"/>
-      <c r="X65" s="139"/>
-      <c r="Y65" s="140"/>
+      <c r="F65" s="136"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J65" s="137"/>
+      <c r="K65" s="137"/>
+      <c r="L65" s="137"/>
+      <c r="M65" s="137"/>
+      <c r="N65" s="137"/>
+      <c r="O65" s="137"/>
+      <c r="P65" s="137"/>
+      <c r="Q65" s="137"/>
+      <c r="R65" s="137"/>
+      <c r="S65" s="137"/>
+      <c r="T65" s="137"/>
+      <c r="U65" s="137"/>
+      <c r="V65" s="137"/>
+      <c r="W65" s="137"/>
+      <c r="X65" s="137"/>
+      <c r="Y65" s="138"/>
     </row>
     <row r="66" spans="1:25" ht="21" customHeight="1">
       <c r="A66" s="17"/>
-      <c r="B66" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="75">
-        <v>1</v>
-      </c>
-      <c r="D66" s="76">
+      <c r="B66" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="73">
+        <v>1</v>
+      </c>
+      <c r="D66" s="74">
         <v>24</v>
       </c>
-      <c r="E66" s="76">
+      <c r="E66" s="74">
         <v>24</v>
       </c>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77" t="s">
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="L66" s="77" t="s">
+      <c r="L66" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="M66" s="77">
+      <c r="M66" s="75">
         <v>2</v>
       </c>
-      <c r="N66" s="77"/>
-      <c r="O66" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="P66" s="77" t="s">
+      <c r="N66" s="75"/>
+      <c r="O66" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="P66" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="Q66" s="77">
+      <c r="Q66" s="75">
         <v>12.5</v>
       </c>
-      <c r="R66" s="77"/>
-      <c r="S66" s="77"/>
-      <c r="T66" s="77"/>
-      <c r="U66" s="77"/>
-      <c r="V66" s="77"/>
-      <c r="W66" s="77"/>
-      <c r="X66" s="77"/>
-      <c r="Y66" s="78"/>
+      <c r="R66" s="75"/>
+      <c r="S66" s="75"/>
+      <c r="T66" s="75"/>
+      <c r="U66" s="75"/>
+      <c r="V66" s="75"/>
+      <c r="W66" s="75"/>
+      <c r="X66" s="75"/>
+      <c r="Y66" s="76"/>
     </row>
     <row r="67" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="75">
-        <v>1</v>
-      </c>
-      <c r="D67" s="76">
+      <c r="C67" s="73">
+        <v>1</v>
+      </c>
+      <c r="D67" s="74">
         <v>0</v>
       </c>
-      <c r="E67" s="76">
-        <v>1</v>
-      </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J67" s="77"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
-      <c r="M67" s="77"/>
-      <c r="N67" s="77"/>
-      <c r="O67" s="77"/>
-      <c r="P67" s="77"/>
-      <c r="Q67" s="77"/>
-      <c r="R67" s="77"/>
-      <c r="S67" s="77"/>
-      <c r="T67" s="77"/>
-      <c r="U67" s="77"/>
-      <c r="V67" s="77"/>
-      <c r="W67" s="77"/>
-      <c r="X67" s="77"/>
-      <c r="Y67" s="78"/>
+      <c r="E67" s="74">
+        <v>1</v>
+      </c>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="75"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="75"/>
+      <c r="V67" s="75"/>
+      <c r="W67" s="75"/>
+      <c r="X67" s="75"/>
+      <c r="Y67" s="76"/>
     </row>
     <row r="68" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B68" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="75">
-        <v>1</v>
-      </c>
-      <c r="D68" s="76">
+      <c r="B68" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="73">
+        <v>1</v>
+      </c>
+      <c r="D68" s="74">
         <v>24</v>
       </c>
-      <c r="E68" s="76">
+      <c r="E68" s="74">
         <v>24</v>
       </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J68" s="77"/>
-      <c r="K68" s="77" t="s">
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="L68" s="77" t="s">
+      <c r="L68" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="M68" s="77">
+      <c r="M68" s="75">
         <v>2.5</v>
       </c>
-      <c r="N68" s="77"/>
-      <c r="O68" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="P68" s="77" t="s">
+      <c r="N68" s="75"/>
+      <c r="O68" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="P68" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="Q68" s="77">
+      <c r="Q68" s="75">
         <v>12.5</v>
       </c>
-      <c r="R68" s="77"/>
-      <c r="S68" s="77"/>
-      <c r="T68" s="77"/>
-      <c r="U68" s="77"/>
-      <c r="V68" s="77"/>
-      <c r="W68" s="77"/>
-      <c r="X68" s="77"/>
-      <c r="Y68" s="78"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="75"/>
+      <c r="T68" s="75"/>
+      <c r="U68" s="75"/>
+      <c r="V68" s="75"/>
+      <c r="W68" s="75"/>
+      <c r="X68" s="75"/>
+      <c r="Y68" s="76"/>
     </row>
     <row r="69" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B69" s="74" t="s">
+      <c r="B69" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="75">
-        <v>1</v>
-      </c>
-      <c r="D69" s="76">
+      <c r="C69" s="73">
+        <v>1</v>
+      </c>
+      <c r="D69" s="74">
         <v>0</v>
       </c>
-      <c r="E69" s="76">
-        <v>1</v>
-      </c>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="77"/>
-      <c r="S69" s="77"/>
-      <c r="T69" s="77"/>
-      <c r="U69" s="77"/>
-      <c r="V69" s="77"/>
-      <c r="W69" s="77"/>
-      <c r="X69" s="77"/>
-      <c r="Y69" s="78"/>
+      <c r="E69" s="74">
+        <v>1</v>
+      </c>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+      <c r="M69" s="75"/>
+      <c r="N69" s="75"/>
+      <c r="O69" s="75"/>
+      <c r="P69" s="75"/>
+      <c r="Q69" s="75"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="75"/>
+      <c r="T69" s="75"/>
+      <c r="U69" s="75"/>
+      <c r="V69" s="75"/>
+      <c r="W69" s="75"/>
+      <c r="X69" s="75"/>
+      <c r="Y69" s="76"/>
     </row>
     <row r="70" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B70" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="75">
-        <v>1</v>
-      </c>
-      <c r="D70" s="76">
+      <c r="B70" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="73">
+        <v>1</v>
+      </c>
+      <c r="D70" s="74">
         <v>24</v>
       </c>
-      <c r="E70" s="76">
+      <c r="E70" s="74">
         <v>24</v>
       </c>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77" t="s">
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="77" t="s">
+      <c r="L70" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="M70" s="77">
+      <c r="M70" s="75">
         <v>3</v>
       </c>
-      <c r="N70" s="77"/>
-      <c r="O70" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="P70" s="77" t="s">
+      <c r="N70" s="75"/>
+      <c r="O70" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="P70" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="Q70" s="77">
+      <c r="Q70" s="75">
         <v>15</v>
       </c>
-      <c r="R70" s="77"/>
-      <c r="S70" s="77"/>
-      <c r="T70" s="77"/>
-      <c r="U70" s="77"/>
-      <c r="V70" s="77"/>
-      <c r="W70" s="77"/>
-      <c r="X70" s="77"/>
-      <c r="Y70" s="78"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="75"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="75"/>
+      <c r="V70" s="75"/>
+      <c r="W70" s="75"/>
+      <c r="X70" s="75"/>
+      <c r="Y70" s="76"/>
     </row>
     <row r="71" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="75">
-        <v>1</v>
-      </c>
-      <c r="D71" s="76">
+      <c r="C71" s="73">
+        <v>1</v>
+      </c>
+      <c r="D71" s="74">
         <v>0</v>
       </c>
-      <c r="E71" s="76">
-        <v>1</v>
-      </c>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="77"/>
-      <c r="M71" s="77"/>
-      <c r="N71" s="77"/>
-      <c r="O71" s="77"/>
-      <c r="P71" s="77"/>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="77"/>
-      <c r="S71" s="77"/>
-      <c r="T71" s="77"/>
-      <c r="U71" s="77"/>
-      <c r="V71" s="77"/>
-      <c r="W71" s="77"/>
-      <c r="X71" s="77"/>
-      <c r="Y71" s="78"/>
+      <c r="E71" s="74">
+        <v>1</v>
+      </c>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+      <c r="M71" s="75"/>
+      <c r="N71" s="75"/>
+      <c r="O71" s="75"/>
+      <c r="P71" s="75"/>
+      <c r="Q71" s="75"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="75"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="75"/>
+      <c r="V71" s="75"/>
+      <c r="W71" s="75"/>
+      <c r="X71" s="75"/>
+      <c r="Y71" s="76"/>
     </row>
     <row r="72" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B72" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C72" s="75">
-        <v>1</v>
-      </c>
-      <c r="D72" s="76">
+      <c r="B72" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="73">
+        <v>1</v>
+      </c>
+      <c r="D72" s="74">
         <v>24</v>
       </c>
-      <c r="E72" s="76">
+      <c r="E72" s="74">
         <v>24</v>
       </c>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77" t="s">
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="77" t="s">
+      <c r="L72" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="M72" s="77">
+      <c r="M72" s="75">
         <v>2</v>
       </c>
-      <c r="N72" s="77"/>
-      <c r="O72" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="P72" s="77" t="s">
+      <c r="N72" s="75"/>
+      <c r="O72" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="P72" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="Q72" s="77">
+      <c r="Q72" s="75">
         <v>20</v>
       </c>
-      <c r="R72" s="77"/>
-      <c r="S72" s="77"/>
-      <c r="T72" s="77"/>
-      <c r="U72" s="77"/>
-      <c r="V72" s="77"/>
-      <c r="W72" s="77"/>
-      <c r="X72" s="77"/>
-      <c r="Y72" s="78"/>
+      <c r="R72" s="75"/>
+      <c r="S72" s="75"/>
+      <c r="T72" s="75"/>
+      <c r="U72" s="75"/>
+      <c r="V72" s="75"/>
+      <c r="W72" s="75"/>
+      <c r="X72" s="75"/>
+      <c r="Y72" s="76"/>
     </row>
     <row r="73" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="75">
-        <v>1</v>
-      </c>
-      <c r="D73" s="76">
+      <c r="C73" s="73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="74">
         <v>0</v>
       </c>
-      <c r="E73" s="76">
-        <v>1</v>
-      </c>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-      <c r="N73" s="77"/>
-      <c r="O73" s="77"/>
-      <c r="P73" s="77"/>
-      <c r="Q73" s="77"/>
-      <c r="R73" s="77"/>
-      <c r="S73" s="77"/>
-      <c r="T73" s="77"/>
-      <c r="U73" s="77"/>
-      <c r="V73" s="77"/>
-      <c r="W73" s="77"/>
-      <c r="X73" s="77"/>
-      <c r="Y73" s="78"/>
+      <c r="E73" s="74">
+        <v>1</v>
+      </c>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
+      <c r="N73" s="75"/>
+      <c r="O73" s="75"/>
+      <c r="P73" s="75"/>
+      <c r="Q73" s="75"/>
+      <c r="R73" s="75"/>
+      <c r="S73" s="75"/>
+      <c r="T73" s="75"/>
+      <c r="U73" s="75"/>
+      <c r="V73" s="75"/>
+      <c r="W73" s="75"/>
+      <c r="X73" s="75"/>
+      <c r="Y73" s="76"/>
     </row>
     <row r="74" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B74" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="75">
-        <v>1</v>
-      </c>
-      <c r="D74" s="76">
+      <c r="B74" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="73">
+        <v>1</v>
+      </c>
+      <c r="D74" s="74">
         <v>24</v>
       </c>
-      <c r="E74" s="76">
+      <c r="E74" s="74">
         <v>24</v>
       </c>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77" t="s">
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J74" s="75"/>
+      <c r="K74" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="L74" s="77" t="s">
+      <c r="L74" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="M74" s="77">
+      <c r="M74" s="75">
         <v>2.5</v>
       </c>
-      <c r="N74" s="77"/>
-      <c r="O74" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="P74" s="77" t="s">
+      <c r="N74" s="75"/>
+      <c r="O74" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="P74" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="Q74" s="77">
+      <c r="Q74" s="75">
         <v>36</v>
       </c>
-      <c r="R74" s="77"/>
-      <c r="S74" s="77"/>
-      <c r="T74" s="77"/>
-      <c r="U74" s="77"/>
-      <c r="V74" s="77"/>
-      <c r="W74" s="77"/>
-      <c r="X74" s="77"/>
-      <c r="Y74" s="78"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="75"/>
+      <c r="T74" s="75"/>
+      <c r="U74" s="75"/>
+      <c r="V74" s="75"/>
+      <c r="W74" s="75"/>
+      <c r="X74" s="75"/>
+      <c r="Y74" s="76"/>
     </row>
     <row r="75" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="75">
-        <v>1</v>
-      </c>
-      <c r="D75" s="76">
+      <c r="C75" s="73">
+        <v>1</v>
+      </c>
+      <c r="D75" s="74">
         <v>0</v>
       </c>
-      <c r="E75" s="76">
-        <v>1</v>
-      </c>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
-      <c r="M75" s="77"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="77"/>
-      <c r="P75" s="77"/>
-      <c r="Q75" s="77"/>
-      <c r="R75" s="77"/>
-      <c r="S75" s="77"/>
-      <c r="T75" s="77"/>
-      <c r="U75" s="77"/>
-      <c r="V75" s="77"/>
-      <c r="W75" s="77"/>
-      <c r="X75" s="77"/>
-      <c r="Y75" s="78"/>
+      <c r="E75" s="74">
+        <v>1</v>
+      </c>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="J75" s="75"/>
+      <c r="K75" s="75"/>
+      <c r="L75" s="75"/>
+      <c r="M75" s="75"/>
+      <c r="N75" s="75"/>
+      <c r="O75" s="75"/>
+      <c r="P75" s="75"/>
+      <c r="Q75" s="75"/>
+      <c r="R75" s="75"/>
+      <c r="S75" s="75"/>
+      <c r="T75" s="75"/>
+      <c r="U75" s="75"/>
+      <c r="V75" s="75"/>
+      <c r="W75" s="75"/>
+      <c r="X75" s="75"/>
+      <c r="Y75" s="76"/>
     </row>
     <row r="76" spans="1:25" ht="21" customHeight="1">
-      <c r="B76" s="135" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" s="136">
-        <v>1</v>
-      </c>
-      <c r="D76" s="137">
+      <c r="B76" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="134">
+        <v>1</v>
+      </c>
+      <c r="D76" s="135">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E76" s="138">
+      <c r="E76" s="136">
         <f>D76</f>
         <v>24</v>
       </c>
-      <c r="F76" s="138"/>
-      <c r="G76" s="138"/>
-      <c r="H76" s="138"/>
-      <c r="I76" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J76" s="139"/>
-      <c r="K76" s="139"/>
-      <c r="L76" s="139"/>
-      <c r="M76" s="139"/>
-      <c r="N76" s="139"/>
-      <c r="O76" s="139"/>
-      <c r="P76" s="139"/>
-      <c r="Q76" s="139"/>
-      <c r="R76" s="139"/>
-      <c r="S76" s="139"/>
-      <c r="T76" s="139"/>
-      <c r="U76" s="139"/>
-      <c r="V76" s="139"/>
-      <c r="W76" s="139"/>
-      <c r="X76" s="139"/>
-      <c r="Y76" s="140"/>
+      <c r="F76" s="136"/>
+      <c r="G76" s="136"/>
+      <c r="H76" s="136"/>
+      <c r="I76" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J76" s="137"/>
+      <c r="K76" s="137"/>
+      <c r="L76" s="137"/>
+      <c r="M76" s="137"/>
+      <c r="N76" s="137"/>
+      <c r="O76" s="137"/>
+      <c r="P76" s="137"/>
+      <c r="Q76" s="137"/>
+      <c r="R76" s="137"/>
+      <c r="S76" s="137"/>
+      <c r="T76" s="137"/>
+      <c r="U76" s="137"/>
+      <c r="V76" s="137"/>
+      <c r="W76" s="137"/>
+      <c r="X76" s="137"/>
+      <c r="Y76" s="138"/>
     </row>
     <row r="77" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B77" s="30"/>
@@ -4878,529 +4857,529 @@
       <c r="Y77" s="29"/>
     </row>
     <row r="78" spans="1:25" ht="24" customHeight="1">
-      <c r="B78" s="153" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="153"/>
-      <c r="D78" s="153"/>
-      <c r="E78" s="153"/>
-      <c r="F78" s="153"/>
-      <c r="G78" s="153"/>
-      <c r="H78" s="153"/>
-      <c r="I78" s="153"/>
-      <c r="J78" s="153"/>
-      <c r="K78" s="153"/>
-      <c r="L78" s="153"/>
-      <c r="M78" s="153"/>
-      <c r="N78" s="153"/>
-      <c r="O78" s="153"/>
-      <c r="P78" s="153"/>
-      <c r="Q78" s="153"/>
-      <c r="R78" s="153"/>
-      <c r="S78" s="153"/>
-      <c r="T78" s="153"/>
-      <c r="U78" s="153"/>
-      <c r="V78" s="153"/>
-      <c r="W78" s="153"/>
-      <c r="X78" s="153"/>
-      <c r="Y78" s="153"/>
+      <c r="B78" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
+      <c r="E78" s="154"/>
+      <c r="F78" s="154"/>
+      <c r="G78" s="154"/>
+      <c r="H78" s="154"/>
+      <c r="I78" s="154"/>
+      <c r="J78" s="154"/>
+      <c r="K78" s="154"/>
+      <c r="L78" s="154"/>
+      <c r="M78" s="154"/>
+      <c r="N78" s="154"/>
+      <c r="O78" s="154"/>
+      <c r="P78" s="154"/>
+      <c r="Q78" s="154"/>
+      <c r="R78" s="154"/>
+      <c r="S78" s="154"/>
+      <c r="T78" s="154"/>
+      <c r="U78" s="154"/>
+      <c r="V78" s="154"/>
+      <c r="W78" s="154"/>
+      <c r="X78" s="154"/>
+      <c r="Y78" s="154"/>
     </row>
     <row r="79" spans="1:25" ht="21" customHeight="1">
-      <c r="B79" s="135" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="136">
-        <v>1</v>
-      </c>
-      <c r="D79" s="137">
+      <c r="B79" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="134">
+        <v>1</v>
+      </c>
+      <c r="D79" s="135">
         <f>ROUND(1.5*24,0)</f>
         <v>36</v>
       </c>
-      <c r="E79" s="138">
+      <c r="E79" s="136">
         <f>D79</f>
         <v>36</v>
       </c>
-      <c r="F79" s="138"/>
-      <c r="G79" s="138"/>
-      <c r="H79" s="138"/>
-      <c r="I79" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J79" s="139"/>
-      <c r="K79" s="139"/>
-      <c r="L79" s="139"/>
-      <c r="M79" s="139"/>
-      <c r="N79" s="139"/>
-      <c r="O79" s="139"/>
-      <c r="P79" s="139"/>
-      <c r="Q79" s="139"/>
-      <c r="R79" s="139"/>
-      <c r="S79" s="139"/>
-      <c r="T79" s="139"/>
-      <c r="U79" s="139"/>
-      <c r="V79" s="139"/>
-      <c r="W79" s="139"/>
-      <c r="X79" s="139"/>
-      <c r="Y79" s="140"/>
+      <c r="F79" s="136"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J79" s="137"/>
+      <c r="K79" s="137"/>
+      <c r="L79" s="137"/>
+      <c r="M79" s="137"/>
+      <c r="N79" s="137"/>
+      <c r="O79" s="137"/>
+      <c r="P79" s="137"/>
+      <c r="Q79" s="137"/>
+      <c r="R79" s="137"/>
+      <c r="S79" s="137"/>
+      <c r="T79" s="137"/>
+      <c r="U79" s="137"/>
+      <c r="V79" s="137"/>
+      <c r="W79" s="137"/>
+      <c r="X79" s="137"/>
+      <c r="Y79" s="138"/>
     </row>
     <row r="80" spans="1:25" ht="21" customHeight="1">
       <c r="A80" s="17"/>
-      <c r="B80" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="80">
-        <v>1</v>
-      </c>
-      <c r="D80" s="81">
+      <c r="B80" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="78">
+        <v>1</v>
+      </c>
+      <c r="D80" s="79">
         <v>24</v>
       </c>
-      <c r="E80" s="81">
+      <c r="E80" s="79">
         <v>24</v>
       </c>
-      <c r="F80" s="81"/>
-      <c r="G80" s="81"/>
-      <c r="H80" s="81"/>
-      <c r="I80" s="81" t="s">
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J80" s="80"/>
+      <c r="K80" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="M80" s="80">
+        <v>2</v>
+      </c>
+      <c r="N80" s="80"/>
+      <c r="O80" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P80" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" s="80">
+        <v>12.5</v>
+      </c>
+      <c r="R80" s="80"/>
+      <c r="S80" s="80"/>
+      <c r="T80" s="80"/>
+      <c r="U80" s="80"/>
+      <c r="V80" s="80"/>
+      <c r="W80" s="80"/>
+      <c r="X80" s="80"/>
+      <c r="Y80" s="81"/>
+    </row>
+    <row r="81" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B81" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="78">
+        <v>1</v>
+      </c>
+      <c r="D81" s="79">
+        <v>0</v>
+      </c>
+      <c r="E81" s="79">
+        <v>1</v>
+      </c>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J81" s="80"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="80"/>
+      <c r="Q81" s="80"/>
+      <c r="R81" s="80"/>
+      <c r="S81" s="80"/>
+      <c r="T81" s="80"/>
+      <c r="U81" s="80"/>
+      <c r="V81" s="80"/>
+      <c r="W81" s="80"/>
+      <c r="X81" s="80"/>
+      <c r="Y81" s="81"/>
+    </row>
+    <row r="82" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B82" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="78">
+        <v>1</v>
+      </c>
+      <c r="D82" s="79">
+        <v>24</v>
+      </c>
+      <c r="E82" s="79">
+        <v>24</v>
+      </c>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J82" s="80"/>
+      <c r="K82" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="M82" s="80">
+        <v>2.5</v>
+      </c>
+      <c r="N82" s="80"/>
+      <c r="O82" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P82" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q82" s="80">
+        <v>12.5</v>
+      </c>
+      <c r="R82" s="80"/>
+      <c r="S82" s="80"/>
+      <c r="T82" s="80"/>
+      <c r="U82" s="80"/>
+      <c r="V82" s="80"/>
+      <c r="W82" s="80"/>
+      <c r="X82" s="80"/>
+      <c r="Y82" s="81"/>
+    </row>
+    <row r="83" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B83" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="78">
+        <v>1</v>
+      </c>
+      <c r="D83" s="79">
+        <v>0</v>
+      </c>
+      <c r="E83" s="79">
+        <v>1</v>
+      </c>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J83" s="80"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="80"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="80"/>
+      <c r="Q83" s="80"/>
+      <c r="R83" s="80"/>
+      <c r="S83" s="80"/>
+      <c r="T83" s="80"/>
+      <c r="U83" s="80"/>
+      <c r="V83" s="80"/>
+      <c r="W83" s="80"/>
+      <c r="X83" s="80"/>
+      <c r="Y83" s="81"/>
+    </row>
+    <row r="84" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B84" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="78">
+        <v>1</v>
+      </c>
+      <c r="D84" s="79">
+        <v>24</v>
+      </c>
+      <c r="E84" s="79">
+        <v>24</v>
+      </c>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J84" s="80"/>
+      <c r="K84" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L84" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="M84" s="80">
+        <v>3</v>
+      </c>
+      <c r="N84" s="80"/>
+      <c r="O84" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P84" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q84" s="80">
+        <v>15</v>
+      </c>
+      <c r="R84" s="80"/>
+      <c r="S84" s="80"/>
+      <c r="T84" s="80"/>
+      <c r="U84" s="80"/>
+      <c r="V84" s="80"/>
+      <c r="W84" s="80"/>
+      <c r="X84" s="80"/>
+      <c r="Y84" s="81"/>
+    </row>
+    <row r="85" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B85" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="78">
+        <v>1</v>
+      </c>
+      <c r="D85" s="79">
+        <v>0</v>
+      </c>
+      <c r="E85" s="79">
+        <v>1</v>
+      </c>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J85" s="80"/>
+      <c r="K85" s="80"/>
+      <c r="L85" s="80"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="80"/>
+      <c r="O85" s="80"/>
+      <c r="P85" s="80"/>
+      <c r="Q85" s="80"/>
+      <c r="R85" s="80"/>
+      <c r="S85" s="80"/>
+      <c r="T85" s="80"/>
+      <c r="U85" s="80"/>
+      <c r="V85" s="80"/>
+      <c r="W85" s="80"/>
+      <c r="X85" s="80"/>
+      <c r="Y85" s="81"/>
+    </row>
+    <row r="86" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B86" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="78">
+        <v>1</v>
+      </c>
+      <c r="D86" s="79">
+        <v>24</v>
+      </c>
+      <c r="E86" s="79">
+        <v>24</v>
+      </c>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J86" s="80"/>
+      <c r="K86" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="L86" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" s="80">
+        <v>2</v>
+      </c>
+      <c r="N86" s="80"/>
+      <c r="O86" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P86" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q86" s="80">
+        <v>20</v>
+      </c>
+      <c r="R86" s="80"/>
+      <c r="S86" s="80"/>
+      <c r="T86" s="80"/>
+      <c r="U86" s="80"/>
+      <c r="V86" s="80"/>
+      <c r="W86" s="80"/>
+      <c r="X86" s="80"/>
+      <c r="Y86" s="81"/>
+    </row>
+    <row r="87" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B87" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="78">
+        <v>1</v>
+      </c>
+      <c r="D87" s="79">
+        <v>0</v>
+      </c>
+      <c r="E87" s="79">
+        <v>1</v>
+      </c>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J87" s="80"/>
+      <c r="K87" s="80"/>
+      <c r="L87" s="80"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="80"/>
+      <c r="P87" s="80"/>
+      <c r="Q87" s="80"/>
+      <c r="R87" s="80"/>
+      <c r="S87" s="80"/>
+      <c r="T87" s="80"/>
+      <c r="U87" s="80"/>
+      <c r="V87" s="80"/>
+      <c r="W87" s="80"/>
+      <c r="X87" s="80"/>
+      <c r="Y87" s="81"/>
+    </row>
+    <row r="88" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="B88" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="J80" s="82"/>
-      <c r="K80" s="82" t="s">
+      <c r="C88" s="78">
+        <v>1</v>
+      </c>
+      <c r="D88" s="79">
+        <v>24</v>
+      </c>
+      <c r="E88" s="79">
+        <v>24</v>
+      </c>
+      <c r="F88" s="79"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J88" s="80"/>
+      <c r="K88" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="L80" s="82" t="s">
+      <c r="L88" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="M80" s="82">
-        <v>2</v>
-      </c>
-      <c r="N80" s="82"/>
-      <c r="O80" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="P80" s="82" t="s">
+      <c r="M88" s="80">
+        <v>2.5</v>
+      </c>
+      <c r="N88" s="80"/>
+      <c r="O88" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="P88" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="Q80" s="82">
-        <v>12.5</v>
-      </c>
-      <c r="R80" s="82"/>
-      <c r="S80" s="82"/>
-      <c r="T80" s="82"/>
-      <c r="U80" s="82"/>
-      <c r="V80" s="82"/>
-      <c r="W80" s="82"/>
-      <c r="X80" s="82"/>
-      <c r="Y80" s="83"/>
-    </row>
-    <row r="81" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B81" s="79" t="s">
+      <c r="Q88" s="80">
+        <v>36</v>
+      </c>
+      <c r="R88" s="80"/>
+      <c r="S88" s="80"/>
+      <c r="T88" s="80"/>
+      <c r="U88" s="80"/>
+      <c r="V88" s="80"/>
+      <c r="W88" s="80"/>
+      <c r="X88" s="80"/>
+      <c r="Y88" s="81"/>
+    </row>
+    <row r="89" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
+      <c r="B89" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="80">
-        <v>1</v>
-      </c>
-      <c r="D81" s="81">
+      <c r="C89" s="78">
+        <v>1</v>
+      </c>
+      <c r="D89" s="79">
         <v>0</v>
       </c>
-      <c r="E81" s="81">
-        <v>1</v>
-      </c>
-      <c r="F81" s="81"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="81"/>
-      <c r="I81" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-      <c r="L81" s="82"/>
-      <c r="M81" s="82"/>
-      <c r="N81" s="82"/>
-      <c r="O81" s="82"/>
-      <c r="P81" s="82"/>
-      <c r="Q81" s="82"/>
-      <c r="R81" s="82"/>
-      <c r="S81" s="82"/>
-      <c r="T81" s="82"/>
-      <c r="U81" s="82"/>
-      <c r="V81" s="82"/>
-      <c r="W81" s="82"/>
-      <c r="X81" s="82"/>
-      <c r="Y81" s="83"/>
-    </row>
-    <row r="82" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B82" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" s="80">
-        <v>1</v>
-      </c>
-      <c r="D82" s="81">
-        <v>24</v>
-      </c>
-      <c r="E82" s="81">
-        <v>24</v>
-      </c>
-      <c r="F82" s="81"/>
-      <c r="G82" s="81"/>
-      <c r="H82" s="81"/>
-      <c r="I82" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J82" s="82"/>
-      <c r="K82" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="M82" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="N82" s="82"/>
-      <c r="O82" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="P82" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q82" s="82">
-        <v>12.5</v>
-      </c>
-      <c r="R82" s="82"/>
-      <c r="S82" s="82"/>
-      <c r="T82" s="82"/>
-      <c r="U82" s="82"/>
-      <c r="V82" s="82"/>
-      <c r="W82" s="82"/>
-      <c r="X82" s="82"/>
-      <c r="Y82" s="83"/>
-    </row>
-    <row r="83" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B83" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="80">
-        <v>1</v>
-      </c>
-      <c r="D83" s="81">
-        <v>0</v>
-      </c>
-      <c r="E83" s="81">
-        <v>1</v>
-      </c>
-      <c r="F83" s="81"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="81"/>
-      <c r="I83" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J83" s="82"/>
-      <c r="K83" s="82"/>
-      <c r="L83" s="82"/>
-      <c r="M83" s="82"/>
-      <c r="N83" s="82"/>
-      <c r="O83" s="82"/>
-      <c r="P83" s="82"/>
-      <c r="Q83" s="82"/>
-      <c r="R83" s="82"/>
-      <c r="S83" s="82"/>
-      <c r="T83" s="82"/>
-      <c r="U83" s="82"/>
-      <c r="V83" s="82"/>
-      <c r="W83" s="82"/>
-      <c r="X83" s="82"/>
-      <c r="Y83" s="83"/>
-    </row>
-    <row r="84" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B84" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="80">
-        <v>1</v>
-      </c>
-      <c r="D84" s="81">
-        <v>24</v>
-      </c>
-      <c r="E84" s="81">
-        <v>24</v>
-      </c>
-      <c r="F84" s="81"/>
-      <c r="G84" s="81"/>
-      <c r="H84" s="81"/>
-      <c r="I84" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J84" s="82"/>
-      <c r="K84" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="L84" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="M84" s="82">
-        <v>3</v>
-      </c>
-      <c r="N84" s="82"/>
-      <c r="O84" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="P84" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q84" s="82">
-        <v>15</v>
-      </c>
-      <c r="R84" s="82"/>
-      <c r="S84" s="82"/>
-      <c r="T84" s="82"/>
-      <c r="U84" s="82"/>
-      <c r="V84" s="82"/>
-      <c r="W84" s="82"/>
-      <c r="X84" s="82"/>
-      <c r="Y84" s="83"/>
-    </row>
-    <row r="85" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B85" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="80">
-        <v>1</v>
-      </c>
-      <c r="D85" s="81">
-        <v>0</v>
-      </c>
-      <c r="E85" s="81">
-        <v>1</v>
-      </c>
-      <c r="F85" s="81"/>
-      <c r="G85" s="81"/>
-      <c r="H85" s="81"/>
-      <c r="I85" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J85" s="82"/>
-      <c r="K85" s="82"/>
-      <c r="L85" s="82"/>
-      <c r="M85" s="82"/>
-      <c r="N85" s="82"/>
-      <c r="O85" s="82"/>
-      <c r="P85" s="82"/>
-      <c r="Q85" s="82"/>
-      <c r="R85" s="82"/>
-      <c r="S85" s="82"/>
-      <c r="T85" s="82"/>
-      <c r="U85" s="82"/>
-      <c r="V85" s="82"/>
-      <c r="W85" s="82"/>
-      <c r="X85" s="82"/>
-      <c r="Y85" s="83"/>
-    </row>
-    <row r="86" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B86" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="C86" s="80">
-        <v>1</v>
-      </c>
-      <c r="D86" s="81">
-        <v>24</v>
-      </c>
-      <c r="E86" s="81">
-        <v>24</v>
-      </c>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J86" s="82"/>
-      <c r="K86" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="L86" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="M86" s="82">
-        <v>2</v>
-      </c>
-      <c r="N86" s="82"/>
-      <c r="O86" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="P86" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q86" s="82">
-        <v>20</v>
-      </c>
-      <c r="R86" s="82"/>
-      <c r="S86" s="82"/>
-      <c r="T86" s="82"/>
-      <c r="U86" s="82"/>
-      <c r="V86" s="82"/>
-      <c r="W86" s="82"/>
-      <c r="X86" s="82"/>
-      <c r="Y86" s="83"/>
-    </row>
-    <row r="87" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B87" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="80">
-        <v>1</v>
-      </c>
-      <c r="D87" s="81">
-        <v>0</v>
-      </c>
-      <c r="E87" s="81">
-        <v>1</v>
-      </c>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J87" s="82"/>
-      <c r="K87" s="82"/>
-      <c r="L87" s="82"/>
-      <c r="M87" s="82"/>
-      <c r="N87" s="82"/>
-      <c r="O87" s="82"/>
-      <c r="P87" s="82"/>
-      <c r="Q87" s="82"/>
-      <c r="R87" s="82"/>
-      <c r="S87" s="82"/>
-      <c r="T87" s="82"/>
-      <c r="U87" s="82"/>
-      <c r="V87" s="82"/>
-      <c r="W87" s="82"/>
-      <c r="X87" s="82"/>
-      <c r="Y87" s="83"/>
-    </row>
-    <row r="88" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B88" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="80">
-        <v>1</v>
-      </c>
-      <c r="D88" s="81">
-        <v>24</v>
-      </c>
-      <c r="E88" s="81">
-        <v>24</v>
-      </c>
-      <c r="F88" s="81"/>
-      <c r="G88" s="81"/>
-      <c r="H88" s="81"/>
-      <c r="I88" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J88" s="82"/>
-      <c r="K88" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="L88" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="M88" s="82">
-        <v>2.5</v>
-      </c>
-      <c r="N88" s="82"/>
-      <c r="O88" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="P88" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q88" s="82">
-        <v>36</v>
-      </c>
-      <c r="R88" s="82"/>
-      <c r="S88" s="82"/>
-      <c r="T88" s="82"/>
-      <c r="U88" s="82"/>
-      <c r="V88" s="82"/>
-      <c r="W88" s="82"/>
-      <c r="X88" s="82"/>
-      <c r="Y88" s="83"/>
-    </row>
-    <row r="89" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B89" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="80">
-        <v>1</v>
-      </c>
-      <c r="D89" s="81">
-        <v>0</v>
-      </c>
-      <c r="E89" s="81">
-        <v>1</v>
-      </c>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="81"/>
-      <c r="I89" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="J89" s="82"/>
-      <c r="K89" s="82"/>
-      <c r="L89" s="82"/>
-      <c r="M89" s="82"/>
-      <c r="N89" s="82"/>
-      <c r="O89" s="82"/>
-      <c r="P89" s="82"/>
-      <c r="Q89" s="82"/>
-      <c r="R89" s="82"/>
-      <c r="S89" s="82"/>
-      <c r="T89" s="82"/>
-      <c r="U89" s="82"/>
-      <c r="V89" s="82"/>
-      <c r="W89" s="82"/>
-      <c r="X89" s="82"/>
-      <c r="Y89" s="83"/>
+      <c r="E89" s="79">
+        <v>1</v>
+      </c>
+      <c r="F89" s="79"/>
+      <c r="G89" s="79"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="J89" s="80"/>
+      <c r="K89" s="80"/>
+      <c r="L89" s="80"/>
+      <c r="M89" s="80"/>
+      <c r="N89" s="80"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="80"/>
+      <c r="Q89" s="80"/>
+      <c r="R89" s="80"/>
+      <c r="S89" s="80"/>
+      <c r="T89" s="80"/>
+      <c r="U89" s="80"/>
+      <c r="V89" s="80"/>
+      <c r="W89" s="80"/>
+      <c r="X89" s="80"/>
+      <c r="Y89" s="81"/>
     </row>
     <row r="90" spans="1:25" ht="21" customHeight="1">
-      <c r="B90" s="135" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="136">
-        <v>1</v>
-      </c>
-      <c r="D90" s="137">
+      <c r="B90" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="134">
+        <v>1</v>
+      </c>
+      <c r="D90" s="135">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E90" s="138">
+      <c r="E90" s="136">
         <f>D90</f>
         <v>24</v>
       </c>
-      <c r="F90" s="138"/>
-      <c r="G90" s="138"/>
-      <c r="H90" s="138"/>
-      <c r="I90" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J90" s="139"/>
-      <c r="K90" s="139"/>
-      <c r="L90" s="139"/>
-      <c r="M90" s="139"/>
-      <c r="N90" s="139"/>
-      <c r="O90" s="139"/>
-      <c r="P90" s="139"/>
-      <c r="Q90" s="139"/>
-      <c r="R90" s="139"/>
-      <c r="S90" s="139"/>
-      <c r="T90" s="139"/>
-      <c r="U90" s="139"/>
-      <c r="V90" s="139"/>
-      <c r="W90" s="139"/>
-      <c r="X90" s="139"/>
-      <c r="Y90" s="140"/>
+      <c r="F90" s="136"/>
+      <c r="G90" s="136"/>
+      <c r="H90" s="136"/>
+      <c r="I90" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J90" s="137"/>
+      <c r="K90" s="137"/>
+      <c r="L90" s="137"/>
+      <c r="M90" s="137"/>
+      <c r="N90" s="137"/>
+      <c r="O90" s="137"/>
+      <c r="P90" s="137"/>
+      <c r="Q90" s="137"/>
+      <c r="R90" s="137"/>
+      <c r="S90" s="137"/>
+      <c r="T90" s="137"/>
+      <c r="U90" s="137"/>
+      <c r="V90" s="137"/>
+      <c r="W90" s="137"/>
+      <c r="X90" s="137"/>
+      <c r="Y90" s="138"/>
     </row>
     <row r="91" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B91" s="30"/>
@@ -5429,529 +5408,529 @@
       <c r="Y91" s="29"/>
     </row>
     <row r="92" spans="1:25" ht="24" customHeight="1">
-      <c r="B92" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="153"/>
-      <c r="D92" s="153"/>
-      <c r="E92" s="153"/>
-      <c r="F92" s="153"/>
-      <c r="G92" s="153"/>
-      <c r="H92" s="153"/>
-      <c r="I92" s="153"/>
-      <c r="J92" s="153"/>
-      <c r="K92" s="153"/>
-      <c r="L92" s="153"/>
-      <c r="M92" s="153"/>
-      <c r="N92" s="153"/>
-      <c r="O92" s="153"/>
-      <c r="P92" s="153"/>
-      <c r="Q92" s="153"/>
-      <c r="R92" s="153"/>
-      <c r="S92" s="153"/>
-      <c r="T92" s="153"/>
-      <c r="U92" s="153"/>
-      <c r="V92" s="153"/>
-      <c r="W92" s="153"/>
-      <c r="X92" s="153"/>
-      <c r="Y92" s="153"/>
+      <c r="B92" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="154"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="154"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+      <c r="O92" s="154"/>
+      <c r="P92" s="154"/>
+      <c r="Q92" s="154"/>
+      <c r="R92" s="154"/>
+      <c r="S92" s="154"/>
+      <c r="T92" s="154"/>
+      <c r="U92" s="154"/>
+      <c r="V92" s="154"/>
+      <c r="W92" s="154"/>
+      <c r="X92" s="154"/>
+      <c r="Y92" s="154"/>
     </row>
     <row r="93" spans="1:25" ht="21" customHeight="1">
-      <c r="B93" s="135" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="136">
-        <v>1</v>
-      </c>
-      <c r="D93" s="137">
+      <c r="B93" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="134">
+        <v>1</v>
+      </c>
+      <c r="D93" s="135">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E93" s="138">
+      <c r="E93" s="136">
         <f>D93</f>
         <v>24</v>
       </c>
-      <c r="F93" s="138"/>
-      <c r="G93" s="138"/>
-      <c r="H93" s="138"/>
-      <c r="I93" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J93" s="139"/>
-      <c r="K93" s="139"/>
-      <c r="L93" s="139"/>
-      <c r="M93" s="139"/>
-      <c r="N93" s="139"/>
-      <c r="O93" s="139"/>
-      <c r="P93" s="139"/>
-      <c r="Q93" s="139"/>
-      <c r="R93" s="139"/>
-      <c r="S93" s="139"/>
-      <c r="T93" s="139"/>
-      <c r="U93" s="139"/>
-      <c r="V93" s="139"/>
-      <c r="W93" s="139"/>
-      <c r="X93" s="139"/>
-      <c r="Y93" s="140"/>
+      <c r="F93" s="136"/>
+      <c r="G93" s="136"/>
+      <c r="H93" s="136"/>
+      <c r="I93" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J93" s="137"/>
+      <c r="K93" s="137"/>
+      <c r="L93" s="137"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="137"/>
+      <c r="O93" s="137"/>
+      <c r="P93" s="137"/>
+      <c r="Q93" s="137"/>
+      <c r="R93" s="137"/>
+      <c r="S93" s="137"/>
+      <c r="T93" s="137"/>
+      <c r="U93" s="137"/>
+      <c r="V93" s="137"/>
+      <c r="W93" s="137"/>
+      <c r="X93" s="137"/>
+      <c r="Y93" s="138"/>
     </row>
     <row r="94" spans="1:25" ht="21" customHeight="1">
       <c r="A94" s="17"/>
-      <c r="B94" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="C94" s="85">
-        <v>1</v>
-      </c>
-      <c r="D94" s="86">
+      <c r="B94" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="83">
+        <v>1</v>
+      </c>
+      <c r="D94" s="84">
         <v>24</v>
       </c>
-      <c r="E94" s="86">
+      <c r="E94" s="84">
         <v>24</v>
       </c>
-      <c r="F94" s="86"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="86"/>
-      <c r="I94" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J94" s="87"/>
-      <c r="K94" s="87" t="s">
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L94" s="87" t="s">
+      <c r="L94" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="M94" s="87">
+      <c r="M94" s="85">
         <v>2</v>
       </c>
-      <c r="N94" s="87"/>
-      <c r="O94" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="P94" s="87" t="s">
+      <c r="N94" s="85"/>
+      <c r="O94" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P94" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q94" s="87">
+      <c r="Q94" s="85">
         <v>12.5</v>
       </c>
-      <c r="R94" s="87"/>
-      <c r="S94" s="87"/>
-      <c r="T94" s="87"/>
-      <c r="U94" s="87"/>
-      <c r="V94" s="87"/>
-      <c r="W94" s="87"/>
-      <c r="X94" s="87"/>
-      <c r="Y94" s="88"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="85"/>
+      <c r="T94" s="85"/>
+      <c r="U94" s="85"/>
+      <c r="V94" s="85"/>
+      <c r="W94" s="85"/>
+      <c r="X94" s="85"/>
+      <c r="Y94" s="86"/>
     </row>
     <row r="95" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B95" s="84" t="s">
+      <c r="B95" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C95" s="85">
-        <v>1</v>
-      </c>
-      <c r="D95" s="86">
+      <c r="C95" s="83">
+        <v>1</v>
+      </c>
+      <c r="D95" s="84">
         <v>0</v>
       </c>
-      <c r="E95" s="86">
-        <v>1</v>
-      </c>
-      <c r="F95" s="86"/>
-      <c r="G95" s="86"/>
-      <c r="H95" s="86"/>
-      <c r="I95" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J95" s="87"/>
-      <c r="K95" s="87"/>
-      <c r="L95" s="87"/>
-      <c r="M95" s="87"/>
-      <c r="N95" s="87"/>
-      <c r="O95" s="87"/>
-      <c r="P95" s="87"/>
-      <c r="Q95" s="87"/>
-      <c r="R95" s="87"/>
-      <c r="S95" s="87"/>
-      <c r="T95" s="87"/>
-      <c r="U95" s="87"/>
-      <c r="V95" s="87"/>
-      <c r="W95" s="87"/>
-      <c r="X95" s="87"/>
-      <c r="Y95" s="88"/>
+      <c r="E95" s="84">
+        <v>1</v>
+      </c>
+      <c r="F95" s="84"/>
+      <c r="G95" s="84"/>
+      <c r="H95" s="84"/>
+      <c r="I95" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J95" s="85"/>
+      <c r="K95" s="85"/>
+      <c r="L95" s="85"/>
+      <c r="M95" s="85"/>
+      <c r="N95" s="85"/>
+      <c r="O95" s="85"/>
+      <c r="P95" s="85"/>
+      <c r="Q95" s="85"/>
+      <c r="R95" s="85"/>
+      <c r="S95" s="85"/>
+      <c r="T95" s="85"/>
+      <c r="U95" s="85"/>
+      <c r="V95" s="85"/>
+      <c r="W95" s="85"/>
+      <c r="X95" s="85"/>
+      <c r="Y95" s="86"/>
     </row>
     <row r="96" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B96" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="C96" s="85">
-        <v>1</v>
-      </c>
-      <c r="D96" s="86">
+      <c r="B96" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" s="83">
+        <v>1</v>
+      </c>
+      <c r="D96" s="84">
         <v>24</v>
       </c>
-      <c r="E96" s="86">
+      <c r="E96" s="84">
         <v>24</v>
       </c>
-      <c r="F96" s="86"/>
-      <c r="G96" s="86"/>
-      <c r="H96" s="86"/>
-      <c r="I96" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J96" s="87"/>
-      <c r="K96" s="87" t="s">
+      <c r="F96" s="84"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J96" s="85"/>
+      <c r="K96" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L96" s="87" t="s">
+      <c r="L96" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="M96" s="87">
+      <c r="M96" s="85">
         <v>2.5</v>
       </c>
-      <c r="N96" s="87"/>
-      <c r="O96" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="P96" s="87" t="s">
+      <c r="N96" s="85"/>
+      <c r="O96" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P96" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q96" s="87">
+      <c r="Q96" s="85">
         <v>12.5</v>
       </c>
-      <c r="R96" s="87"/>
-      <c r="S96" s="87"/>
-      <c r="T96" s="87"/>
-      <c r="U96" s="87"/>
-      <c r="V96" s="87"/>
-      <c r="W96" s="87"/>
-      <c r="X96" s="87"/>
-      <c r="Y96" s="88"/>
+      <c r="R96" s="85"/>
+      <c r="S96" s="85"/>
+      <c r="T96" s="85"/>
+      <c r="U96" s="85"/>
+      <c r="V96" s="85"/>
+      <c r="W96" s="85"/>
+      <c r="X96" s="85"/>
+      <c r="Y96" s="86"/>
     </row>
     <row r="97" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B97" s="84" t="s">
+      <c r="B97" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="85">
-        <v>1</v>
-      </c>
-      <c r="D97" s="86">
+      <c r="C97" s="83">
+        <v>1</v>
+      </c>
+      <c r="D97" s="84">
         <v>0</v>
       </c>
-      <c r="E97" s="86">
-        <v>1</v>
-      </c>
-      <c r="F97" s="86"/>
-      <c r="G97" s="86"/>
-      <c r="H97" s="86"/>
-      <c r="I97" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J97" s="87"/>
-      <c r="K97" s="87"/>
-      <c r="L97" s="87"/>
-      <c r="M97" s="87"/>
-      <c r="N97" s="87"/>
-      <c r="O97" s="87"/>
-      <c r="P97" s="87"/>
-      <c r="Q97" s="87"/>
-      <c r="R97" s="87"/>
-      <c r="S97" s="87"/>
-      <c r="T97" s="87"/>
-      <c r="U97" s="87"/>
-      <c r="V97" s="87"/>
-      <c r="W97" s="87"/>
-      <c r="X97" s="87"/>
-      <c r="Y97" s="88"/>
+      <c r="E97" s="84">
+        <v>1</v>
+      </c>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J97" s="85"/>
+      <c r="K97" s="85"/>
+      <c r="L97" s="85"/>
+      <c r="M97" s="85"/>
+      <c r="N97" s="85"/>
+      <c r="O97" s="85"/>
+      <c r="P97" s="85"/>
+      <c r="Q97" s="85"/>
+      <c r="R97" s="85"/>
+      <c r="S97" s="85"/>
+      <c r="T97" s="85"/>
+      <c r="U97" s="85"/>
+      <c r="V97" s="85"/>
+      <c r="W97" s="85"/>
+      <c r="X97" s="85"/>
+      <c r="Y97" s="86"/>
     </row>
     <row r="98" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B98" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="C98" s="85">
-        <v>1</v>
-      </c>
-      <c r="D98" s="86">
+      <c r="B98" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="83">
+        <v>1</v>
+      </c>
+      <c r="D98" s="84">
         <v>24</v>
       </c>
-      <c r="E98" s="86">
+      <c r="E98" s="84">
         <v>24</v>
       </c>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="86"/>
-      <c r="I98" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J98" s="87"/>
-      <c r="K98" s="87" t="s">
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
+      <c r="H98" s="84"/>
+      <c r="I98" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J98" s="85"/>
+      <c r="K98" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L98" s="87" t="s">
+      <c r="L98" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="M98" s="87">
+      <c r="M98" s="85">
         <v>3</v>
       </c>
-      <c r="N98" s="87"/>
-      <c r="O98" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="P98" s="87" t="s">
+      <c r="N98" s="85"/>
+      <c r="O98" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P98" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q98" s="87">
+      <c r="Q98" s="85">
         <v>15</v>
       </c>
-      <c r="R98" s="87"/>
-      <c r="S98" s="87"/>
-      <c r="T98" s="87"/>
-      <c r="U98" s="87"/>
-      <c r="V98" s="87"/>
-      <c r="W98" s="87"/>
-      <c r="X98" s="87"/>
-      <c r="Y98" s="88"/>
+      <c r="R98" s="85"/>
+      <c r="S98" s="85"/>
+      <c r="T98" s="85"/>
+      <c r="U98" s="85"/>
+      <c r="V98" s="85"/>
+      <c r="W98" s="85"/>
+      <c r="X98" s="85"/>
+      <c r="Y98" s="86"/>
     </row>
     <row r="99" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B99" s="84" t="s">
+      <c r="B99" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C99" s="85">
-        <v>1</v>
-      </c>
-      <c r="D99" s="86">
+      <c r="C99" s="83">
+        <v>1</v>
+      </c>
+      <c r="D99" s="84">
         <v>0</v>
       </c>
-      <c r="E99" s="86">
-        <v>1</v>
-      </c>
-      <c r="F99" s="86"/>
-      <c r="G99" s="86"/>
-      <c r="H99" s="86"/>
-      <c r="I99" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J99" s="87"/>
-      <c r="K99" s="87"/>
-      <c r="L99" s="87"/>
-      <c r="M99" s="87"/>
-      <c r="N99" s="87"/>
-      <c r="O99" s="87"/>
-      <c r="P99" s="87"/>
-      <c r="Q99" s="87"/>
-      <c r="R99" s="87"/>
-      <c r="S99" s="87"/>
-      <c r="T99" s="87"/>
-      <c r="U99" s="87"/>
-      <c r="V99" s="87"/>
-      <c r="W99" s="87"/>
-      <c r="X99" s="87"/>
-      <c r="Y99" s="88"/>
+      <c r="E99" s="84">
+        <v>1</v>
+      </c>
+      <c r="F99" s="84"/>
+      <c r="G99" s="84"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
+      <c r="M99" s="85"/>
+      <c r="N99" s="85"/>
+      <c r="O99" s="85"/>
+      <c r="P99" s="85"/>
+      <c r="Q99" s="85"/>
+      <c r="R99" s="85"/>
+      <c r="S99" s="85"/>
+      <c r="T99" s="85"/>
+      <c r="U99" s="85"/>
+      <c r="V99" s="85"/>
+      <c r="W99" s="85"/>
+      <c r="X99" s="85"/>
+      <c r="Y99" s="86"/>
     </row>
     <row r="100" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B100" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="85">
-        <v>1</v>
-      </c>
-      <c r="D100" s="86">
+      <c r="B100" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C100" s="83">
+        <v>1</v>
+      </c>
+      <c r="D100" s="84">
         <v>24</v>
       </c>
-      <c r="E100" s="86">
+      <c r="E100" s="84">
         <v>24</v>
       </c>
-      <c r="F100" s="86"/>
-      <c r="G100" s="86"/>
-      <c r="H100" s="86"/>
-      <c r="I100" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J100" s="87"/>
-      <c r="K100" s="87" t="s">
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L100" s="87" t="s">
+      <c r="L100" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="M100" s="87">
+      <c r="M100" s="85">
         <v>2</v>
       </c>
-      <c r="N100" s="87"/>
-      <c r="O100" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="P100" s="87" t="s">
+      <c r="N100" s="85"/>
+      <c r="O100" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P100" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q100" s="87">
+      <c r="Q100" s="85">
         <v>20</v>
       </c>
-      <c r="R100" s="87"/>
-      <c r="S100" s="87"/>
-      <c r="T100" s="87"/>
-      <c r="U100" s="87"/>
-      <c r="V100" s="87"/>
-      <c r="W100" s="87"/>
-      <c r="X100" s="87"/>
-      <c r="Y100" s="88"/>
+      <c r="R100" s="85"/>
+      <c r="S100" s="85"/>
+      <c r="T100" s="85"/>
+      <c r="U100" s="85"/>
+      <c r="V100" s="85"/>
+      <c r="W100" s="85"/>
+      <c r="X100" s="85"/>
+      <c r="Y100" s="86"/>
     </row>
     <row r="101" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B101" s="84" t="s">
+      <c r="B101" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C101" s="85">
-        <v>1</v>
-      </c>
-      <c r="D101" s="86">
+      <c r="C101" s="83">
+        <v>1</v>
+      </c>
+      <c r="D101" s="84">
         <v>0</v>
       </c>
-      <c r="E101" s="86">
-        <v>1</v>
-      </c>
-      <c r="F101" s="86"/>
-      <c r="G101" s="86"/>
-      <c r="H101" s="86"/>
-      <c r="I101" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J101" s="87"/>
-      <c r="K101" s="87"/>
-      <c r="L101" s="87"/>
-      <c r="M101" s="87"/>
-      <c r="N101" s="87"/>
-      <c r="O101" s="87"/>
-      <c r="P101" s="87"/>
-      <c r="Q101" s="87"/>
-      <c r="R101" s="87"/>
-      <c r="S101" s="87"/>
-      <c r="T101" s="87"/>
-      <c r="U101" s="87"/>
-      <c r="V101" s="87"/>
-      <c r="W101" s="87"/>
-      <c r="X101" s="87"/>
-      <c r="Y101" s="88"/>
+      <c r="E101" s="84">
+        <v>1</v>
+      </c>
+      <c r="F101" s="84"/>
+      <c r="G101" s="84"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J101" s="85"/>
+      <c r="K101" s="85"/>
+      <c r="L101" s="85"/>
+      <c r="M101" s="85"/>
+      <c r="N101" s="85"/>
+      <c r="O101" s="85"/>
+      <c r="P101" s="85"/>
+      <c r="Q101" s="85"/>
+      <c r="R101" s="85"/>
+      <c r="S101" s="85"/>
+      <c r="T101" s="85"/>
+      <c r="U101" s="85"/>
+      <c r="V101" s="85"/>
+      <c r="W101" s="85"/>
+      <c r="X101" s="85"/>
+      <c r="Y101" s="86"/>
     </row>
     <row r="102" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B102" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="C102" s="85">
-        <v>1</v>
-      </c>
-      <c r="D102" s="86">
+      <c r="B102" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C102" s="83">
+        <v>1</v>
+      </c>
+      <c r="D102" s="84">
         <v>24</v>
       </c>
-      <c r="E102" s="86">
+      <c r="E102" s="84">
         <v>24</v>
       </c>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="86"/>
-      <c r="I102" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J102" s="87"/>
-      <c r="K102" s="87" t="s">
+      <c r="F102" s="84"/>
+      <c r="G102" s="84"/>
+      <c r="H102" s="84"/>
+      <c r="I102" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J102" s="85"/>
+      <c r="K102" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="L102" s="87" t="s">
+      <c r="L102" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="M102" s="87">
+      <c r="M102" s="85">
         <v>2.5</v>
       </c>
-      <c r="N102" s="87"/>
-      <c r="O102" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="P102" s="87" t="s">
+      <c r="N102" s="85"/>
+      <c r="O102" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="P102" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="Q102" s="87">
+      <c r="Q102" s="85">
         <v>36</v>
       </c>
-      <c r="R102" s="87"/>
-      <c r="S102" s="87"/>
-      <c r="T102" s="87"/>
-      <c r="U102" s="87"/>
-      <c r="V102" s="87"/>
-      <c r="W102" s="87"/>
-      <c r="X102" s="87"/>
-      <c r="Y102" s="88"/>
+      <c r="R102" s="85"/>
+      <c r="S102" s="85"/>
+      <c r="T102" s="85"/>
+      <c r="U102" s="85"/>
+      <c r="V102" s="85"/>
+      <c r="W102" s="85"/>
+      <c r="X102" s="85"/>
+      <c r="Y102" s="86"/>
     </row>
     <row r="103" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B103" s="84" t="s">
+      <c r="B103" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="85">
-        <v>1</v>
-      </c>
-      <c r="D103" s="86">
+      <c r="C103" s="83">
+        <v>1</v>
+      </c>
+      <c r="D103" s="84">
         <v>0</v>
       </c>
-      <c r="E103" s="86">
-        <v>1</v>
-      </c>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="J103" s="87"/>
-      <c r="K103" s="87"/>
-      <c r="L103" s="87"/>
-      <c r="M103" s="87"/>
-      <c r="N103" s="87"/>
-      <c r="O103" s="87"/>
-      <c r="P103" s="87"/>
-      <c r="Q103" s="87"/>
-      <c r="R103" s="87"/>
-      <c r="S103" s="87"/>
-      <c r="T103" s="87"/>
-      <c r="U103" s="87"/>
-      <c r="V103" s="87"/>
-      <c r="W103" s="87"/>
-      <c r="X103" s="87"/>
-      <c r="Y103" s="88"/>
+      <c r="E103" s="84">
+        <v>1</v>
+      </c>
+      <c r="F103" s="84"/>
+      <c r="G103" s="84"/>
+      <c r="H103" s="84"/>
+      <c r="I103" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
+      <c r="M103" s="85"/>
+      <c r="N103" s="85"/>
+      <c r="O103" s="85"/>
+      <c r="P103" s="85"/>
+      <c r="Q103" s="85"/>
+      <c r="R103" s="85"/>
+      <c r="S103" s="85"/>
+      <c r="T103" s="85"/>
+      <c r="U103" s="85"/>
+      <c r="V103" s="85"/>
+      <c r="W103" s="85"/>
+      <c r="X103" s="85"/>
+      <c r="Y103" s="86"/>
     </row>
     <row r="104" spans="1:25" ht="21" customHeight="1">
-      <c r="B104" s="135" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" s="136">
-        <v>1</v>
-      </c>
-      <c r="D104" s="137">
+      <c r="B104" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="134">
+        <v>1</v>
+      </c>
+      <c r="D104" s="135">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E104" s="138">
+      <c r="E104" s="136">
         <f>D104</f>
         <v>24</v>
       </c>
-      <c r="F104" s="138"/>
-      <c r="G104" s="138"/>
-      <c r="H104" s="138"/>
-      <c r="I104" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J104" s="139"/>
-      <c r="K104" s="139"/>
-      <c r="L104" s="139"/>
-      <c r="M104" s="139"/>
-      <c r="N104" s="139"/>
-      <c r="O104" s="139"/>
-      <c r="P104" s="139"/>
-      <c r="Q104" s="139"/>
-      <c r="R104" s="139"/>
-      <c r="S104" s="139"/>
-      <c r="T104" s="139"/>
-      <c r="U104" s="139"/>
-      <c r="V104" s="139"/>
-      <c r="W104" s="139"/>
-      <c r="X104" s="139"/>
-      <c r="Y104" s="140"/>
+      <c r="F104" s="136"/>
+      <c r="G104" s="136"/>
+      <c r="H104" s="136"/>
+      <c r="I104" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J104" s="137"/>
+      <c r="K104" s="137"/>
+      <c r="L104" s="137"/>
+      <c r="M104" s="137"/>
+      <c r="N104" s="137"/>
+      <c r="O104" s="137"/>
+      <c r="P104" s="137"/>
+      <c r="Q104" s="137"/>
+      <c r="R104" s="137"/>
+      <c r="S104" s="137"/>
+      <c r="T104" s="137"/>
+      <c r="U104" s="137"/>
+      <c r="V104" s="137"/>
+      <c r="W104" s="137"/>
+      <c r="X104" s="137"/>
+      <c r="Y104" s="138"/>
     </row>
     <row r="105" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B105" s="30"/>
@@ -5980,595 +5959,595 @@
       <c r="Y105" s="29"/>
     </row>
     <row r="106" spans="1:25" ht="24" customHeight="1">
-      <c r="B106" s="153" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="153"/>
-      <c r="D106" s="153"/>
-      <c r="E106" s="153"/>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
-      <c r="H106" s="153"/>
-      <c r="I106" s="153"/>
-      <c r="J106" s="153"/>
-      <c r="K106" s="153"/>
-      <c r="L106" s="153"/>
-      <c r="M106" s="153"/>
-      <c r="N106" s="153"/>
-      <c r="O106" s="153"/>
-      <c r="P106" s="153"/>
-      <c r="Q106" s="153"/>
-      <c r="R106" s="153"/>
-      <c r="S106" s="153"/>
-      <c r="T106" s="153"/>
-      <c r="U106" s="153"/>
-      <c r="V106" s="153"/>
-      <c r="W106" s="153"/>
-      <c r="X106" s="153"/>
-      <c r="Y106" s="153"/>
+      <c r="B106" s="154" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="154"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="154"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="154"/>
+      <c r="H106" s="154"/>
+      <c r="I106" s="154"/>
+      <c r="J106" s="154"/>
+      <c r="K106" s="154"/>
+      <c r="L106" s="154"/>
+      <c r="M106" s="154"/>
+      <c r="N106" s="154"/>
+      <c r="O106" s="154"/>
+      <c r="P106" s="154"/>
+      <c r="Q106" s="154"/>
+      <c r="R106" s="154"/>
+      <c r="S106" s="154"/>
+      <c r="T106" s="154"/>
+      <c r="U106" s="154"/>
+      <c r="V106" s="154"/>
+      <c r="W106" s="154"/>
+      <c r="X106" s="154"/>
+      <c r="Y106" s="154"/>
     </row>
     <row r="107" spans="1:25" ht="21" customHeight="1">
-      <c r="B107" s="135" t="s">
-        <v>133</v>
-      </c>
-      <c r="C107" s="136">
-        <v>1</v>
-      </c>
-      <c r="D107" s="137">
+      <c r="B107" s="133" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="134">
+        <v>1</v>
+      </c>
+      <c r="D107" s="135">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E107" s="138">
+      <c r="E107" s="136">
         <f>D107</f>
         <v>24</v>
       </c>
-      <c r="F107" s="138"/>
-      <c r="G107" s="138"/>
-      <c r="H107" s="138"/>
-      <c r="I107" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J107" s="139"/>
-      <c r="K107" s="139"/>
-      <c r="L107" s="139"/>
-      <c r="M107" s="139"/>
-      <c r="N107" s="139"/>
-      <c r="O107" s="139"/>
-      <c r="P107" s="139"/>
-      <c r="Q107" s="139"/>
-      <c r="R107" s="139"/>
-      <c r="S107" s="139"/>
-      <c r="T107" s="139"/>
-      <c r="U107" s="139"/>
-      <c r="V107" s="139"/>
-      <c r="W107" s="139"/>
-      <c r="X107" s="139"/>
-      <c r="Y107" s="140"/>
+      <c r="F107" s="136"/>
+      <c r="G107" s="136"/>
+      <c r="H107" s="136"/>
+      <c r="I107" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J107" s="137"/>
+      <c r="K107" s="137"/>
+      <c r="L107" s="137"/>
+      <c r="M107" s="137"/>
+      <c r="N107" s="137"/>
+      <c r="O107" s="137"/>
+      <c r="P107" s="137"/>
+      <c r="Q107" s="137"/>
+      <c r="R107" s="137"/>
+      <c r="S107" s="137"/>
+      <c r="T107" s="137"/>
+      <c r="U107" s="137"/>
+      <c r="V107" s="137"/>
+      <c r="W107" s="137"/>
+      <c r="X107" s="137"/>
+      <c r="Y107" s="138"/>
     </row>
     <row r="108" spans="1:25" ht="14">
       <c r="A108" s="17"/>
-      <c r="B108" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" s="90">
-        <v>1</v>
-      </c>
-      <c r="D108" s="91">
+      <c r="B108" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="88">
+        <v>1</v>
+      </c>
+      <c r="D108" s="89">
         <v>24</v>
       </c>
-      <c r="E108" s="91">
+      <c r="E108" s="89">
         <v>24</v>
       </c>
-      <c r="F108" s="91"/>
-      <c r="G108" s="91"/>
-      <c r="H108" s="91"/>
-      <c r="I108" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J108" s="92"/>
-      <c r="K108" s="92" t="s">
+      <c r="F108" s="89"/>
+      <c r="G108" s="89"/>
+      <c r="H108" s="89"/>
+      <c r="I108" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J108" s="90"/>
+      <c r="K108" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="L108" s="92" t="s">
+      <c r="L108" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="M108" s="92">
+      <c r="M108" s="90">
         <v>2</v>
       </c>
-      <c r="N108" s="92"/>
-      <c r="O108" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="P108" s="92" t="s">
+      <c r="N108" s="90"/>
+      <c r="O108" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="P108" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q108" s="92">
+      <c r="Q108" s="90">
         <v>12.5</v>
       </c>
-      <c r="R108" s="92"/>
-      <c r="S108" s="92" t="s">
+      <c r="R108" s="90"/>
+      <c r="S108" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="T108" s="92" t="s">
+      <c r="T108" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="U108" s="92">
+      <c r="U108" s="90">
         <v>7</v>
       </c>
-      <c r="V108" s="92"/>
-      <c r="W108" s="92"/>
-      <c r="X108" s="92"/>
-      <c r="Y108" s="93"/>
+      <c r="V108" s="90"/>
+      <c r="W108" s="90"/>
+      <c r="X108" s="90"/>
+      <c r="Y108" s="91"/>
     </row>
     <row r="109" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B109" s="89" t="s">
+      <c r="B109" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="90">
-        <v>1</v>
-      </c>
-      <c r="D109" s="91">
+      <c r="C109" s="88">
+        <v>1</v>
+      </c>
+      <c r="D109" s="89">
         <v>0</v>
       </c>
-      <c r="E109" s="91">
-        <v>1</v>
-      </c>
-      <c r="F109" s="91"/>
-      <c r="G109" s="91"/>
-      <c r="H109" s="91"/>
-      <c r="I109" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J109" s="92"/>
-      <c r="K109" s="92"/>
-      <c r="L109" s="92"/>
-      <c r="M109" s="92"/>
-      <c r="N109" s="92"/>
-      <c r="O109" s="92"/>
-      <c r="P109" s="92"/>
-      <c r="Q109" s="92"/>
-      <c r="R109" s="92"/>
-      <c r="S109" s="92"/>
-      <c r="T109" s="92"/>
-      <c r="U109" s="92"/>
-      <c r="V109" s="92"/>
-      <c r="W109" s="92"/>
-      <c r="X109" s="92"/>
-      <c r="Y109" s="93"/>
+      <c r="E109" s="89">
+        <v>1</v>
+      </c>
+      <c r="F109" s="89"/>
+      <c r="G109" s="89"/>
+      <c r="H109" s="89"/>
+      <c r="I109" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J109" s="90"/>
+      <c r="K109" s="90"/>
+      <c r="L109" s="90"/>
+      <c r="M109" s="90"/>
+      <c r="N109" s="90"/>
+      <c r="O109" s="90"/>
+      <c r="P109" s="90"/>
+      <c r="Q109" s="90"/>
+      <c r="R109" s="90"/>
+      <c r="S109" s="90"/>
+      <c r="T109" s="90"/>
+      <c r="U109" s="90"/>
+      <c r="V109" s="90"/>
+      <c r="W109" s="90"/>
+      <c r="X109" s="90"/>
+      <c r="Y109" s="91"/>
     </row>
     <row r="110" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B110" s="89" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" s="90">
-        <v>1</v>
-      </c>
-      <c r="D110" s="91">
+      <c r="B110" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="88">
+        <v>1</v>
+      </c>
+      <c r="D110" s="89">
         <v>24</v>
       </c>
-      <c r="E110" s="91">
+      <c r="E110" s="89">
         <v>24</v>
       </c>
-      <c r="F110" s="91"/>
-      <c r="G110" s="91"/>
-      <c r="H110" s="91"/>
-      <c r="I110" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J110" s="92"/>
-      <c r="K110" s="92" t="s">
+      <c r="F110" s="89"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="89"/>
+      <c r="I110" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J110" s="90"/>
+      <c r="K110" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="L110" s="92" t="s">
+      <c r="L110" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="M110" s="92">
+      <c r="M110" s="90">
         <v>2.5</v>
       </c>
-      <c r="N110" s="92"/>
-      <c r="O110" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="P110" s="92" t="s">
+      <c r="N110" s="90"/>
+      <c r="O110" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="P110" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q110" s="92">
+      <c r="Q110" s="90">
         <v>12.5</v>
       </c>
-      <c r="R110" s="92"/>
-      <c r="S110" s="92" t="s">
+      <c r="R110" s="90"/>
+      <c r="S110" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="T110" s="92" t="s">
+      <c r="T110" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="U110" s="92">
+      <c r="U110" s="90">
         <v>7</v>
       </c>
-      <c r="V110" s="92"/>
-      <c r="W110" s="92"/>
-      <c r="X110" s="92"/>
-      <c r="Y110" s="93"/>
+      <c r="V110" s="90"/>
+      <c r="W110" s="90"/>
+      <c r="X110" s="90"/>
+      <c r="Y110" s="91"/>
     </row>
     <row r="111" spans="1:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B111" s="89" t="s">
+      <c r="B111" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="90">
-        <v>1</v>
-      </c>
-      <c r="D111" s="91">
+      <c r="C111" s="88">
+        <v>1</v>
+      </c>
+      <c r="D111" s="89">
         <v>0</v>
       </c>
-      <c r="E111" s="91">
-        <v>1</v>
-      </c>
-      <c r="F111" s="91"/>
-      <c r="G111" s="91"/>
-      <c r="H111" s="91"/>
-      <c r="I111" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J111" s="92"/>
-      <c r="K111" s="92"/>
-      <c r="L111" s="92"/>
-      <c r="M111" s="92"/>
-      <c r="N111" s="92"/>
-      <c r="O111" s="92"/>
-      <c r="P111" s="92"/>
-      <c r="Q111" s="92"/>
-      <c r="R111" s="92"/>
-      <c r="S111" s="92"/>
-      <c r="T111" s="92"/>
-      <c r="U111" s="92"/>
-      <c r="V111" s="92"/>
-      <c r="W111" s="92"/>
-      <c r="X111" s="92"/>
-      <c r="Y111" s="93"/>
+      <c r="E111" s="89">
+        <v>1</v>
+      </c>
+      <c r="F111" s="89"/>
+      <c r="G111" s="89"/>
+      <c r="H111" s="89"/>
+      <c r="I111" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J111" s="90"/>
+      <c r="K111" s="90"/>
+      <c r="L111" s="90"/>
+      <c r="M111" s="90"/>
+      <c r="N111" s="90"/>
+      <c r="O111" s="90"/>
+      <c r="P111" s="90"/>
+      <c r="Q111" s="90"/>
+      <c r="R111" s="90"/>
+      <c r="S111" s="90"/>
+      <c r="T111" s="90"/>
+      <c r="U111" s="90"/>
+      <c r="V111" s="90"/>
+      <c r="W111" s="90"/>
+      <c r="X111" s="90"/>
+      <c r="Y111" s="91"/>
     </row>
     <row r="112" spans="1:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B112" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112" s="90">
-        <v>1</v>
-      </c>
-      <c r="D112" s="91">
+      <c r="B112" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="88">
+        <v>1</v>
+      </c>
+      <c r="D112" s="89">
         <v>24</v>
       </c>
-      <c r="E112" s="91">
+      <c r="E112" s="89">
         <v>24</v>
       </c>
-      <c r="F112" s="91"/>
-      <c r="G112" s="91"/>
-      <c r="H112" s="91"/>
-      <c r="I112" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J112" s="92"/>
-      <c r="K112" s="92" t="s">
+      <c r="F112" s="89"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="89"/>
+      <c r="I112" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J112" s="90"/>
+      <c r="K112" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="L112" s="92" t="s">
+      <c r="L112" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="M112" s="92">
+      <c r="M112" s="90">
         <v>3</v>
       </c>
-      <c r="N112" s="92"/>
-      <c r="O112" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="P112" s="92" t="s">
+      <c r="N112" s="90"/>
+      <c r="O112" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="P112" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q112" s="92">
+      <c r="Q112" s="90">
         <v>15</v>
       </c>
-      <c r="R112" s="92"/>
-      <c r="S112" s="92" t="s">
+      <c r="R112" s="90"/>
+      <c r="S112" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="T112" s="92" t="s">
+      <c r="T112" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="U112" s="92">
+      <c r="U112" s="90">
         <v>7</v>
       </c>
-      <c r="V112" s="92"/>
-      <c r="W112" s="92"/>
-      <c r="X112" s="92"/>
-      <c r="Y112" s="93"/>
+      <c r="V112" s="90"/>
+      <c r="W112" s="90"/>
+      <c r="X112" s="90"/>
+      <c r="Y112" s="91"/>
     </row>
     <row r="113" spans="2:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B113" s="89" t="s">
+      <c r="B113" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="90">
-        <v>1</v>
-      </c>
-      <c r="D113" s="91">
+      <c r="C113" s="88">
+        <v>1</v>
+      </c>
+      <c r="D113" s="89">
         <v>0</v>
       </c>
-      <c r="E113" s="91">
-        <v>1</v>
-      </c>
-      <c r="F113" s="91"/>
-      <c r="G113" s="91"/>
-      <c r="H113" s="91"/>
-      <c r="I113" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J113" s="92"/>
-      <c r="K113" s="92"/>
-      <c r="L113" s="92"/>
-      <c r="M113" s="92"/>
-      <c r="N113" s="92"/>
-      <c r="O113" s="92"/>
-      <c r="P113" s="92"/>
-      <c r="Q113" s="92"/>
-      <c r="R113" s="92"/>
-      <c r="S113" s="92"/>
-      <c r="T113" s="92"/>
-      <c r="U113" s="92"/>
-      <c r="V113" s="92"/>
-      <c r="W113" s="92"/>
-      <c r="X113" s="92"/>
-      <c r="Y113" s="93"/>
+      <c r="E113" s="89">
+        <v>1</v>
+      </c>
+      <c r="F113" s="89"/>
+      <c r="G113" s="89"/>
+      <c r="H113" s="89"/>
+      <c r="I113" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J113" s="90"/>
+      <c r="K113" s="90"/>
+      <c r="L113" s="90"/>
+      <c r="M113" s="90"/>
+      <c r="N113" s="90"/>
+      <c r="O113" s="90"/>
+      <c r="P113" s="90"/>
+      <c r="Q113" s="90"/>
+      <c r="R113" s="90"/>
+      <c r="S113" s="90"/>
+      <c r="T113" s="90"/>
+      <c r="U113" s="90"/>
+      <c r="V113" s="90"/>
+      <c r="W113" s="90"/>
+      <c r="X113" s="90"/>
+      <c r="Y113" s="91"/>
     </row>
     <row r="114" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B114" s="89" t="s">
-        <v>158</v>
-      </c>
-      <c r="C114" s="90">
-        <v>1</v>
-      </c>
-      <c r="D114" s="91">
+      <c r="B114" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="88">
+        <v>1</v>
+      </c>
+      <c r="D114" s="89">
         <v>24</v>
       </c>
-      <c r="E114" s="91">
+      <c r="E114" s="89">
         <v>24</v>
       </c>
-      <c r="F114" s="91"/>
-      <c r="G114" s="91"/>
-      <c r="H114" s="91"/>
-      <c r="I114" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J114" s="92"/>
-      <c r="K114" s="92" t="s">
+      <c r="F114" s="89"/>
+      <c r="G114" s="89"/>
+      <c r="H114" s="89"/>
+      <c r="I114" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J114" s="90"/>
+      <c r="K114" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="L114" s="92" t="s">
+      <c r="L114" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="M114" s="92">
+      <c r="M114" s="90">
         <v>2</v>
       </c>
-      <c r="N114" s="92"/>
-      <c r="O114" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="P114" s="92" t="s">
+      <c r="N114" s="90"/>
+      <c r="O114" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="P114" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q114" s="92">
+      <c r="Q114" s="90">
         <v>20</v>
       </c>
-      <c r="R114" s="92"/>
-      <c r="S114" s="92" t="s">
+      <c r="R114" s="90"/>
+      <c r="S114" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="T114" s="92" t="s">
+      <c r="T114" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="U114" s="92">
+      <c r="U114" s="90">
         <v>8</v>
       </c>
-      <c r="V114" s="92"/>
-      <c r="W114" s="92"/>
-      <c r="X114" s="92"/>
-      <c r="Y114" s="93"/>
+      <c r="V114" s="90"/>
+      <c r="W114" s="90"/>
+      <c r="X114" s="90"/>
+      <c r="Y114" s="91"/>
     </row>
     <row r="115" spans="2:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B115" s="89" t="s">
+      <c r="B115" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C115" s="90">
-        <v>1</v>
-      </c>
-      <c r="D115" s="91">
+      <c r="C115" s="88">
+        <v>1</v>
+      </c>
+      <c r="D115" s="89">
         <v>0</v>
       </c>
-      <c r="E115" s="91">
-        <v>1</v>
-      </c>
-      <c r="F115" s="91"/>
-      <c r="G115" s="91"/>
-      <c r="H115" s="91"/>
-      <c r="I115" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J115" s="92"/>
-      <c r="K115" s="92"/>
-      <c r="L115" s="92"/>
-      <c r="M115" s="92"/>
-      <c r="N115" s="92"/>
-      <c r="O115" s="92"/>
-      <c r="P115" s="92"/>
-      <c r="Q115" s="92"/>
-      <c r="R115" s="92"/>
-      <c r="S115" s="92"/>
-      <c r="T115" s="92"/>
-      <c r="U115" s="92"/>
-      <c r="V115" s="92"/>
-      <c r="W115" s="92"/>
-      <c r="X115" s="92"/>
-      <c r="Y115" s="93"/>
+      <c r="E115" s="89">
+        <v>1</v>
+      </c>
+      <c r="F115" s="89"/>
+      <c r="G115" s="89"/>
+      <c r="H115" s="89"/>
+      <c r="I115" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J115" s="90"/>
+      <c r="K115" s="90"/>
+      <c r="L115" s="90"/>
+      <c r="M115" s="90"/>
+      <c r="N115" s="90"/>
+      <c r="O115" s="90"/>
+      <c r="P115" s="90"/>
+      <c r="Q115" s="90"/>
+      <c r="R115" s="90"/>
+      <c r="S115" s="90"/>
+      <c r="T115" s="90"/>
+      <c r="U115" s="90"/>
+      <c r="V115" s="90"/>
+      <c r="W115" s="90"/>
+      <c r="X115" s="90"/>
+      <c r="Y115" s="91"/>
     </row>
     <row r="116" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B116" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="C116" s="90">
-        <v>1</v>
-      </c>
-      <c r="D116" s="91">
+      <c r="B116" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" s="88">
+        <v>1</v>
+      </c>
+      <c r="D116" s="89">
         <v>24</v>
       </c>
-      <c r="E116" s="91">
+      <c r="E116" s="89">
         <v>24</v>
       </c>
-      <c r="F116" s="91"/>
-      <c r="G116" s="91"/>
-      <c r="H116" s="91"/>
-      <c r="I116" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J116" s="92"/>
-      <c r="K116" s="92" t="s">
+      <c r="F116" s="89"/>
+      <c r="G116" s="89"/>
+      <c r="H116" s="89"/>
+      <c r="I116" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J116" s="90"/>
+      <c r="K116" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="L116" s="92" t="s">
+      <c r="L116" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="M116" s="92">
+      <c r="M116" s="90">
         <v>2.5</v>
       </c>
-      <c r="N116" s="92"/>
-      <c r="O116" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="P116" s="92" t="s">
+      <c r="N116" s="90"/>
+      <c r="O116" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="P116" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q116" s="92">
+      <c r="Q116" s="90">
         <v>36</v>
       </c>
-      <c r="R116" s="92"/>
-      <c r="S116" s="92" t="s">
+      <c r="R116" s="90"/>
+      <c r="S116" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="T116" s="92" t="s">
+      <c r="T116" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="U116" s="92">
+      <c r="U116" s="90">
         <v>8</v>
       </c>
-      <c r="V116" s="92"/>
-      <c r="W116" s="92"/>
-      <c r="X116" s="92"/>
-      <c r="Y116" s="93"/>
+      <c r="V116" s="90"/>
+      <c r="W116" s="90"/>
+      <c r="X116" s="90"/>
+      <c r="Y116" s="91"/>
     </row>
     <row r="117" spans="2:25" s="17" customFormat="1" ht="22" customHeight="1">
-      <c r="B117" s="89" t="s">
+      <c r="B117" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C117" s="90">
-        <v>1</v>
-      </c>
-      <c r="D117" s="91">
+      <c r="C117" s="88">
+        <v>1</v>
+      </c>
+      <c r="D117" s="89">
         <v>0</v>
       </c>
-      <c r="E117" s="91">
-        <v>1</v>
-      </c>
-      <c r="F117" s="91"/>
-      <c r="G117" s="91"/>
-      <c r="H117" s="91"/>
-      <c r="I117" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="J117" s="92"/>
-      <c r="K117" s="92"/>
-      <c r="L117" s="92"/>
-      <c r="M117" s="92"/>
-      <c r="N117" s="92"/>
-      <c r="O117" s="92"/>
-      <c r="P117" s="92"/>
-      <c r="Q117" s="92"/>
-      <c r="R117" s="92"/>
-      <c r="S117" s="92"/>
-      <c r="T117" s="92"/>
-      <c r="U117" s="92"/>
-      <c r="V117" s="92"/>
-      <c r="W117" s="92"/>
-      <c r="X117" s="92"/>
-      <c r="Y117" s="93"/>
+      <c r="E117" s="89">
+        <v>1</v>
+      </c>
+      <c r="F117" s="89"/>
+      <c r="G117" s="89"/>
+      <c r="H117" s="89"/>
+      <c r="I117" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="J117" s="90"/>
+      <c r="K117" s="90"/>
+      <c r="L117" s="90"/>
+      <c r="M117" s="90"/>
+      <c r="N117" s="90"/>
+      <c r="O117" s="90"/>
+      <c r="P117" s="90"/>
+      <c r="Q117" s="90"/>
+      <c r="R117" s="90"/>
+      <c r="S117" s="90"/>
+      <c r="T117" s="90"/>
+      <c r="U117" s="90"/>
+      <c r="V117" s="90"/>
+      <c r="W117" s="90"/>
+      <c r="X117" s="90"/>
+      <c r="Y117" s="91"/>
     </row>
     <row r="118" spans="2:25" ht="21" customHeight="1">
-      <c r="B118" s="135" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" s="136">
-        <v>1</v>
-      </c>
-      <c r="D118" s="137">
+      <c r="B118" s="133" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="134">
+        <v>1</v>
+      </c>
+      <c r="D118" s="135">
         <f>ROUND(1*24,0)</f>
         <v>24</v>
       </c>
-      <c r="E118" s="138">
+      <c r="E118" s="136">
         <f>D118</f>
         <v>24</v>
       </c>
-      <c r="F118" s="138"/>
-      <c r="G118" s="138"/>
-      <c r="H118" s="138"/>
-      <c r="I118" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="J118" s="139"/>
-      <c r="K118" s="139"/>
-      <c r="L118" s="139"/>
-      <c r="M118" s="139"/>
-      <c r="N118" s="139"/>
-      <c r="O118" s="139"/>
-      <c r="P118" s="139"/>
-      <c r="Q118" s="139"/>
-      <c r="R118" s="139"/>
-      <c r="S118" s="139"/>
-      <c r="T118" s="139"/>
-      <c r="U118" s="139"/>
-      <c r="V118" s="139"/>
-      <c r="W118" s="139"/>
-      <c r="X118" s="139"/>
-      <c r="Y118" s="140"/>
+      <c r="F118" s="136"/>
+      <c r="G118" s="136"/>
+      <c r="H118" s="136"/>
+      <c r="I118" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="J118" s="137"/>
+      <c r="K118" s="137"/>
+      <c r="L118" s="137"/>
+      <c r="M118" s="137"/>
+      <c r="N118" s="137"/>
+      <c r="O118" s="137"/>
+      <c r="P118" s="137"/>
+      <c r="Q118" s="137"/>
+      <c r="R118" s="137"/>
+      <c r="S118" s="137"/>
+      <c r="T118" s="137"/>
+      <c r="U118" s="137"/>
+      <c r="V118" s="137"/>
+      <c r="W118" s="137"/>
+      <c r="X118" s="137"/>
+      <c r="Y118" s="138"/>
     </row>
     <row r="119" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="B119" s="68" t="s">
+      <c r="B119" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C119" s="69">
-        <v>1</v>
-      </c>
-      <c r="D119" s="70">
+      <c r="C119" s="67">
+        <v>1</v>
+      </c>
+      <c r="D119" s="68">
         <v>0</v>
       </c>
-      <c r="E119" s="71">
-        <v>1</v>
-      </c>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="J119" s="71"/>
-      <c r="K119" s="71"/>
-      <c r="L119" s="71"/>
-      <c r="M119" s="71"/>
-      <c r="N119" s="71"/>
-      <c r="O119" s="71"/>
-      <c r="P119" s="71"/>
-      <c r="Q119" s="71"/>
-      <c r="R119" s="71"/>
-      <c r="S119" s="71"/>
-      <c r="T119" s="71"/>
-      <c r="U119" s="71"/>
-      <c r="V119" s="71"/>
-      <c r="W119" s="71"/>
-      <c r="X119" s="71"/>
-      <c r="Y119" s="73"/>
+      <c r="E119" s="69">
+        <v>1</v>
+      </c>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="H119" s="69"/>
+      <c r="I119" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="J119" s="69"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="69"/>
+      <c r="M119" s="69"/>
+      <c r="N119" s="69"/>
+      <c r="O119" s="69"/>
+      <c r="P119" s="69"/>
+      <c r="Q119" s="69"/>
+      <c r="R119" s="69"/>
+      <c r="S119" s="69"/>
+      <c r="T119" s="69"/>
+      <c r="U119" s="69"/>
+      <c r="V119" s="69"/>
+      <c r="W119" s="69"/>
+      <c r="X119" s="69"/>
+      <c r="Y119" s="71"/>
     </row>
     <row r="120" spans="2:25" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="B120" s="30"/>
@@ -6652,12 +6631,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="112"/>
+    <col min="1" max="16384" width="10.83203125" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23">
       <c r="A1" s="162" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B1" s="163"/>
       <c r="C1" s="163"/>
@@ -6671,121 +6650,121 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28">
-      <c r="A4" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>172</v>
+      <c r="A4" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="97"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="165"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="152"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="101"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="166"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="153"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="101"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="101"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="101"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6810,7 +6789,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6818,7 +6797,7 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -6836,257 +6815,257 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="112" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="112" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="112"/>
-    <col min="11" max="11" width="16.6640625" style="112" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="112" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="112" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="112"/>
+    <col min="1" max="1" width="17.33203125" style="110" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.83203125" style="110"/>
+    <col min="11" max="11" width="16.6640625" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="110" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="110" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="161" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="161"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="161" t="s">
+      <c r="F1" s="164"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="161"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="161" t="s">
+      <c r="I1" s="164"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
     </row>
     <row r="2" spans="1:13" ht="20">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="16">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="115" t="s">
+      <c r="D3" s="114"/>
+      <c r="E3" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="115" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="116"/>
-      <c r="K3" s="115" t="s">
+      <c r="J3" s="114"/>
+      <c r="K3" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="115" t="s">
+      <c r="L3" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="113" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="118" t="s">
+      <c r="A4" s="116"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="121"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="124" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="122" t="s">
+      <c r="D5" s="119"/>
+      <c r="E5" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="124"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="124"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124" t="s">
+      <c r="B6" s="121"/>
+      <c r="C6" s="122" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="125" t="s">
+      <c r="D6" s="119"/>
+      <c r="E6" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="126"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="126"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="124"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="124" t="s">
+      <c r="B7" s="121"/>
+      <c r="C7" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="122"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
+      <c r="A8" s="120"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="122"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="122"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="122"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="122"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
+      <c r="A12" s="120"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="125"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7104,7 +7083,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -7126,16 +7105,16 @@
     </row>
     <row r="2" spans="1:11" ht="5" customHeight="1"/>
     <row r="3" spans="1:11" ht="45" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="108" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -7147,16 +7126,12 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="14" customHeight="1">
-      <c r="A4" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="99">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="97">
         <v>43739</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="98">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -7168,16 +7143,12 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="14" customHeight="1">
-      <c r="A5" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="103">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="101">
         <v>43739</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="102">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -7189,16 +7160,12 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="14" customHeight="1">
-      <c r="A6" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="103">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101">
         <v>43739</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="102">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -7210,16 +7177,12 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="14" customHeight="1">
-      <c r="A7" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="103">
+      <c r="A7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101">
         <v>43739</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="102">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -7231,16 +7194,12 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="14" customHeight="1">
-      <c r="A8" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="103">
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101">
         <v>43739</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="102">
         <v>0</v>
       </c>
       <c r="G8" s="1"/>
@@ -7250,16 +7209,12 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="14" customHeight="1">
-      <c r="A9" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="103">
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101">
         <v>43739</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="102">
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
@@ -7269,16 +7224,12 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="14" customHeight="1">
-      <c r="A10" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="103">
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101">
         <v>43739</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="102">
         <v>0</v>
       </c>
       <c r="G10" s="1"/>
@@ -7288,122 +7239,90 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="14" customHeight="1">
-      <c r="A11" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="103">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101">
         <v>43739</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14" customHeight="1">
-      <c r="A12" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="103">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101">
         <v>43739</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14" customHeight="1">
-      <c r="A13" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="103">
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101">
         <v>43739</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14" customHeight="1">
-      <c r="A14" s="101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="103">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101">
         <v>43739</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14" customHeight="1">
-      <c r="A15" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="103">
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101">
         <v>43739</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" customHeight="1">
-      <c r="A16" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="103">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101">
         <v>43739</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1">
-      <c r="A17" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="103">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101">
         <v>43739</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="106" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="107">
+      <c r="A18" s="103"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105">
         <v>43739</v>
       </c>
-      <c r="D18" s="108">
+      <c r="D18" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
     </row>
     <row r="20" spans="1:4" ht="14" customHeight="1"/>
     <row r="21" spans="1:4" ht="14" customHeight="1"/>
@@ -7438,6 +7357,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000BE91B0E0F707B44ADD54BD807FC8041" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b68bb6a24addb1edd44e9968faaee9b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c891a41a-a233-45b7-a3f1-ec06333a8c94" xmlns:ns3="5fb5e84a-5684-468e-b345-7aeeb4845130" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e52f23a99c9b746e189691b84a6c0e11" ns2:_="" ns3:_="">
     <xsd:import namespace="c891a41a-a233-45b7-a3f1-ec06333a8c94"/>
@@ -7686,33 +7614,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F179306B-7E3C-4332-A628-E921D465300E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c891a41a-a233-45b7-a3f1-ec06333a8c94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5fb5e84a-5684-468e-b345-7aeeb4845130"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5fb5e84a-5684-468e-b345-7aeeb4845130"/>
-    <ds:schemaRef ds:uri="c891a41a-a233-45b7-a3f1-ec06333a8c94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D483FCC-4ABD-42B8-88C8-9F5EF14F5CC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6B94105-627F-4D0E-8A55-E3EDF454C95A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7729,12 +7656,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D483FCC-4ABD-42B8-88C8-9F5EF14F5CC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>